--- a/Code/Results/Cases/Case_1_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.94997837139608</v>
+        <v>0.9499783713960802</v>
       </c>
       <c r="D2">
         <v>1.026003483165936</v>
       </c>
       <c r="E2">
-        <v>0.9626588718060318</v>
+        <v>0.9626588718060323</v>
       </c>
       <c r="F2">
-        <v>0.9692485749839388</v>
+        <v>0.9692485749839389</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.042440013555843</v>
       </c>
       <c r="J2">
-        <v>0.9737655820280577</v>
+        <v>0.9737655820280581</v>
       </c>
       <c r="K2">
         <v>1.037112055655245</v>
       </c>
       <c r="L2">
-        <v>0.9746641627072196</v>
+        <v>0.9746641627072202</v>
       </c>
       <c r="M2">
-        <v>0.9811536273125985</v>
+        <v>0.9811536273125986</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9601090982493975</v>
+        <v>0.9601090982493981</v>
       </c>
       <c r="D3">
         <v>1.029232524750955</v>
       </c>
       <c r="E3">
-        <v>0.9711383140487508</v>
+        <v>0.9711383140487511</v>
       </c>
       <c r="F3">
         <v>0.9791402351191363</v>
@@ -477,13 +477,13 @@
         <v>1.044571961319657</v>
       </c>
       <c r="J3">
-        <v>0.9817496318153455</v>
+        <v>0.9817496318153461</v>
       </c>
       <c r="K3">
         <v>1.03950454876884</v>
       </c>
       <c r="L3">
-        <v>0.9821543089057955</v>
+        <v>0.9821543089057962</v>
       </c>
       <c r="M3">
         <v>0.9900471665895273</v>
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9663938319602495</v>
+        <v>0.9663938319602491</v>
       </c>
       <c r="D4">
-        <v>1.031250905143777</v>
+        <v>1.031250905143776</v>
       </c>
       <c r="E4">
-        <v>0.9764073135603394</v>
+        <v>0.9764073135603387</v>
       </c>
       <c r="F4">
-        <v>0.9852820390909334</v>
+        <v>0.9852820390909331</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.045880097758626</v>
       </c>
       <c r="J4">
-        <v>0.9866980845409932</v>
+        <v>0.9866980845409927</v>
       </c>
       <c r="K4">
-        <v>1.040986240589116</v>
+        <v>1.040986240589115</v>
       </c>
       <c r="L4">
-        <v>0.9867990760844282</v>
+        <v>0.9867990760844276</v>
       </c>
       <c r="M4">
-        <v>0.9955614037575631</v>
+        <v>0.9955614037575627</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9689762122222049</v>
+        <v>0.9689762122222042</v>
       </c>
       <c r="D5">
         <v>1.032083389468633</v>
       </c>
       <c r="E5">
-        <v>0.9785742178404078</v>
+        <v>0.9785742178404074</v>
       </c>
       <c r="F5">
-        <v>0.9878067503258828</v>
+        <v>0.9878067503258822</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046413904919272</v>
+        <v>1.046413904919271</v>
       </c>
       <c r="J5">
-        <v>0.9887301682803307</v>
+        <v>0.98873016828033</v>
       </c>
       <c r="K5">
-        <v>1.041594131414372</v>
+        <v>1.041594131414371</v>
       </c>
       <c r="L5">
-        <v>0.9887070119483639</v>
+        <v>0.9887070119483634</v>
       </c>
       <c r="M5">
-        <v>0.9978262415735019</v>
+        <v>0.9978262415735012</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9694064381388235</v>
+        <v>0.9694064381388232</v>
       </c>
       <c r="D6">
-        <v>1.032222252381723</v>
+        <v>1.032222252381722</v>
       </c>
       <c r="E6">
-        <v>0.9789353310649237</v>
+        <v>0.9789353310649233</v>
       </c>
       <c r="F6">
-        <v>0.9882274247217026</v>
+        <v>0.988227424721702</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046502613048543</v>
+        <v>1.046502613048542</v>
       </c>
       <c r="J6">
-        <v>0.9890686391019732</v>
+        <v>0.9890686391019727</v>
       </c>
       <c r="K6">
-        <v>1.041695342465771</v>
+        <v>1.04169534246577</v>
       </c>
       <c r="L6">
-        <v>0.9890248366652238</v>
+        <v>0.9890248366652233</v>
       </c>
       <c r="M6">
-        <v>0.9982035027432447</v>
+        <v>0.9982035027432442</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9664285663186792</v>
+        <v>0.9664285663186805</v>
       </c>
       <c r="D7">
         <v>1.031262090688368</v>
       </c>
       <c r="E7">
-        <v>0.9764364523048578</v>
+        <v>0.9764364523048589</v>
       </c>
       <c r="F7">
-        <v>0.9853159938504709</v>
+        <v>0.9853159938504716</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.045887292732124</v>
       </c>
       <c r="J7">
-        <v>0.9867254221337729</v>
+        <v>0.9867254221337739</v>
       </c>
       <c r="K7">
         <v>1.04099442114956</v>
       </c>
       <c r="L7">
-        <v>0.9868247413206231</v>
+        <v>0.9868247413206241</v>
       </c>
       <c r="M7">
-        <v>0.9955918710511612</v>
+        <v>0.9955918710511619</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9534613570189445</v>
+        <v>0.9534613570189439</v>
       </c>
       <c r="D8">
         <v>1.027110074583885</v>
       </c>
       <c r="E8">
-        <v>0.9655721689248226</v>
+        <v>0.9655721689248218</v>
       </c>
       <c r="F8">
-        <v>0.9726480723965862</v>
+        <v>0.9726480723965856</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.043175906921572</v>
       </c>
       <c r="J8">
-        <v>0.9765114177028396</v>
+        <v>0.9765114177028387</v>
       </c>
       <c r="K8">
         <v>1.037934929445431</v>
       </c>
       <c r="L8">
-        <v>0.9772396043188858</v>
+        <v>0.9772396043188851</v>
       </c>
       <c r="M8">
-        <v>0.9842117480470128</v>
+        <v>0.9842117480470122</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9282724528444888</v>
+        <v>0.9282724528444884</v>
       </c>
       <c r="D9">
-        <v>1.019199475994388</v>
+        <v>1.019199475994389</v>
       </c>
       <c r="E9">
-        <v>0.9445514005500548</v>
+        <v>0.9445514005500547</v>
       </c>
       <c r="F9">
-        <v>0.9480984212818623</v>
+        <v>0.9480984212818619</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.037801223041795</v>
       </c>
       <c r="J9">
-        <v>0.9566397410905182</v>
+        <v>0.956639741090518</v>
       </c>
       <c r="K9">
-        <v>1.031988550041834</v>
+        <v>1.031988550041835</v>
       </c>
       <c r="L9">
-        <v>0.958613072580793</v>
+        <v>0.9586130725807928</v>
       </c>
       <c r="M9">
-        <v>0.9620937072156848</v>
+        <v>0.9620937072156845</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9094501321874466</v>
+        <v>0.9094501321874471</v>
       </c>
       <c r="D10">
         <v>1.013441633271895</v>
       </c>
       <c r="E10">
-        <v>0.9289201510575689</v>
+        <v>0.9289201510575692</v>
       </c>
       <c r="F10">
-        <v>0.92981636941354</v>
+        <v>0.9298163694135402</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.033731631947495</v>
       </c>
       <c r="J10">
-        <v>0.9417817349384315</v>
+        <v>0.9417817349384321</v>
       </c>
       <c r="K10">
         <v>1.027572363143491</v>
       </c>
       <c r="L10">
-        <v>0.9447034147909983</v>
+        <v>0.9447034147909987</v>
       </c>
       <c r="M10">
-        <v>0.9455800154301148</v>
+        <v>0.9455800154301149</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9006830362798499</v>
+        <v>0.9006830362798505</v>
       </c>
       <c r="D11">
         <v>1.010809071603475</v>
       </c>
       <c r="E11">
-        <v>0.9216631639369941</v>
+        <v>0.9216631639369943</v>
       </c>
       <c r="F11">
-        <v>0.9213224475788272</v>
+        <v>0.921322447578828</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.03182915394185</v>
       </c>
       <c r="J11">
-        <v>0.9348626050212485</v>
+        <v>0.9348626050212491</v>
       </c>
       <c r="K11">
         <v>1.025529983491823</v>
       </c>
       <c r="L11">
-        <v>0.938230770288608</v>
+        <v>0.9382307702886084</v>
       </c>
       <c r="M11">
-        <v>0.9378980308483715</v>
+        <v>0.9378980308483722</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8973188884860293</v>
+        <v>0.8973188884860318</v>
       </c>
       <c r="D12">
         <v>1.009807615549163</v>
       </c>
       <c r="E12">
-        <v>0.9188826480509511</v>
+        <v>0.9188826480509539</v>
       </c>
       <c r="F12">
-        <v>0.918067070864148</v>
+        <v>0.9180670708641498</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.031098681047042</v>
       </c>
       <c r="J12">
-        <v>0.9322081739469373</v>
+        <v>0.93220817394694</v>
       </c>
       <c r="K12">
         <v>1.024749298770131</v>
       </c>
       <c r="L12">
-        <v>0.9357484351553612</v>
+        <v>0.9357484351553637</v>
       </c>
       <c r="M12">
-        <v>0.9349524352902429</v>
+        <v>0.9349524352902449</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8980456618207425</v>
+        <v>0.8980456618207416</v>
       </c>
       <c r="D13">
         <v>1.010023548918511</v>
       </c>
       <c r="E13">
-        <v>0.9194831379996462</v>
+        <v>0.9194831379996453</v>
       </c>
       <c r="F13">
-        <v>0.9187701549905504</v>
+        <v>0.91877015499055</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.031256498083934</v>
       </c>
       <c r="J13">
-        <v>0.9327815892390918</v>
+        <v>0.932781589239091</v>
       </c>
       <c r="K13">
         <v>1.024917802787346</v>
       </c>
       <c r="L13">
-        <v>0.9362846361296355</v>
+        <v>0.9362846361296348</v>
       </c>
       <c r="M13">
-        <v>0.935588676289447</v>
+        <v>0.9355886762894468</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -886,7 +886,7 @@
         <v>0.9214351352055856</v>
       </c>
       <c r="F14">
-        <v>0.9210554944101694</v>
+        <v>0.9210554944101693</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -904,7 +904,7 @@
         <v>0.9380272430992783</v>
       </c>
       <c r="M14">
-        <v>0.9376565088926497</v>
+        <v>0.9376565088926494</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9018475281599944</v>
+        <v>0.9018475281599948</v>
       </c>
       <c r="D15">
         <v>1.011156862217466</v>
       </c>
       <c r="E15">
-        <v>0.9226261765588201</v>
+        <v>0.922626176558821</v>
       </c>
       <c r="F15">
-        <v>0.9224498087002944</v>
+        <v>0.9224498087002948</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032081969190646</v>
       </c>
       <c r="J15">
-        <v>0.935781519546574</v>
+        <v>0.9357815195465746</v>
       </c>
       <c r="K15">
         <v>1.025800623367442</v>
       </c>
       <c r="L15">
-        <v>0.9390902125702479</v>
+        <v>0.9390902125702486</v>
       </c>
       <c r="M15">
-        <v>0.9389179379032563</v>
+        <v>0.9389179379032566</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9100177786752474</v>
+        <v>0.9100177786752462</v>
       </c>
       <c r="D16">
         <v>1.013613196813174</v>
       </c>
       <c r="E16">
-        <v>0.9293905543410346</v>
+        <v>0.9293905543410338</v>
       </c>
       <c r="F16">
-        <v>0.9303668243591888</v>
+        <v>0.930366824359188</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.033854717861812</v>
       </c>
       <c r="J16">
-        <v>0.9422297906883675</v>
+        <v>0.9422297906883668</v>
       </c>
       <c r="K16">
         <v>1.027704966202045</v>
       </c>
       <c r="L16">
-        <v>0.9451226632584496</v>
+        <v>0.945122663258449</v>
       </c>
       <c r="M16">
-        <v>0.9460776585583464</v>
+        <v>0.9460776585583456</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,7 +991,7 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9149680789001979</v>
+        <v>0.9149680789001983</v>
       </c>
       <c r="D17">
         <v>1.015114969021972</v>
@@ -1000,7 +1000,7 @@
         <v>0.9334955174173216</v>
       </c>
       <c r="F17">
-        <v>0.9351696598886985</v>
+        <v>0.9351696598886983</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,13 +1009,13 @@
         <v>1.034927408409025</v>
       </c>
       <c r="J17">
-        <v>0.9461373698644856</v>
+        <v>0.9461373698644859</v>
       </c>
       <c r="K17">
         <v>1.028863068626188</v>
       </c>
       <c r="L17">
-        <v>0.9487795552764028</v>
+        <v>0.9487795552764029</v>
       </c>
       <c r="M17">
         <v>0.9504186315830651</v>
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9177971564487828</v>
+        <v>0.917797156448783</v>
       </c>
       <c r="D18">
         <v>1.015977686626615</v>
       </c>
       <c r="E18">
-        <v>0.9358436380878015</v>
+        <v>0.9358436380878019</v>
       </c>
       <c r="F18">
-        <v>0.9379163967578723</v>
+        <v>0.9379163967578721</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.035539764642032</v>
       </c>
       <c r="J18">
-        <v>0.94837064299364</v>
+        <v>0.9483706429936402</v>
       </c>
       <c r="K18">
         <v>1.029526208242098</v>
       </c>
       <c r="L18">
-        <v>0.9508699972368404</v>
+        <v>0.9508699972368405</v>
       </c>
       <c r="M18">
-        <v>0.9529003343001017</v>
+        <v>0.9529003343001016</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9187523014327568</v>
+        <v>0.9187523014327572</v>
       </c>
       <c r="D19">
         <v>1.016269676934655</v>
       </c>
       <c r="E19">
-        <v>0.9366367531525657</v>
+        <v>0.9366367531525658</v>
       </c>
       <c r="F19">
-        <v>0.9388440519733502</v>
+        <v>0.9388440519733506</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03574637512735</v>
+        <v>1.035746375127351</v>
       </c>
       <c r="J19">
-        <v>0.949124642304198</v>
+        <v>0.9491246423041984</v>
       </c>
       <c r="K19">
-        <v>1.029750292134226</v>
+        <v>1.029750292134227</v>
       </c>
       <c r="L19">
-        <v>0.9515758468243685</v>
+        <v>0.9515758468243686</v>
       </c>
       <c r="M19">
-        <v>0.9537383263786988</v>
+        <v>0.9537383263786993</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.91444309093777</v>
+        <v>0.9144430909377702</v>
       </c>
       <c r="D20">
         <v>1.014955230039596</v>
       </c>
       <c r="E20">
-        <v>0.9330599510372154</v>
+        <v>0.9330599510372156</v>
       </c>
       <c r="F20">
-        <v>0.9346601046226503</v>
+        <v>0.9346601046226504</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.034813715000665</v>
       </c>
       <c r="J20">
-        <v>0.9457229507203252</v>
+        <v>0.9457229507203254</v>
       </c>
       <c r="K20">
         <v>1.028740110166696</v>
       </c>
       <c r="L20">
-        <v>0.9483916762005037</v>
+        <v>0.9483916762005039</v>
       </c>
       <c r="M20">
-        <v>0.949958170478246</v>
+        <v>0.9499581704782462</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8997149319836978</v>
+        <v>0.8997149319836981</v>
       </c>
       <c r="D21">
         <v>1.01052037913937</v>
       </c>
       <c r="E21">
-        <v>0.9208627722618586</v>
+        <v>0.9208627722618591</v>
       </c>
       <c r="F21">
-        <v>0.9203854144449565</v>
+        <v>0.9203854144449567</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.031618958366034</v>
       </c>
       <c r="J21">
-        <v>0.9340986959738169</v>
+        <v>0.9340986959738172</v>
       </c>
       <c r="K21">
         <v>1.025305143707064</v>
       </c>
       <c r="L21">
-        <v>0.9375163423146379</v>
+        <v>0.9375163423146383</v>
       </c>
       <c r="M21">
-        <v>0.9370502416112857</v>
+        <v>0.9370502416112861</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8898215331522803</v>
+        <v>0.8898215331522794</v>
       </c>
       <c r="D22">
         <v>1.007593633301068</v>
       </c>
       <c r="E22">
-        <v>0.9126945012454019</v>
+        <v>0.9126945012454014</v>
       </c>
       <c r="F22">
-        <v>0.9108203994355436</v>
+        <v>0.9108203994355432</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.029470682778477</v>
       </c>
       <c r="J22">
-        <v>0.9262941375867844</v>
+        <v>0.9262941375867838</v>
       </c>
       <c r="K22">
         <v>1.023016145000712</v>
       </c>
       <c r="L22">
-        <v>0.9302194304697575</v>
+        <v>0.9302194304697571</v>
       </c>
       <c r="M22">
-        <v>0.9283928173125294</v>
+        <v>0.9283928173125291</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8951322564641501</v>
+        <v>0.8951322564641486</v>
       </c>
       <c r="D23">
         <v>1.009159333107163</v>
       </c>
       <c r="E23">
-        <v>0.9170766274599619</v>
+        <v>0.9170766274599608</v>
       </c>
       <c r="F23">
-        <v>0.9159523553824789</v>
+        <v>0.915952355382478</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030623846053168</v>
+        <v>1.030623846053167</v>
       </c>
       <c r="J23">
-        <v>0.930483071909971</v>
+        <v>0.9304830719099697</v>
       </c>
       <c r="K23">
         <v>1.024242839622116</v>
       </c>
       <c r="L23">
-        <v>0.9341354167928205</v>
+        <v>0.9341354167928192</v>
       </c>
       <c r="M23">
-        <v>0.9330385672969581</v>
+        <v>0.9330385672969572</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.9146804896200227</v>
+        <v>0.914680489620023</v>
       </c>
       <c r="D24">
         <v>1.01502744993277</v>
       </c>
       <c r="E24">
-        <v>0.9332569067699996</v>
+        <v>0.9332569067700001</v>
       </c>
       <c r="F24">
-        <v>0.9348905186854907</v>
+        <v>0.934890518685491</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034865129139674</v>
+        <v>1.034865129139673</v>
       </c>
       <c r="J24">
-        <v>0.9459103500621725</v>
+        <v>0.9459103500621727</v>
       </c>
       <c r="K24">
-        <v>1.028795707820827</v>
+        <v>1.028795707820826</v>
       </c>
       <c r="L24">
-        <v>0.9485670728138769</v>
+        <v>0.9485670728138772</v>
       </c>
       <c r="M24">
-        <v>0.9501663876127691</v>
+        <v>0.9501663876127694</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1298,31 +1298,31 @@
         <v>0.9351034376523067</v>
       </c>
       <c r="D25">
-        <v>1.02132279080537</v>
+        <v>1.021322790805371</v>
       </c>
       <c r="E25">
-        <v>0.950240798045287</v>
+        <v>0.9502407980452874</v>
       </c>
       <c r="F25">
-        <v>0.9547474083421301</v>
+        <v>0.9547474083421302</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039269280244845</v>
+        <v>1.039269280244846</v>
       </c>
       <c r="J25">
-        <v>0.9620312092402399</v>
+        <v>0.96203120924024</v>
       </c>
       <c r="K25">
-        <v>1.033598875806727</v>
+        <v>1.033598875806728</v>
       </c>
       <c r="L25">
         <v>0.9636640180655762</v>
       </c>
       <c r="M25">
-        <v>0.9680913316694411</v>
+        <v>0.9680913316694413</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9499783713960802</v>
+        <v>0.94997837139608</v>
       </c>
       <c r="D2">
         <v>1.026003483165936</v>
       </c>
       <c r="E2">
-        <v>0.9626588718060323</v>
+        <v>0.9626588718060318</v>
       </c>
       <c r="F2">
-        <v>0.9692485749839389</v>
+        <v>0.9692485749839388</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.042440013555843</v>
       </c>
       <c r="J2">
-        <v>0.9737655820280581</v>
+        <v>0.9737655820280577</v>
       </c>
       <c r="K2">
         <v>1.037112055655245</v>
       </c>
       <c r="L2">
-        <v>0.9746641627072202</v>
+        <v>0.9746641627072196</v>
       </c>
       <c r="M2">
-        <v>0.9811536273125986</v>
+        <v>0.9811536273125985</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9601090982493981</v>
+        <v>0.9601090982493975</v>
       </c>
       <c r="D3">
         <v>1.029232524750955</v>
       </c>
       <c r="E3">
-        <v>0.9711383140487511</v>
+        <v>0.9711383140487508</v>
       </c>
       <c r="F3">
         <v>0.9791402351191363</v>
@@ -477,13 +477,13 @@
         <v>1.044571961319657</v>
       </c>
       <c r="J3">
-        <v>0.9817496318153461</v>
+        <v>0.9817496318153455</v>
       </c>
       <c r="K3">
         <v>1.03950454876884</v>
       </c>
       <c r="L3">
-        <v>0.9821543089057962</v>
+        <v>0.9821543089057955</v>
       </c>
       <c r="M3">
         <v>0.9900471665895273</v>
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9663938319602491</v>
+        <v>0.9663938319602495</v>
       </c>
       <c r="D4">
-        <v>1.031250905143776</v>
+        <v>1.031250905143777</v>
       </c>
       <c r="E4">
-        <v>0.9764073135603387</v>
+        <v>0.9764073135603394</v>
       </c>
       <c r="F4">
-        <v>0.9852820390909331</v>
+        <v>0.9852820390909334</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.045880097758626</v>
       </c>
       <c r="J4">
-        <v>0.9866980845409927</v>
+        <v>0.9866980845409932</v>
       </c>
       <c r="K4">
-        <v>1.040986240589115</v>
+        <v>1.040986240589116</v>
       </c>
       <c r="L4">
-        <v>0.9867990760844276</v>
+        <v>0.9867990760844282</v>
       </c>
       <c r="M4">
-        <v>0.9955614037575627</v>
+        <v>0.9955614037575631</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9689762122222042</v>
+        <v>0.9689762122222049</v>
       </c>
       <c r="D5">
         <v>1.032083389468633</v>
       </c>
       <c r="E5">
-        <v>0.9785742178404074</v>
+        <v>0.9785742178404078</v>
       </c>
       <c r="F5">
-        <v>0.9878067503258822</v>
+        <v>0.9878067503258828</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046413904919271</v>
+        <v>1.046413904919272</v>
       </c>
       <c r="J5">
-        <v>0.98873016828033</v>
+        <v>0.9887301682803307</v>
       </c>
       <c r="K5">
-        <v>1.041594131414371</v>
+        <v>1.041594131414372</v>
       </c>
       <c r="L5">
-        <v>0.9887070119483634</v>
+        <v>0.9887070119483639</v>
       </c>
       <c r="M5">
-        <v>0.9978262415735012</v>
+        <v>0.9978262415735019</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9694064381388232</v>
+        <v>0.9694064381388235</v>
       </c>
       <c r="D6">
-        <v>1.032222252381722</v>
+        <v>1.032222252381723</v>
       </c>
       <c r="E6">
-        <v>0.9789353310649233</v>
+        <v>0.9789353310649237</v>
       </c>
       <c r="F6">
-        <v>0.988227424721702</v>
+        <v>0.9882274247217026</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046502613048542</v>
+        <v>1.046502613048543</v>
       </c>
       <c r="J6">
-        <v>0.9890686391019727</v>
+        <v>0.9890686391019732</v>
       </c>
       <c r="K6">
-        <v>1.04169534246577</v>
+        <v>1.041695342465771</v>
       </c>
       <c r="L6">
-        <v>0.9890248366652233</v>
+        <v>0.9890248366652238</v>
       </c>
       <c r="M6">
-        <v>0.9982035027432442</v>
+        <v>0.9982035027432447</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9664285663186805</v>
+        <v>0.9664285663186792</v>
       </c>
       <c r="D7">
         <v>1.031262090688368</v>
       </c>
       <c r="E7">
-        <v>0.9764364523048589</v>
+        <v>0.9764364523048578</v>
       </c>
       <c r="F7">
-        <v>0.9853159938504716</v>
+        <v>0.9853159938504709</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.045887292732124</v>
       </c>
       <c r="J7">
-        <v>0.9867254221337739</v>
+        <v>0.9867254221337729</v>
       </c>
       <c r="K7">
         <v>1.04099442114956</v>
       </c>
       <c r="L7">
-        <v>0.9868247413206241</v>
+        <v>0.9868247413206231</v>
       </c>
       <c r="M7">
-        <v>0.9955918710511619</v>
+        <v>0.9955918710511612</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9534613570189439</v>
+        <v>0.9534613570189445</v>
       </c>
       <c r="D8">
         <v>1.027110074583885</v>
       </c>
       <c r="E8">
-        <v>0.9655721689248218</v>
+        <v>0.9655721689248226</v>
       </c>
       <c r="F8">
-        <v>0.9726480723965856</v>
+        <v>0.9726480723965862</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.043175906921572</v>
       </c>
       <c r="J8">
-        <v>0.9765114177028387</v>
+        <v>0.9765114177028396</v>
       </c>
       <c r="K8">
         <v>1.037934929445431</v>
       </c>
       <c r="L8">
-        <v>0.9772396043188851</v>
+        <v>0.9772396043188858</v>
       </c>
       <c r="M8">
-        <v>0.9842117480470122</v>
+        <v>0.9842117480470128</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9282724528444884</v>
+        <v>0.9282724528444888</v>
       </c>
       <c r="D9">
-        <v>1.019199475994389</v>
+        <v>1.019199475994388</v>
       </c>
       <c r="E9">
-        <v>0.9445514005500547</v>
+        <v>0.9445514005500548</v>
       </c>
       <c r="F9">
-        <v>0.9480984212818619</v>
+        <v>0.9480984212818623</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.037801223041795</v>
       </c>
       <c r="J9">
-        <v>0.956639741090518</v>
+        <v>0.9566397410905182</v>
       </c>
       <c r="K9">
-        <v>1.031988550041835</v>
+        <v>1.031988550041834</v>
       </c>
       <c r="L9">
-        <v>0.9586130725807928</v>
+        <v>0.958613072580793</v>
       </c>
       <c r="M9">
-        <v>0.9620937072156845</v>
+        <v>0.9620937072156848</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9094501321874471</v>
+        <v>0.9094501321874466</v>
       </c>
       <c r="D10">
         <v>1.013441633271895</v>
       </c>
       <c r="E10">
-        <v>0.9289201510575692</v>
+        <v>0.9289201510575689</v>
       </c>
       <c r="F10">
-        <v>0.9298163694135402</v>
+        <v>0.92981636941354</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.033731631947495</v>
       </c>
       <c r="J10">
-        <v>0.9417817349384321</v>
+        <v>0.9417817349384315</v>
       </c>
       <c r="K10">
         <v>1.027572363143491</v>
       </c>
       <c r="L10">
-        <v>0.9447034147909987</v>
+        <v>0.9447034147909983</v>
       </c>
       <c r="M10">
-        <v>0.9455800154301149</v>
+        <v>0.9455800154301148</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9006830362798505</v>
+        <v>0.9006830362798499</v>
       </c>
       <c r="D11">
         <v>1.010809071603475</v>
       </c>
       <c r="E11">
-        <v>0.9216631639369943</v>
+        <v>0.9216631639369941</v>
       </c>
       <c r="F11">
-        <v>0.921322447578828</v>
+        <v>0.9213224475788272</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.03182915394185</v>
       </c>
       <c r="J11">
-        <v>0.9348626050212491</v>
+        <v>0.9348626050212485</v>
       </c>
       <c r="K11">
         <v>1.025529983491823</v>
       </c>
       <c r="L11">
-        <v>0.9382307702886084</v>
+        <v>0.938230770288608</v>
       </c>
       <c r="M11">
-        <v>0.9378980308483722</v>
+        <v>0.9378980308483715</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8973188884860318</v>
+        <v>0.8973188884860293</v>
       </c>
       <c r="D12">
         <v>1.009807615549163</v>
       </c>
       <c r="E12">
-        <v>0.9188826480509539</v>
+        <v>0.9188826480509511</v>
       </c>
       <c r="F12">
-        <v>0.9180670708641498</v>
+        <v>0.918067070864148</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.031098681047042</v>
       </c>
       <c r="J12">
-        <v>0.93220817394694</v>
+        <v>0.9322081739469373</v>
       </c>
       <c r="K12">
         <v>1.024749298770131</v>
       </c>
       <c r="L12">
-        <v>0.9357484351553637</v>
+        <v>0.9357484351553612</v>
       </c>
       <c r="M12">
-        <v>0.9349524352902449</v>
+        <v>0.9349524352902429</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8980456618207416</v>
+        <v>0.8980456618207425</v>
       </c>
       <c r="D13">
         <v>1.010023548918511</v>
       </c>
       <c r="E13">
-        <v>0.9194831379996453</v>
+        <v>0.9194831379996462</v>
       </c>
       <c r="F13">
-        <v>0.91877015499055</v>
+        <v>0.9187701549905504</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.031256498083934</v>
       </c>
       <c r="J13">
-        <v>0.932781589239091</v>
+        <v>0.9327815892390918</v>
       </c>
       <c r="K13">
         <v>1.024917802787346</v>
       </c>
       <c r="L13">
-        <v>0.9362846361296348</v>
+        <v>0.9362846361296355</v>
       </c>
       <c r="M13">
-        <v>0.9355886762894468</v>
+        <v>0.935588676289447</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -886,7 +886,7 @@
         <v>0.9214351352055856</v>
       </c>
       <c r="F14">
-        <v>0.9210554944101693</v>
+        <v>0.9210554944101694</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -904,7 +904,7 @@
         <v>0.9380272430992783</v>
       </c>
       <c r="M14">
-        <v>0.9376565088926494</v>
+        <v>0.9376565088926497</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9018475281599948</v>
+        <v>0.9018475281599944</v>
       </c>
       <c r="D15">
         <v>1.011156862217466</v>
       </c>
       <c r="E15">
-        <v>0.922626176558821</v>
+        <v>0.9226261765588201</v>
       </c>
       <c r="F15">
-        <v>0.9224498087002948</v>
+        <v>0.9224498087002944</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032081969190646</v>
       </c>
       <c r="J15">
-        <v>0.9357815195465746</v>
+        <v>0.935781519546574</v>
       </c>
       <c r="K15">
         <v>1.025800623367442</v>
       </c>
       <c r="L15">
-        <v>0.9390902125702486</v>
+        <v>0.9390902125702479</v>
       </c>
       <c r="M15">
-        <v>0.9389179379032566</v>
+        <v>0.9389179379032563</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9100177786752462</v>
+        <v>0.9100177786752474</v>
       </c>
       <c r="D16">
         <v>1.013613196813174</v>
       </c>
       <c r="E16">
-        <v>0.9293905543410338</v>
+        <v>0.9293905543410346</v>
       </c>
       <c r="F16">
-        <v>0.930366824359188</v>
+        <v>0.9303668243591888</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.033854717861812</v>
       </c>
       <c r="J16">
-        <v>0.9422297906883668</v>
+        <v>0.9422297906883675</v>
       </c>
       <c r="K16">
         <v>1.027704966202045</v>
       </c>
       <c r="L16">
-        <v>0.945122663258449</v>
+        <v>0.9451226632584496</v>
       </c>
       <c r="M16">
-        <v>0.9460776585583456</v>
+        <v>0.9460776585583464</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,7 +991,7 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9149680789001983</v>
+        <v>0.9149680789001979</v>
       </c>
       <c r="D17">
         <v>1.015114969021972</v>
@@ -1000,7 +1000,7 @@
         <v>0.9334955174173216</v>
       </c>
       <c r="F17">
-        <v>0.9351696598886983</v>
+        <v>0.9351696598886985</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,13 +1009,13 @@
         <v>1.034927408409025</v>
       </c>
       <c r="J17">
-        <v>0.9461373698644859</v>
+        <v>0.9461373698644856</v>
       </c>
       <c r="K17">
         <v>1.028863068626188</v>
       </c>
       <c r="L17">
-        <v>0.9487795552764029</v>
+        <v>0.9487795552764028</v>
       </c>
       <c r="M17">
         <v>0.9504186315830651</v>
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.917797156448783</v>
+        <v>0.9177971564487828</v>
       </c>
       <c r="D18">
         <v>1.015977686626615</v>
       </c>
       <c r="E18">
-        <v>0.9358436380878019</v>
+        <v>0.9358436380878015</v>
       </c>
       <c r="F18">
-        <v>0.9379163967578721</v>
+        <v>0.9379163967578723</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.035539764642032</v>
       </c>
       <c r="J18">
-        <v>0.9483706429936402</v>
+        <v>0.94837064299364</v>
       </c>
       <c r="K18">
         <v>1.029526208242098</v>
       </c>
       <c r="L18">
-        <v>0.9508699972368405</v>
+        <v>0.9508699972368404</v>
       </c>
       <c r="M18">
-        <v>0.9529003343001016</v>
+        <v>0.9529003343001017</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9187523014327572</v>
+        <v>0.9187523014327568</v>
       </c>
       <c r="D19">
         <v>1.016269676934655</v>
       </c>
       <c r="E19">
-        <v>0.9366367531525658</v>
+        <v>0.9366367531525657</v>
       </c>
       <c r="F19">
-        <v>0.9388440519733506</v>
+        <v>0.9388440519733502</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035746375127351</v>
+        <v>1.03574637512735</v>
       </c>
       <c r="J19">
-        <v>0.9491246423041984</v>
+        <v>0.949124642304198</v>
       </c>
       <c r="K19">
-        <v>1.029750292134227</v>
+        <v>1.029750292134226</v>
       </c>
       <c r="L19">
-        <v>0.9515758468243686</v>
+        <v>0.9515758468243685</v>
       </c>
       <c r="M19">
-        <v>0.9537383263786993</v>
+        <v>0.9537383263786988</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9144430909377702</v>
+        <v>0.91444309093777</v>
       </c>
       <c r="D20">
         <v>1.014955230039596</v>
       </c>
       <c r="E20">
-        <v>0.9330599510372156</v>
+        <v>0.9330599510372154</v>
       </c>
       <c r="F20">
-        <v>0.9346601046226504</v>
+        <v>0.9346601046226503</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.034813715000665</v>
       </c>
       <c r="J20">
-        <v>0.9457229507203254</v>
+        <v>0.9457229507203252</v>
       </c>
       <c r="K20">
         <v>1.028740110166696</v>
       </c>
       <c r="L20">
-        <v>0.9483916762005039</v>
+        <v>0.9483916762005037</v>
       </c>
       <c r="M20">
-        <v>0.9499581704782462</v>
+        <v>0.949958170478246</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8997149319836981</v>
+        <v>0.8997149319836978</v>
       </c>
       <c r="D21">
         <v>1.01052037913937</v>
       </c>
       <c r="E21">
-        <v>0.9208627722618591</v>
+        <v>0.9208627722618586</v>
       </c>
       <c r="F21">
-        <v>0.9203854144449567</v>
+        <v>0.9203854144449565</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.031618958366034</v>
       </c>
       <c r="J21">
-        <v>0.9340986959738172</v>
+        <v>0.9340986959738169</v>
       </c>
       <c r="K21">
         <v>1.025305143707064</v>
       </c>
       <c r="L21">
-        <v>0.9375163423146383</v>
+        <v>0.9375163423146379</v>
       </c>
       <c r="M21">
-        <v>0.9370502416112861</v>
+        <v>0.9370502416112857</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8898215331522794</v>
+        <v>0.8898215331522803</v>
       </c>
       <c r="D22">
         <v>1.007593633301068</v>
       </c>
       <c r="E22">
-        <v>0.9126945012454014</v>
+        <v>0.9126945012454019</v>
       </c>
       <c r="F22">
-        <v>0.9108203994355432</v>
+        <v>0.9108203994355436</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.029470682778477</v>
       </c>
       <c r="J22">
-        <v>0.9262941375867838</v>
+        <v>0.9262941375867844</v>
       </c>
       <c r="K22">
         <v>1.023016145000712</v>
       </c>
       <c r="L22">
-        <v>0.9302194304697571</v>
+        <v>0.9302194304697575</v>
       </c>
       <c r="M22">
-        <v>0.9283928173125291</v>
+        <v>0.9283928173125294</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8951322564641486</v>
+        <v>0.8951322564641501</v>
       </c>
       <c r="D23">
         <v>1.009159333107163</v>
       </c>
       <c r="E23">
-        <v>0.9170766274599608</v>
+        <v>0.9170766274599619</v>
       </c>
       <c r="F23">
-        <v>0.915952355382478</v>
+        <v>0.9159523553824789</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030623846053167</v>
+        <v>1.030623846053168</v>
       </c>
       <c r="J23">
-        <v>0.9304830719099697</v>
+        <v>0.930483071909971</v>
       </c>
       <c r="K23">
         <v>1.024242839622116</v>
       </c>
       <c r="L23">
-        <v>0.9341354167928192</v>
+        <v>0.9341354167928205</v>
       </c>
       <c r="M23">
-        <v>0.9330385672969572</v>
+        <v>0.9330385672969581</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.914680489620023</v>
+        <v>0.9146804896200227</v>
       </c>
       <c r="D24">
         <v>1.01502744993277</v>
       </c>
       <c r="E24">
-        <v>0.9332569067700001</v>
+        <v>0.9332569067699996</v>
       </c>
       <c r="F24">
-        <v>0.934890518685491</v>
+        <v>0.9348905186854907</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034865129139673</v>
+        <v>1.034865129139674</v>
       </c>
       <c r="J24">
-        <v>0.9459103500621727</v>
+        <v>0.9459103500621725</v>
       </c>
       <c r="K24">
-        <v>1.028795707820826</v>
+        <v>1.028795707820827</v>
       </c>
       <c r="L24">
-        <v>0.9485670728138772</v>
+        <v>0.9485670728138769</v>
       </c>
       <c r="M24">
-        <v>0.9501663876127694</v>
+        <v>0.9501663876127691</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1298,31 +1298,31 @@
         <v>0.9351034376523067</v>
       </c>
       <c r="D25">
-        <v>1.021322790805371</v>
+        <v>1.02132279080537</v>
       </c>
       <c r="E25">
-        <v>0.9502407980452874</v>
+        <v>0.950240798045287</v>
       </c>
       <c r="F25">
-        <v>0.9547474083421302</v>
+        <v>0.9547474083421301</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039269280244846</v>
+        <v>1.039269280244845</v>
       </c>
       <c r="J25">
-        <v>0.96203120924024</v>
+        <v>0.9620312092402399</v>
       </c>
       <c r="K25">
-        <v>1.033598875806728</v>
+        <v>1.033598875806727</v>
       </c>
       <c r="L25">
         <v>0.9636640180655762</v>
       </c>
       <c r="M25">
-        <v>0.9680913316694413</v>
+        <v>0.9680913316694411</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.94997837139608</v>
+        <v>0.9500344896016797</v>
       </c>
       <c r="D2">
-        <v>1.026003483165936</v>
+        <v>1.026012867501428</v>
       </c>
       <c r="E2">
-        <v>0.9626588718060318</v>
+        <v>0.9627087013701703</v>
       </c>
       <c r="F2">
-        <v>0.9692485749839388</v>
+        <v>0.9692927604699311</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042440013555843</v>
+        <v>1.04245089425717</v>
       </c>
       <c r="J2">
-        <v>0.9737655820280577</v>
+        <v>0.9738197653749462</v>
       </c>
       <c r="K2">
-        <v>1.037112055655245</v>
+        <v>1.037121317426333</v>
       </c>
       <c r="L2">
-        <v>0.9746641627072196</v>
+        <v>0.9747132277243173</v>
       </c>
       <c r="M2">
-        <v>0.9811536273125985</v>
+        <v>0.9811971465338759</v>
+      </c>
+      <c r="N2">
+        <v>0.9836513349035553</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9601090982493975</v>
+        <v>0.9601549500735151</v>
       </c>
       <c r="D3">
-        <v>1.029232524750955</v>
+        <v>1.029240210037495</v>
       </c>
       <c r="E3">
-        <v>0.9711383140487508</v>
+        <v>0.9711791673679082</v>
       </c>
       <c r="F3">
-        <v>0.9791402351191363</v>
+        <v>0.9791763247326244</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044571961319657</v>
+        <v>1.044580906664589</v>
       </c>
       <c r="J3">
-        <v>0.9817496318153455</v>
+        <v>0.9817940862733853</v>
       </c>
       <c r="K3">
-        <v>1.03950454876884</v>
+        <v>1.039512142527759</v>
       </c>
       <c r="L3">
-        <v>0.9821543089057955</v>
+        <v>0.9821945996565989</v>
       </c>
       <c r="M3">
-        <v>0.9900471665895273</v>
+        <v>0.9900827693914176</v>
+      </c>
+      <c r="N3">
+        <v>0.9892004478807239</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9663938319602495</v>
+        <v>0.9664335147407683</v>
       </c>
       <c r="D4">
-        <v>1.031250905143777</v>
+        <v>1.031257571658413</v>
       </c>
       <c r="E4">
-        <v>0.9764073135603394</v>
+        <v>0.976442758264181</v>
       </c>
       <c r="F4">
-        <v>0.9852820390909334</v>
+        <v>0.9853132857970719</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045880097758626</v>
+        <v>1.045887879029432</v>
       </c>
       <c r="J4">
-        <v>0.9866980845409932</v>
+        <v>0.986736653448079</v>
       </c>
       <c r="K4">
-        <v>1.040986240589116</v>
+        <v>1.040992832539734</v>
       </c>
       <c r="L4">
-        <v>0.9867990760844282</v>
+        <v>0.9868340668045668</v>
       </c>
       <c r="M4">
-        <v>0.9955614037575631</v>
+        <v>0.9955922591859229</v>
+      </c>
+      <c r="N4">
+        <v>0.9926368109990706</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9689762122222049</v>
+        <v>0.9690134015020854</v>
       </c>
       <c r="D5">
-        <v>1.032083389468633</v>
+        <v>1.032089644710762</v>
       </c>
       <c r="E5">
-        <v>0.9785742178404078</v>
+        <v>0.9786074734403891</v>
       </c>
       <c r="F5">
-        <v>0.9878067503258828</v>
+        <v>0.9878360443925697</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046413904919272</v>
+        <v>1.046421215484891</v>
       </c>
       <c r="J5">
-        <v>0.9887301682803307</v>
+        <v>0.9887663498201502</v>
       </c>
       <c r="K5">
-        <v>1.041594131414372</v>
+        <v>1.041600318569168</v>
       </c>
       <c r="L5">
-        <v>0.9887070119483639</v>
+        <v>0.9887398546535384</v>
       </c>
       <c r="M5">
-        <v>0.9978262415735019</v>
+        <v>0.997855180327012</v>
+      </c>
+      <c r="N5">
+        <v>0.9940472178042261</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9694064381388235</v>
+        <v>0.9694432142608242</v>
       </c>
       <c r="D6">
-        <v>1.032222252381723</v>
+        <v>1.032228439508044</v>
       </c>
       <c r="E6">
-        <v>0.9789353310649237</v>
+        <v>0.9789682237846213</v>
       </c>
       <c r="F6">
-        <v>0.9882274247217026</v>
+        <v>0.9882563955220619</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046502613048543</v>
+        <v>1.046509845611866</v>
       </c>
       <c r="J6">
-        <v>0.9890686391019732</v>
+        <v>0.9891044245989284</v>
       </c>
       <c r="K6">
-        <v>1.041695342465771</v>
+        <v>1.041701462556225</v>
       </c>
       <c r="L6">
-        <v>0.9890248366652238</v>
+        <v>0.9890573231405908</v>
       </c>
       <c r="M6">
-        <v>0.9982035027432447</v>
+        <v>0.9982321240415141</v>
+      </c>
+      <c r="N6">
+        <v>0.994282095728848</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9664285663186792</v>
+        <v>0.9664682154042626</v>
       </c>
       <c r="D7">
-        <v>1.031262090688368</v>
+        <v>1.031268751643422</v>
       </c>
       <c r="E7">
-        <v>0.9764364523048578</v>
+        <v>0.9764718674382209</v>
       </c>
       <c r="F7">
-        <v>0.9853159938504709</v>
+        <v>0.9853472141515753</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045887292732124</v>
+        <v>1.045895067642914</v>
       </c>
       <c r="J7">
-        <v>0.9867254221337729</v>
+        <v>0.9867639588125854</v>
       </c>
       <c r="K7">
-        <v>1.04099442114956</v>
+        <v>1.041001007629599</v>
       </c>
       <c r="L7">
-        <v>0.9868247413206231</v>
+        <v>0.9868597030363627</v>
       </c>
       <c r="M7">
-        <v>0.9955918710511612</v>
+        <v>0.9956227005706819</v>
+      </c>
+      <c r="N7">
+        <v>0.992655788146358</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9534613570189445</v>
+        <v>0.9535138985894355</v>
       </c>
       <c r="D8">
-        <v>1.027110074583885</v>
+        <v>1.027118866519803</v>
       </c>
       <c r="E8">
-        <v>0.9655721689248226</v>
+        <v>0.9656188749401867</v>
       </c>
       <c r="F8">
-        <v>0.9726480723965862</v>
+        <v>0.9726894323866726</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043175906921572</v>
+        <v>1.043186113676849</v>
       </c>
       <c r="J8">
-        <v>0.9765114177028396</v>
+        <v>0.9765622209458527</v>
       </c>
       <c r="K8">
-        <v>1.037934929445431</v>
+        <v>1.037943610012224</v>
       </c>
       <c r="L8">
-        <v>0.9772396043188858</v>
+        <v>0.9772856191108985</v>
       </c>
       <c r="M8">
-        <v>0.9842117480470128</v>
+        <v>0.9842525071693057</v>
+      </c>
+      <c r="N8">
+        <v>0.9855603623037503</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9282724528444888</v>
+        <v>0.9283521103854308</v>
       </c>
       <c r="D9">
-        <v>1.019199475994388</v>
+        <v>1.019212769353048</v>
       </c>
       <c r="E9">
-        <v>0.9445514005500548</v>
+        <v>0.9446216839527627</v>
       </c>
       <c r="F9">
-        <v>0.9480984212818623</v>
+        <v>0.948161327604461</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037801223041795</v>
+        <v>1.037816529100805</v>
       </c>
       <c r="J9">
-        <v>0.9566397410905182</v>
+        <v>0.9567159270342536</v>
       </c>
       <c r="K9">
-        <v>1.031988550041834</v>
+        <v>1.032001637981872</v>
       </c>
       <c r="L9">
-        <v>0.958613072580793</v>
+        <v>0.9586820342344647</v>
       </c>
       <c r="M9">
-        <v>0.9620937072156848</v>
+        <v>0.9621554420307844</v>
+      </c>
+      <c r="N9">
+        <v>0.971733278811581</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9094501321874466</v>
+        <v>0.9095522602322428</v>
       </c>
       <c r="D10">
-        <v>1.013441633271895</v>
+        <v>1.01345866859432</v>
       </c>
       <c r="E10">
-        <v>0.9289201510575689</v>
+        <v>0.929009781409834</v>
       </c>
       <c r="F10">
-        <v>0.92981636941354</v>
+        <v>0.9298973284528971</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033731631947495</v>
+        <v>1.03375114166967</v>
       </c>
       <c r="J10">
-        <v>0.9417817349384315</v>
+        <v>0.9418785439933399</v>
       </c>
       <c r="K10">
-        <v>1.027572363143491</v>
+        <v>1.027589101368981</v>
       </c>
       <c r="L10">
-        <v>0.9447034147909983</v>
+        <v>0.9447910809211741</v>
       </c>
       <c r="M10">
-        <v>0.9455800154301148</v>
+        <v>0.9456592047958616</v>
+      </c>
+      <c r="N10">
+        <v>0.9613822538439567</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9006830362798499</v>
+        <v>0.9007964158772009</v>
       </c>
       <c r="D11">
-        <v>1.010809071603475</v>
+        <v>1.010827982053974</v>
       </c>
       <c r="E11">
-        <v>0.9216631639369941</v>
+        <v>0.9217624140981421</v>
       </c>
       <c r="F11">
-        <v>0.9213224475788272</v>
+        <v>0.9214125045705304</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03182915394185</v>
+        <v>1.031850759491582</v>
       </c>
       <c r="J11">
-        <v>0.9348626050212485</v>
+        <v>0.9349696079479239</v>
       </c>
       <c r="K11">
-        <v>1.025529983491823</v>
+        <v>1.025548547191342</v>
       </c>
       <c r="L11">
-        <v>0.938230770288608</v>
+        <v>0.9383276982705575</v>
       </c>
       <c r="M11">
-        <v>0.9378980308483715</v>
+        <v>0.937985978640153</v>
+      </c>
+      <c r="N11">
+        <v>0.9565598741933182</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8973188884860293</v>
+        <v>0.8974367348061502</v>
       </c>
       <c r="D12">
-        <v>1.009807615549163</v>
+        <v>1.009827270402686</v>
       </c>
       <c r="E12">
-        <v>0.9188826480509511</v>
+        <v>0.9189857045489082</v>
       </c>
       <c r="F12">
-        <v>0.918067070864148</v>
+        <v>0.9181607494955151</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031098681047042</v>
+        <v>1.031121116806305</v>
       </c>
       <c r="J12">
-        <v>0.9322081739469373</v>
+        <v>0.9323192001309739</v>
       </c>
       <c r="K12">
-        <v>1.024749298770131</v>
+        <v>1.024768586562453</v>
       </c>
       <c r="L12">
-        <v>0.9357484351553612</v>
+        <v>0.9358490211788032</v>
       </c>
       <c r="M12">
-        <v>0.9349524352902429</v>
+        <v>0.9350438628617114</v>
+      </c>
+      <c r="N12">
+        <v>0.9547096207157659</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8980456618207425</v>
+        <v>0.8981625358419298</v>
       </c>
       <c r="D13">
-        <v>1.010023548918511</v>
+        <v>1.01004304173772</v>
       </c>
       <c r="E13">
-        <v>0.9194831379996462</v>
+        <v>0.9195853665584746</v>
       </c>
       <c r="F13">
-        <v>0.9187701549905504</v>
+        <v>0.9188630448169289</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031256498083934</v>
+        <v>1.031278753215854</v>
       </c>
       <c r="J13">
-        <v>0.9327815892390918</v>
+        <v>0.932891740778321</v>
       </c>
       <c r="K13">
-        <v>1.024917802787346</v>
+        <v>1.024936932993707</v>
       </c>
       <c r="L13">
-        <v>0.9362846361296355</v>
+        <v>0.9363844267844929</v>
       </c>
       <c r="M13">
-        <v>0.935588676289447</v>
+        <v>0.9356793462713825</v>
+      </c>
+      <c r="N13">
+        <v>0.9551093237439515</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9004072505955635</v>
+        <v>0.9005209931384586</v>
       </c>
       <c r="D14">
-        <v>1.010726790057286</v>
+        <v>1.010745760996129</v>
       </c>
       <c r="E14">
-        <v>0.9214351352055856</v>
+        <v>0.9215346949196205</v>
       </c>
       <c r="F14">
-        <v>0.9210554944101694</v>
+        <v>0.921145845476381</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031769276540027</v>
+        <v>1.031790949587847</v>
       </c>
       <c r="J14">
-        <v>0.9346449856311362</v>
+        <v>0.93475231596313</v>
       </c>
       <c r="K14">
-        <v>1.025465918274015</v>
+        <v>1.025484540823681</v>
       </c>
       <c r="L14">
-        <v>0.9380272430992783</v>
+        <v>0.9381244687123933</v>
       </c>
       <c r="M14">
-        <v>0.9376565088926497</v>
+        <v>0.9377447393798974</v>
+      </c>
+      <c r="N14">
+        <v>0.9564081876849381</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9018475281599944</v>
+        <v>0.9019593814773706</v>
       </c>
       <c r="D15">
-        <v>1.011156862217466</v>
+        <v>1.011175518297351</v>
       </c>
       <c r="E15">
-        <v>0.9226261765588201</v>
+        <v>0.922724124452217</v>
       </c>
       <c r="F15">
-        <v>0.9224498087002944</v>
+        <v>0.9225386294322406</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032081969190646</v>
+        <v>1.032103290818527</v>
       </c>
       <c r="J15">
-        <v>0.935781519546574</v>
+        <v>0.9358871446867217</v>
       </c>
       <c r="K15">
-        <v>1.025800623367442</v>
+        <v>1.025818939561374</v>
       </c>
       <c r="L15">
-        <v>0.9390902125702479</v>
+        <v>0.9391858881671873</v>
       </c>
       <c r="M15">
-        <v>0.9389179379032563</v>
+        <v>0.9390046969986713</v>
+      </c>
+      <c r="N15">
+        <v>0.9572003741443567</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9100177786752474</v>
+        <v>0.9101191966375171</v>
       </c>
       <c r="D16">
-        <v>1.013613196813174</v>
+        <v>1.013630113809951</v>
       </c>
       <c r="E16">
-        <v>0.9293905543410346</v>
+        <v>0.9294795760656103</v>
       </c>
       <c r="F16">
-        <v>0.9303668243591888</v>
+        <v>0.9304472104715722</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033854717861812</v>
+        <v>1.033874095104307</v>
       </c>
       <c r="J16">
-        <v>0.9422297906883675</v>
+        <v>0.9423259535064734</v>
       </c>
       <c r="K16">
-        <v>1.027704966202045</v>
+        <v>1.02772158915843</v>
       </c>
       <c r="L16">
-        <v>0.9451226632584496</v>
+        <v>0.9452097425760206</v>
       </c>
       <c r="M16">
-        <v>0.9460776585583464</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9461562955514414</v>
+      </c>
+      <c r="N16">
+        <v>0.9616944975845644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9149680789001979</v>
+        <v>0.9150633942325079</v>
       </c>
       <c r="D17">
-        <v>1.015114969021972</v>
+        <v>1.015130869236728</v>
       </c>
       <c r="E17">
-        <v>0.9334955174173216</v>
+        <v>0.9335793010017144</v>
       </c>
       <c r="F17">
-        <v>0.9351696598886985</v>
+        <v>0.9352451284702905</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034927408409025</v>
+        <v>1.034945646084042</v>
       </c>
       <c r="J17">
-        <v>0.9461373698644856</v>
+        <v>0.9462279642723767</v>
       </c>
       <c r="K17">
-        <v>1.028863068626188</v>
+        <v>1.028878700665047</v>
       </c>
       <c r="L17">
-        <v>0.9487795552764028</v>
+        <v>0.9488615799970026</v>
       </c>
       <c r="M17">
-        <v>0.9504186315830651</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9504925233279249</v>
+      </c>
+      <c r="N17">
+        <v>0.964417413217604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9177971564487828</v>
+        <v>0.9178890542295987</v>
       </c>
       <c r="D18">
-        <v>1.015977686626615</v>
+        <v>1.015993017573281</v>
       </c>
       <c r="E18">
-        <v>0.9358436380878015</v>
+        <v>0.9359244824419061</v>
       </c>
       <c r="F18">
-        <v>0.9379163967578723</v>
+        <v>0.9379891165493442</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035539764642032</v>
+        <v>1.03555736337763</v>
       </c>
       <c r="J18">
-        <v>0.94837064299364</v>
+        <v>0.9484581075666241</v>
       </c>
       <c r="K18">
-        <v>1.029526208242098</v>
+        <v>1.029541285168607</v>
       </c>
       <c r="L18">
-        <v>0.9508699972368404</v>
+        <v>0.950949182364176</v>
       </c>
       <c r="M18">
-        <v>0.9529003343001017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9529715702777195</v>
+      </c>
+      <c r="N18">
+        <v>0.9659734243859535</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9187523014327568</v>
+        <v>0.9188430565176416</v>
       </c>
       <c r="D19">
-        <v>1.016269676934655</v>
+        <v>1.016284817569046</v>
       </c>
       <c r="E19">
-        <v>0.9366367531525657</v>
+        <v>0.936716613816713</v>
       </c>
       <c r="F19">
-        <v>0.9388440519733502</v>
+        <v>0.9389158535124844</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03574637512735</v>
+        <v>1.035763760106917</v>
       </c>
       <c r="J19">
-        <v>0.949124642304198</v>
+        <v>0.9492110585289741</v>
       </c>
       <c r="K19">
-        <v>1.029750292134226</v>
+        <v>1.029765183426827</v>
       </c>
       <c r="L19">
-        <v>0.9515758468243685</v>
+        <v>0.9516540810610755</v>
       </c>
       <c r="M19">
-        <v>0.9537383263786988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.953808674646747</v>
+      </c>
+      <c r="N19">
+        <v>0.9664987297122078</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.91444309093777</v>
+        <v>0.9145390459716477</v>
       </c>
       <c r="D20">
-        <v>1.014955230039596</v>
+        <v>1.014971236823554</v>
       </c>
       <c r="E20">
-        <v>0.9330599510372154</v>
+        <v>0.933144284328238</v>
       </c>
       <c r="F20">
-        <v>0.9346601046226503</v>
+        <v>0.9347360881375185</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034813715000665</v>
+        <v>1.034832072212785</v>
       </c>
       <c r="J20">
-        <v>0.9457229507203252</v>
+        <v>0.9458141300560622</v>
       </c>
       <c r="K20">
-        <v>1.028740110166696</v>
+        <v>1.028755846098311</v>
       </c>
       <c r="L20">
-        <v>0.9483916762005037</v>
+        <v>0.9484742317235142</v>
       </c>
       <c r="M20">
-        <v>0.949958170478246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9500325594667119</v>
+      </c>
+      <c r="N20">
+        <v>0.964128653934091</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8997149319836978</v>
+        <v>0.8998295881619504</v>
       </c>
       <c r="D21">
-        <v>1.01052037913937</v>
+        <v>1.010539502343397</v>
       </c>
       <c r="E21">
-        <v>0.9208627722618586</v>
+        <v>0.9209631109976417</v>
       </c>
       <c r="F21">
-        <v>0.9203854144449565</v>
+        <v>0.9204765059394396</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031618958366034</v>
+        <v>1.031640801294967</v>
       </c>
       <c r="J21">
-        <v>0.9340986959738169</v>
+        <v>0.9342068500884468</v>
       </c>
       <c r="K21">
-        <v>1.025305143707064</v>
+        <v>1.025323914388502</v>
       </c>
       <c r="L21">
-        <v>0.9375163423146379</v>
+        <v>0.9376143168382104</v>
       </c>
       <c r="M21">
-        <v>0.9370502416112857</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9371391837663275</v>
+      </c>
+      <c r="N21">
+        <v>0.9560274062255998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8898215331522803</v>
+        <v>0.8899496560930208</v>
       </c>
       <c r="D22">
-        <v>1.007593633301068</v>
+        <v>1.00761500046616</v>
       </c>
       <c r="E22">
-        <v>0.9126945012454019</v>
+        <v>0.9128062878795927</v>
       </c>
       <c r="F22">
-        <v>0.9108203994355436</v>
+        <v>0.9109224303700295</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029470682778477</v>
+        <v>1.029495024560017</v>
       </c>
       <c r="J22">
-        <v>0.9262941375867844</v>
+        <v>0.926414370712311</v>
       </c>
       <c r="K22">
-        <v>1.023016145000712</v>
+        <v>1.023037097212081</v>
       </c>
       <c r="L22">
-        <v>0.9302194304697575</v>
+        <v>0.9303283928169923</v>
       </c>
       <c r="M22">
-        <v>0.9283928173125294</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9284922560461235</v>
+      </c>
+      <c r="N22">
+        <v>0.9505870199278255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8951322564641501</v>
+        <v>0.8952530530395069</v>
       </c>
       <c r="D23">
-        <v>1.009159333107163</v>
+        <v>1.009179479600311</v>
       </c>
       <c r="E23">
-        <v>0.9170766274599619</v>
+        <v>0.9171821941069195</v>
       </c>
       <c r="F23">
-        <v>0.9159523553824789</v>
+        <v>0.9160484290315734</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030623846053168</v>
+        <v>1.030646829583849</v>
       </c>
       <c r="J23">
-        <v>0.930483071909971</v>
+        <v>0.9305967482465732</v>
       </c>
       <c r="K23">
-        <v>1.024242839622116</v>
+        <v>1.0242626054661</v>
       </c>
       <c r="L23">
-        <v>0.9341354167928205</v>
+        <v>0.9342384131636043</v>
       </c>
       <c r="M23">
-        <v>0.9330385672969581</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9331322940355705</v>
+      </c>
+      <c r="N23">
+        <v>0.9535071045043978</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9146804896200227</v>
+        <v>0.9147761551656617</v>
       </c>
       <c r="D24">
-        <v>1.01502744993277</v>
+        <v>1.015043408489823</v>
       </c>
       <c r="E24">
-        <v>0.9332569067699996</v>
+        <v>0.933340991316847</v>
       </c>
       <c r="F24">
-        <v>0.9348905186854907</v>
+        <v>0.9349662691583882</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034865129139674</v>
+        <v>1.034883432259285</v>
       </c>
       <c r="J24">
-        <v>0.9459103500621725</v>
+        <v>0.9460012647325231</v>
       </c>
       <c r="K24">
-        <v>1.028795707820827</v>
+        <v>1.028811396737756</v>
       </c>
       <c r="L24">
-        <v>0.9485670728138769</v>
+        <v>0.948649388157407</v>
       </c>
       <c r="M24">
-        <v>0.9501663876127691</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9502405515752788</v>
+      </c>
+      <c r="N24">
+        <v>0.9642592308158469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9351034376523067</v>
+        <v>0.9351754388620785</v>
       </c>
       <c r="D25">
-        <v>1.02132279080537</v>
+        <v>1.021334811071621</v>
       </c>
       <c r="E25">
-        <v>0.950240798045287</v>
+        <v>0.950304449036069</v>
       </c>
       <c r="F25">
-        <v>0.9547474083421301</v>
+        <v>0.9548042027350057</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039269280244845</v>
+        <v>1.039283149081524</v>
       </c>
       <c r="J25">
-        <v>0.9620312092402399</v>
+        <v>0.9621002844870841</v>
       </c>
       <c r="K25">
-        <v>1.033598875806727</v>
+        <v>1.03361071924132</v>
       </c>
       <c r="L25">
-        <v>0.9636640180655762</v>
+        <v>0.9637265422843984</v>
       </c>
       <c r="M25">
-        <v>0.9680913316694411</v>
+        <v>0.968147132915282</v>
+      </c>
+      <c r="N25">
+        <v>0.9754870967333594</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9500344896016797</v>
+        <v>0.9870891889592299</v>
       </c>
       <c r="D2">
-        <v>1.026012867501428</v>
+        <v>1.041063643972344</v>
       </c>
       <c r="E2">
-        <v>0.9627087013701703</v>
+        <v>1.00322410067868</v>
       </c>
       <c r="F2">
-        <v>0.9692927604699311</v>
+        <v>1.010739538681981</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04245089425717</v>
+        <v>1.053601624735367</v>
       </c>
       <c r="J2">
-        <v>0.9738197653749462</v>
+        <v>1.009663038964691</v>
       </c>
       <c r="K2">
-        <v>1.037121317426333</v>
+        <v>1.051979071371768</v>
       </c>
       <c r="L2">
-        <v>0.9747132277243173</v>
+        <v>1.014638700663492</v>
       </c>
       <c r="M2">
-        <v>0.9811971465338759</v>
+        <v>1.022051255111923</v>
       </c>
       <c r="N2">
-        <v>0.9836513349035553</v>
+        <v>1.01109687628999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>0.9601549500735151</v>
+        <v>0.9970625305115137</v>
       </c>
       <c r="D3">
-        <v>1.029240210037495</v>
+        <v>1.044874558451409</v>
       </c>
       <c r="E3">
-        <v>0.9711791673679082</v>
+        <v>1.011813379238161</v>
       </c>
       <c r="F3">
-        <v>0.9791763247326244</v>
+        <v>1.01977352633838</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044580906664589</v>
+        <v>1.0559837794159</v>
       </c>
       <c r="J3">
-        <v>0.9817940862733853</v>
+        <v>1.017633595490476</v>
       </c>
       <c r="K3">
-        <v>1.039512142527759</v>
+        <v>1.054963736608062</v>
       </c>
       <c r="L3">
-        <v>0.9821945996565989</v>
+        <v>1.022297304522574</v>
       </c>
       <c r="M3">
-        <v>0.9900827693914176</v>
+        <v>1.030159501339331</v>
       </c>
       <c r="N3">
-        <v>0.9892004478807239</v>
+        <v>1.019078751920277</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9664335147407683</v>
+        <v>1.003265975288504</v>
       </c>
       <c r="D4">
-        <v>1.031257571658413</v>
+        <v>1.047254865027266</v>
       </c>
       <c r="E4">
-        <v>0.976442758264181</v>
+        <v>1.017163327891204</v>
       </c>
       <c r="F4">
-        <v>0.9853132857970719</v>
+        <v>1.025399384914719</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045887879029432</v>
+        <v>1.057449547541968</v>
       </c>
       <c r="J4">
-        <v>0.986736653448079</v>
+        <v>1.022586504450591</v>
       </c>
       <c r="K4">
-        <v>1.040992832539734</v>
+        <v>1.05681455159922</v>
       </c>
       <c r="L4">
-        <v>0.9868340668045668</v>
+        <v>1.02705892755466</v>
       </c>
       <c r="M4">
-        <v>0.9955922591859229</v>
+        <v>1.035200629683515</v>
       </c>
       <c r="N4">
-        <v>0.9926368109990706</v>
+        <v>1.024038694579222</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9690134015020854</v>
+        <v>1.005818446660904</v>
       </c>
       <c r="D5">
-        <v>1.032089644710762</v>
+        <v>1.048236161802267</v>
       </c>
       <c r="E5">
-        <v>0.9786074734403891</v>
+        <v>1.019366224092728</v>
       </c>
       <c r="F5">
-        <v>0.9878360443925697</v>
+        <v>1.027715608817899</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046421215484891</v>
+        <v>1.058048600705949</v>
       </c>
       <c r="J5">
-        <v>0.9887663498201502</v>
+        <v>1.024623166027939</v>
       </c>
       <c r="K5">
-        <v>1.041600318569168</v>
+        <v>1.057574394480408</v>
       </c>
       <c r="L5">
-        <v>0.9887398546535384</v>
+        <v>1.029017517125333</v>
       </c>
       <c r="M5">
-        <v>0.997855180327012</v>
+        <v>1.037274141944086</v>
       </c>
       <c r="N5">
-        <v>0.9940472178042261</v>
+        <v>1.026078248449618</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9694432142608242</v>
+        <v>1.006243884001744</v>
       </c>
       <c r="D6">
-        <v>1.032228439508044</v>
+        <v>1.048399819252953</v>
       </c>
       <c r="E6">
-        <v>0.9789682237846213</v>
+        <v>1.019733485226043</v>
       </c>
       <c r="F6">
-        <v>0.9882563955220619</v>
+        <v>1.028101746535013</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046509845611866</v>
+        <v>1.05814820411254</v>
       </c>
       <c r="J6">
-        <v>0.9891044245989284</v>
+        <v>1.024962552480167</v>
       </c>
       <c r="K6">
-        <v>1.041701462556225</v>
+        <v>1.057700933531769</v>
       </c>
       <c r="L6">
-        <v>0.9890573231405908</v>
+        <v>1.02934392745679</v>
       </c>
       <c r="M6">
-        <v>0.9982321240415141</v>
+        <v>1.037619701213611</v>
       </c>
       <c r="N6">
-        <v>0.994282095728848</v>
+        <v>1.026418116869537</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9664682154042626</v>
+        <v>1.003300294021183</v>
       </c>
       <c r="D7">
-        <v>1.031268751643422</v>
+        <v>1.047268051947808</v>
       </c>
       <c r="E7">
-        <v>0.9764718674382209</v>
+        <v>1.017192940331243</v>
       </c>
       <c r="F7">
-        <v>0.9853472141515753</v>
+        <v>1.025430521903543</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045895067642914</v>
+        <v>1.057457618347295</v>
       </c>
       <c r="J7">
-        <v>0.9867639588125854</v>
+        <v>1.022613893121206</v>
       </c>
       <c r="K7">
-        <v>1.041001007629599</v>
+        <v>1.056824775056405</v>
       </c>
       <c r="L7">
-        <v>0.9868597030363627</v>
+        <v>1.027085264039016</v>
       </c>
       <c r="M7">
-        <v>0.9956227005706819</v>
+        <v>1.035228511716842</v>
       </c>
       <c r="N7">
-        <v>0.992655788146358</v>
+        <v>1.024066122144892</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9535138985894355</v>
+        <v>0.9905142957583321</v>
       </c>
       <c r="D8">
-        <v>1.027118866519803</v>
+        <v>1.042369994987895</v>
       </c>
       <c r="E8">
-        <v>0.9656188749401867</v>
+        <v>1.006172202026703</v>
       </c>
       <c r="F8">
-        <v>0.9726894323866726</v>
+        <v>1.013840493833182</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043186113676849</v>
+        <v>1.054422957507862</v>
       </c>
       <c r="J8">
-        <v>0.9765622209458527</v>
+        <v>1.012401282587761</v>
       </c>
       <c r="K8">
-        <v>1.037943610012224</v>
+        <v>1.05300506667402</v>
       </c>
       <c r="L8">
-        <v>0.9772856191108985</v>
+        <v>1.017269210996705</v>
       </c>
       <c r="M8">
-        <v>0.9842525071693057</v>
+        <v>1.024836194537558</v>
       </c>
       <c r="N8">
-        <v>0.9855603623037503</v>
+        <v>1.013839008533086</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9283521103854308</v>
+        <v>0.9658398255680795</v>
       </c>
       <c r="D9">
-        <v>1.019212769353048</v>
+        <v>1.033025928719743</v>
       </c>
       <c r="E9">
-        <v>0.9446216839527627</v>
+        <v>0.9849751333581066</v>
       </c>
       <c r="F9">
-        <v>0.948161327604461</v>
+        <v>0.9915406575952425</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037816529100805</v>
+        <v>1.048446598343374</v>
       </c>
       <c r="J9">
-        <v>0.9567159270342536</v>
+        <v>0.9926593433676779</v>
       </c>
       <c r="K9">
-        <v>1.032001637981872</v>
+        <v>1.045604981026716</v>
       </c>
       <c r="L9">
-        <v>0.9586820342344647</v>
+        <v>0.9983167748391256</v>
       </c>
       <c r="M9">
-        <v>0.9621554420307844</v>
+        <v>1.004772489137124</v>
       </c>
       <c r="N9">
-        <v>0.971733278811581</v>
+        <v>0.9940690334948779</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9095522602322428</v>
+        <v>0.9475632679273661</v>
       </c>
       <c r="D10">
-        <v>1.01345866859432</v>
+        <v>1.026222147787498</v>
       </c>
       <c r="E10">
-        <v>0.929009781409834</v>
+        <v>0.9693392343722508</v>
       </c>
       <c r="F10">
-        <v>0.9298973284528971</v>
+        <v>0.9750878806145971</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03375114166967</v>
+        <v>1.043957012491004</v>
       </c>
       <c r="J10">
-        <v>0.9418785439933399</v>
+        <v>0.9780237112443561</v>
       </c>
       <c r="K10">
-        <v>1.027589101368981</v>
+        <v>1.040133561376961</v>
       </c>
       <c r="L10">
-        <v>0.9447910809211741</v>
+        <v>0.9842850602168581</v>
       </c>
       <c r="M10">
-        <v>0.9456592047958616</v>
+        <v>0.9899219859806091</v>
       </c>
       <c r="N10">
-        <v>0.9613822538439567</v>
+        <v>0.9794126170952103</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9007964158772009</v>
+        <v>0.9391048414851536</v>
       </c>
       <c r="D11">
-        <v>1.010827982053974</v>
+        <v>1.023112964404298</v>
       </c>
       <c r="E11">
-        <v>0.9217624140981421</v>
+        <v>0.9621229759943022</v>
       </c>
       <c r="F11">
-        <v>0.9214125045705304</v>
+        <v>0.9674943551823831</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031850759491582</v>
+        <v>1.041869618872674</v>
       </c>
       <c r="J11">
-        <v>0.9349696079479239</v>
+        <v>0.9712502862563011</v>
       </c>
       <c r="K11">
-        <v>1.025548547191342</v>
+        <v>1.037611781702332</v>
       </c>
       <c r="L11">
-        <v>0.9383276982705575</v>
+        <v>0.9777963828428275</v>
       </c>
       <c r="M11">
-        <v>0.937985978640153</v>
+        <v>0.9830564669596886</v>
       </c>
       <c r="N11">
-        <v>0.9565598741933182</v>
+        <v>0.9726295730667498</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8974367348061502</v>
+        <v>0.9358692102455923</v>
       </c>
       <c r="D12">
-        <v>1.009827270402686</v>
+        <v>1.021930728416738</v>
       </c>
       <c r="E12">
-        <v>0.9189857045489082</v>
+        <v>0.9593660144573735</v>
       </c>
       <c r="F12">
-        <v>0.9181607494955151</v>
+        <v>0.9645932788247975</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031121116806305</v>
+        <v>1.041070223387326</v>
       </c>
       <c r="J12">
-        <v>0.9323192001309739</v>
+        <v>0.9686595356382632</v>
       </c>
       <c r="K12">
-        <v>1.024768586562453</v>
+        <v>1.036649495373366</v>
       </c>
       <c r="L12">
-        <v>0.9358490211788032</v>
+        <v>0.9753154201636115</v>
       </c>
       <c r="M12">
-        <v>0.9350438628617114</v>
+        <v>0.9804317756807832</v>
       </c>
       <c r="N12">
-        <v>0.9547096207157659</v>
+        <v>0.970035143285671</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8981625358419298</v>
+        <v>0.9365677294878676</v>
       </c>
       <c r="D13">
-        <v>1.01004304173772</v>
+        <v>1.022185611477513</v>
       </c>
       <c r="E13">
-        <v>0.9195853665584746</v>
+        <v>0.9599610304429479</v>
       </c>
       <c r="F13">
-        <v>0.9188630448169289</v>
+        <v>0.9652193961599592</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031278753215854</v>
+        <v>1.041242830389489</v>
       </c>
       <c r="J13">
-        <v>0.932891740778321</v>
+        <v>0.9692188160937192</v>
       </c>
       <c r="K13">
-        <v>1.024936932993707</v>
+        <v>1.036857115433299</v>
       </c>
       <c r="L13">
-        <v>0.9363844267844929</v>
+        <v>0.9758509590435943</v>
       </c>
       <c r="M13">
-        <v>0.9356793462713825</v>
+        <v>0.9809983219904468</v>
       </c>
       <c r="N13">
-        <v>0.9551093237439515</v>
+        <v>0.9705952179835242</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9005209931384586</v>
+        <v>0.9388393751775781</v>
       </c>
       <c r="D14">
-        <v>1.010745760996129</v>
+        <v>1.023015816760584</v>
       </c>
       <c r="E14">
-        <v>0.9215346949196205</v>
+        <v>0.96189670819142</v>
       </c>
       <c r="F14">
-        <v>0.921145845476381</v>
+        <v>0.9672562588921794</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031790949587847</v>
+        <v>1.04180404742601</v>
       </c>
       <c r="J14">
-        <v>0.93475231596313</v>
+        <v>0.9710377206574106</v>
       </c>
       <c r="K14">
-        <v>1.025484540823681</v>
+        <v>1.037532778039185</v>
       </c>
       <c r="L14">
-        <v>0.9381244687123933</v>
+        <v>0.977592806866323</v>
       </c>
       <c r="M14">
-        <v>0.9377447393798974</v>
+        <v>0.9828410895000806</v>
       </c>
       <c r="N14">
-        <v>0.9564081876849381</v>
+        <v>0.9724167056003276</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9019593814773706</v>
+        <v>0.9402261799031947</v>
       </c>
       <c r="D15">
-        <v>1.011175518297351</v>
+        <v>1.023523615198032</v>
       </c>
       <c r="E15">
-        <v>0.922724124452217</v>
+        <v>0.9630788833018176</v>
       </c>
       <c r="F15">
-        <v>0.9225386294322406</v>
+        <v>0.9685002351435564</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032103290818527</v>
+        <v>1.042146561962403</v>
       </c>
       <c r="J15">
-        <v>0.9358871446867217</v>
+        <v>0.9721481849529326</v>
       </c>
       <c r="K15">
-        <v>1.025818939561374</v>
+        <v>1.037945597179486</v>
       </c>
       <c r="L15">
-        <v>0.9391858881671873</v>
+        <v>0.9786563444407973</v>
       </c>
       <c r="M15">
-        <v>0.9390046969986713</v>
+        <v>0.9839662963554912</v>
       </c>
       <c r="N15">
-        <v>0.9572003741443567</v>
+        <v>0.9735287468825211</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9101191966375171</v>
+        <v>0.948112186621618</v>
       </c>
       <c r="D16">
-        <v>1.013630113809951</v>
+        <v>1.026424827540362</v>
       </c>
       <c r="E16">
-        <v>0.9294795760656103</v>
+        <v>0.9698079907330104</v>
       </c>
       <c r="F16">
-        <v>0.9304472104715722</v>
+        <v>0.9755811428874132</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033874095104307</v>
+        <v>1.044092322748687</v>
       </c>
       <c r="J16">
-        <v>0.9423259535064734</v>
+        <v>0.9784633042957713</v>
       </c>
       <c r="K16">
-        <v>1.02772158915843</v>
+        <v>1.040297493231888</v>
       </c>
       <c r="L16">
-        <v>0.9452097425760206</v>
+        <v>0.9847062877184081</v>
       </c>
       <c r="M16">
-        <v>0.9461562955514414</v>
+        <v>0.9903677207602024</v>
       </c>
       <c r="N16">
-        <v>0.9616944975845644</v>
+        <v>0.979852834419181</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9150633942325079</v>
+        <v>0.9529053773977442</v>
       </c>
       <c r="D17">
-        <v>1.015130869236728</v>
+        <v>1.028199175181352</v>
       </c>
       <c r="E17">
-        <v>0.9335793010017144</v>
+        <v>0.9739034830696094</v>
       </c>
       <c r="F17">
-        <v>0.9352451284702905</v>
+        <v>0.9798907181204219</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034945646084042</v>
+        <v>1.045272845329897</v>
       </c>
       <c r="J17">
-        <v>0.9462279642723767</v>
+        <v>0.982301885075885</v>
       </c>
       <c r="K17">
-        <v>1.028878700665047</v>
+        <v>1.041730198870428</v>
       </c>
       <c r="L17">
-        <v>0.9488615799970026</v>
+        <v>0.9883850920867125</v>
       </c>
       <c r="M17">
-        <v>0.9504925233279249</v>
+        <v>0.9942607686414343</v>
       </c>
       <c r="N17">
-        <v>0.964417413217604</v>
+        <v>0.983696866424294</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9178890542295987</v>
+        <v>0.9556495507639933</v>
       </c>
       <c r="D18">
-        <v>1.015993017573281</v>
+        <v>1.029218603576793</v>
       </c>
       <c r="E18">
-        <v>0.9359244824419061</v>
+        <v>0.976250038029325</v>
       </c>
       <c r="F18">
-        <v>0.9379891165493442</v>
+        <v>0.9823599054377886</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03555736337763</v>
+        <v>1.045947783662801</v>
       </c>
       <c r="J18">
-        <v>0.9484581075666241</v>
+        <v>0.9844995048175634</v>
       </c>
       <c r="K18">
-        <v>1.029541285168607</v>
+        <v>1.042551350653421</v>
       </c>
       <c r="L18">
-        <v>0.950949182364176</v>
+        <v>0.9904917189418097</v>
       </c>
       <c r="M18">
-        <v>0.9529715702777195</v>
+        <v>0.996490239267752</v>
       </c>
       <c r="N18">
-        <v>0.9659734243859535</v>
+        <v>0.9858976070380759</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9188430565176416</v>
+        <v>0.9565768125198972</v>
       </c>
       <c r="D19">
-        <v>1.016284817569046</v>
+        <v>1.029563647657296</v>
       </c>
       <c r="E19">
-        <v>0.936716613816713</v>
+        <v>0.9770432405054091</v>
       </c>
       <c r="F19">
-        <v>0.9389158535124844</v>
+        <v>0.9831945547460249</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035763760106917</v>
+        <v>1.046175674655099</v>
       </c>
       <c r="J19">
-        <v>0.9492110585289741</v>
+        <v>0.9852420724838031</v>
       </c>
       <c r="K19">
-        <v>1.029765183426827</v>
+        <v>1.042828951492668</v>
       </c>
       <c r="L19">
-        <v>0.9516540810610755</v>
+        <v>0.991203619684781</v>
       </c>
       <c r="M19">
-        <v>0.953808674646747</v>
+        <v>0.9972436778292856</v>
       </c>
       <c r="N19">
-        <v>0.9664987297122078</v>
+        <v>0.9866412292355755</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9145390459716477</v>
+        <v>0.9523965306448637</v>
       </c>
       <c r="D20">
-        <v>1.014971236823554</v>
+        <v>1.02801042841402</v>
       </c>
       <c r="E20">
-        <v>0.933144284328238</v>
+        <v>0.9734685110666529</v>
       </c>
       <c r="F20">
-        <v>0.9347360881375185</v>
+        <v>0.9794330115178655</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034832072212785</v>
+        <v>1.045147613840215</v>
       </c>
       <c r="J20">
-        <v>0.9458141300560622</v>
+        <v>0.9818943806476538</v>
       </c>
       <c r="K20">
-        <v>1.028755846098311</v>
+        <v>1.041578002633753</v>
       </c>
       <c r="L20">
-        <v>0.9484742317235142</v>
+        <v>0.987994498947662</v>
       </c>
       <c r="M20">
-        <v>0.9500325594667119</v>
+        <v>0.9938474112331768</v>
       </c>
       <c r="N20">
-        <v>0.964128653934091</v>
+        <v>0.9832887832930332</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8998295881619504</v>
+        <v>0.9381731306167242</v>
       </c>
       <c r="D21">
-        <v>1.010539502343397</v>
+        <v>1.022772122604987</v>
       </c>
       <c r="E21">
-        <v>0.9209631109976417</v>
+        <v>0.9613288985847036</v>
       </c>
       <c r="F21">
-        <v>0.9204765059394396</v>
+        <v>0.9666587667257103</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031640801294967</v>
+        <v>1.041639469452378</v>
       </c>
       <c r="J21">
-        <v>0.9342068500884468</v>
+        <v>0.9705042479248635</v>
       </c>
       <c r="K21">
-        <v>1.025323914388502</v>
+        <v>1.037334542565929</v>
       </c>
       <c r="L21">
-        <v>0.9376143168382104</v>
+        <v>0.9770819096184093</v>
       </c>
       <c r="M21">
-        <v>0.9371391837663275</v>
+        <v>0.9823005811468254</v>
       </c>
       <c r="N21">
-        <v>0.9560274062255998</v>
+        <v>0.9718824752753098</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8899496560930208</v>
+        <v>0.9286796422829596</v>
       </c>
       <c r="D22">
-        <v>1.00761500046616</v>
+        <v>1.019318509958006</v>
       </c>
       <c r="E22">
-        <v>0.9128062878795927</v>
+        <v>0.9532471648792382</v>
       </c>
       <c r="F22">
-        <v>0.9109224303700295</v>
+        <v>0.9581546918246898</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029495024560017</v>
+        <v>1.039292994699567</v>
       </c>
       <c r="J22">
-        <v>0.926414370712311</v>
+        <v>0.9629038781438658</v>
       </c>
       <c r="K22">
-        <v>1.023037097212081</v>
+        <v>1.034516737979532</v>
       </c>
       <c r="L22">
-        <v>0.9303283928169923</v>
+        <v>0.9698054050258949</v>
       </c>
       <c r="M22">
-        <v>0.9284922560461235</v>
+        <v>0.9746033293203448</v>
       </c>
       <c r="N22">
-        <v>0.9505870199278255</v>
+        <v>0.9642713120974485</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8952530530395069</v>
+        <v>0.9337692433578004</v>
       </c>
       <c r="D23">
-        <v>1.009179479600311</v>
+        <v>1.021165617637366</v>
       </c>
       <c r="E23">
-        <v>0.9171821941069195</v>
+        <v>0.9575777665222501</v>
       </c>
       <c r="F23">
-        <v>0.9160484290315734</v>
+        <v>0.9627115677156969</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030646829583849</v>
+        <v>1.040551228471633</v>
       </c>
       <c r="J23">
-        <v>0.9305967482465732</v>
+        <v>0.966978237564842</v>
       </c>
       <c r="K23">
-        <v>1.0242626054661</v>
+        <v>1.036025743939639</v>
       </c>
       <c r="L23">
-        <v>0.9342384131636043</v>
+        <v>0.9737056295962163</v>
       </c>
       <c r="M23">
-        <v>0.9331322940355705</v>
+        <v>0.9787288393637634</v>
       </c>
       <c r="N23">
-        <v>0.9535071045043978</v>
+        <v>0.9683514575761383</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9147761551656617</v>
+        <v>0.9526266152105143</v>
       </c>
       <c r="D24">
-        <v>1.015043408489823</v>
+        <v>1.028095762701832</v>
       </c>
       <c r="E24">
-        <v>0.933340991316847</v>
+        <v>0.9736651861367022</v>
       </c>
       <c r="F24">
-        <v>0.9349662691583882</v>
+        <v>0.9796399662601482</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034883432259285</v>
+        <v>1.045204242528823</v>
       </c>
       <c r="J24">
-        <v>0.9460012647325231</v>
+        <v>0.9820786414887044</v>
       </c>
       <c r="K24">
-        <v>1.028811396737756</v>
+        <v>1.04164681824136</v>
       </c>
       <c r="L24">
-        <v>0.948649388157407</v>
+        <v>0.9881711115390172</v>
       </c>
       <c r="M24">
-        <v>0.9502405515752788</v>
+        <v>0.9940343165423154</v>
       </c>
       <c r="N24">
-        <v>0.9642592308158469</v>
+        <v>0.9834733058056128</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9351754388620785</v>
+        <v>0.9725085054720684</v>
       </c>
       <c r="D25">
-        <v>1.021334811071621</v>
+        <v>1.035534960787132</v>
       </c>
       <c r="E25">
-        <v>0.950304449036069</v>
+        <v>0.9906943966223838</v>
       </c>
       <c r="F25">
-        <v>0.9548042027350057</v>
+        <v>0.9975581894875417</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039283149081524</v>
+        <v>1.050073833684748</v>
       </c>
       <c r="J25">
-        <v>0.9621002844870841</v>
+        <v>0.9979978601494529</v>
       </c>
       <c r="K25">
-        <v>1.03361071924132</v>
+        <v>1.04760559566591</v>
       </c>
       <c r="L25">
-        <v>0.9637265422843984</v>
+        <v>1.003438908427047</v>
       </c>
       <c r="M25">
-        <v>0.968147132915282</v>
+        <v>1.010194530054403</v>
       </c>
       <c r="N25">
-        <v>0.9754870967333594</v>
+        <v>0.9994151315828197</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9870891889592299</v>
+        <v>0.9950626677235109</v>
       </c>
       <c r="D2">
-        <v>1.041063643972344</v>
+        <v>1.042483709448863</v>
       </c>
       <c r="E2">
-        <v>1.00322410067868</v>
+        <v>1.015774741604713</v>
       </c>
       <c r="F2">
-        <v>1.010739538681981</v>
+        <v>1.03562046351604</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053601624735367</v>
+        <v>1.059083927851263</v>
       </c>
       <c r="J2">
-        <v>1.009663038964691</v>
+        <v>1.017392063121349</v>
       </c>
       <c r="K2">
-        <v>1.051979071371768</v>
+        <v>1.053381283748707</v>
       </c>
       <c r="L2">
-        <v>1.014638700663492</v>
+        <v>1.02701859810697</v>
       </c>
       <c r="M2">
-        <v>1.022051255111923</v>
+        <v>1.046604889235959</v>
       </c>
       <c r="N2">
-        <v>1.01109687628999</v>
+        <v>1.018836876547482</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9970625305115137</v>
+        <v>1.000046564633888</v>
       </c>
       <c r="D3">
-        <v>1.044874558451409</v>
+        <v>1.045628034125022</v>
       </c>
       <c r="E3">
-        <v>1.011813379238161</v>
+        <v>1.019790512473631</v>
       </c>
       <c r="F3">
-        <v>1.01977352633838</v>
+        <v>1.03963037161857</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0559837794159</v>
+        <v>1.060301777016849</v>
       </c>
       <c r="J3">
-        <v>1.017633595490476</v>
+        <v>1.020535960330937</v>
       </c>
       <c r="K3">
-        <v>1.054963736608062</v>
+        <v>1.055708575096822</v>
       </c>
       <c r="L3">
-        <v>1.022297304522574</v>
+        <v>1.030176280490998</v>
       </c>
       <c r="M3">
-        <v>1.030159501339331</v>
+        <v>1.04978009317902</v>
       </c>
       <c r="N3">
-        <v>1.019078751920277</v>
+        <v>1.021985238451718</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003265975288504</v>
+        <v>1.003202543585506</v>
       </c>
       <c r="D4">
-        <v>1.047254865027266</v>
+        <v>1.04761395252826</v>
       </c>
       <c r="E4">
-        <v>1.017163327891204</v>
+        <v>1.022337511926216</v>
       </c>
       <c r="F4">
-        <v>1.025399384914719</v>
+        <v>1.04216841975362</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057449547541968</v>
+        <v>1.061055651996074</v>
       </c>
       <c r="J4">
-        <v>1.022586504450591</v>
+        <v>1.022524681235447</v>
       </c>
       <c r="K4">
-        <v>1.05681455159922</v>
+        <v>1.057169773458097</v>
       </c>
       <c r="L4">
-        <v>1.02705892755466</v>
+        <v>1.032173615427551</v>
       </c>
       <c r="M4">
-        <v>1.035200629683515</v>
+        <v>1.051783213941451</v>
       </c>
       <c r="N4">
-        <v>1.024038694579222</v>
+        <v>1.023976783568022</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005818446660904</v>
+        <v>1.004513457853608</v>
       </c>
       <c r="D5">
-        <v>1.048236161802267</v>
+        <v>1.048437483485209</v>
       </c>
       <c r="E5">
-        <v>1.019366224092728</v>
+        <v>1.023396379594558</v>
       </c>
       <c r="F5">
-        <v>1.027715608817899</v>
+        <v>1.043222277861139</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058048600705949</v>
+        <v>1.061364555087485</v>
       </c>
       <c r="J5">
-        <v>1.024623166027939</v>
+        <v>1.023350199660081</v>
       </c>
       <c r="K5">
-        <v>1.057574394480408</v>
+        <v>1.057773607069182</v>
       </c>
       <c r="L5">
-        <v>1.029017517125333</v>
+        <v>1.033002666011018</v>
       </c>
       <c r="M5">
-        <v>1.037274141944086</v>
+        <v>1.052613358438459</v>
       </c>
       <c r="N5">
-        <v>1.026078248449618</v>
+        <v>1.024803474323506</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006243884001744</v>
+        <v>1.004732654202064</v>
       </c>
       <c r="D6">
-        <v>1.048399819252953</v>
+        <v>1.048575100938566</v>
       </c>
       <c r="E6">
-        <v>1.019733485226043</v>
+        <v>1.023573482981719</v>
       </c>
       <c r="F6">
-        <v>1.028101746535013</v>
+        <v>1.043398466701981</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05814820411254</v>
+        <v>1.061415954852701</v>
       </c>
       <c r="J6">
-        <v>1.024962552480167</v>
+        <v>1.02348820029325</v>
       </c>
       <c r="K6">
-        <v>1.057700933531769</v>
+        <v>1.057874387383275</v>
       </c>
       <c r="L6">
-        <v>1.02934392745679</v>
+        <v>1.033141254035123</v>
       </c>
       <c r="M6">
-        <v>1.037619701213611</v>
+        <v>1.052752051384749</v>
       </c>
       <c r="N6">
-        <v>1.026418116869537</v>
+        <v>1.024941670933404</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003300294021183</v>
+        <v>1.003220121575337</v>
       </c>
       <c r="D7">
-        <v>1.047268051947808</v>
+        <v>1.047625000793537</v>
       </c>
       <c r="E7">
-        <v>1.017192940331243</v>
+        <v>1.022351706735262</v>
       </c>
       <c r="F7">
-        <v>1.025430521903543</v>
+        <v>1.042182552536931</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057457618347295</v>
+        <v>1.061059810916622</v>
       </c>
       <c r="J7">
-        <v>1.022613893121206</v>
+        <v>1.022535752785754</v>
       </c>
       <c r="K7">
-        <v>1.056824775056405</v>
+        <v>1.057177882667333</v>
       </c>
       <c r="L7">
-        <v>1.027085264039016</v>
+        <v>1.032184734545363</v>
       </c>
       <c r="M7">
-        <v>1.035228511716842</v>
+        <v>1.051794352947068</v>
       </c>
       <c r="N7">
-        <v>1.024066122144892</v>
+        <v>1.0239878708412</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9905142957583321</v>
+        <v>0.9967616718050486</v>
       </c>
       <c r="D8">
-        <v>1.042369994987895</v>
+        <v>1.043556613417106</v>
       </c>
       <c r="E8">
-        <v>1.006172202026703</v>
+        <v>1.017142815271818</v>
       </c>
       <c r="F8">
-        <v>1.013840493833182</v>
+        <v>1.036987616550803</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054422957507862</v>
+        <v>1.059502671270837</v>
       </c>
       <c r="J8">
-        <v>1.012401282587761</v>
+        <v>1.018464229932315</v>
       </c>
       <c r="K8">
-        <v>1.05300506667402</v>
+        <v>1.054177216576097</v>
       </c>
       <c r="L8">
-        <v>1.017269210996705</v>
+        <v>1.02809547708122</v>
       </c>
       <c r="M8">
-        <v>1.024836194537558</v>
+        <v>1.047688833470034</v>
       </c>
       <c r="N8">
-        <v>1.013839008533086</v>
+        <v>1.019910565958299</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9658398255680795</v>
+        <v>0.9848222365600263</v>
       </c>
       <c r="D9">
-        <v>1.033025928719743</v>
+        <v>1.036000398924676</v>
       </c>
       <c r="E9">
-        <v>0.9849751333581066</v>
+        <v>1.007549242322611</v>
       </c>
       <c r="F9">
-        <v>0.9915406575952425</v>
+        <v>1.027379693787829</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048446598343374</v>
+        <v>1.056489963340038</v>
       </c>
       <c r="J9">
-        <v>0.9926593433676779</v>
+        <v>1.010922585280346</v>
       </c>
       <c r="K9">
-        <v>1.045604981026716</v>
+        <v>1.048535200835814</v>
       </c>
       <c r="L9">
-        <v>0.9983167748391256</v>
+        <v>1.020521014331244</v>
       </c>
       <c r="M9">
-        <v>1.004772489137124</v>
+        <v>1.040043641514973</v>
       </c>
       <c r="N9">
-        <v>0.9940690334948779</v>
+        <v>1.012358211305885</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9475632679273661</v>
+        <v>0.9764405539965241</v>
       </c>
       <c r="D10">
-        <v>1.026222147787498</v>
+        <v>1.030681020772704</v>
       </c>
       <c r="E10">
-        <v>0.9693392343722508</v>
+        <v>1.000843770494353</v>
       </c>
       <c r="F10">
-        <v>0.9750878806145971</v>
+        <v>1.020639330962911</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043957012491004</v>
+        <v>1.054289860398798</v>
       </c>
       <c r="J10">
-        <v>0.9780237112443561</v>
+        <v>1.005621123574474</v>
       </c>
       <c r="K10">
-        <v>1.040133561376961</v>
+        <v>1.044517568220934</v>
       </c>
       <c r="L10">
-        <v>0.9842850602168581</v>
+        <v>1.015197807097809</v>
       </c>
       <c r="M10">
-        <v>0.9899219859806091</v>
+        <v>1.034645673823392</v>
       </c>
       <c r="N10">
-        <v>0.9794126170952103</v>
+        <v>1.007049220916305</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9391048414851536</v>
+        <v>0.9726997194456211</v>
       </c>
       <c r="D11">
-        <v>1.023112964404298</v>
+        <v>1.028305562465897</v>
       </c>
       <c r="E11">
-        <v>0.9621229759943022</v>
+        <v>0.9978592356745365</v>
       </c>
       <c r="F11">
-        <v>0.9674943551823831</v>
+        <v>1.017633900120231</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041869618872674</v>
+        <v>1.053289074063909</v>
       </c>
       <c r="J11">
-        <v>0.9712502862563011</v>
+        <v>1.00325403818085</v>
       </c>
       <c r="K11">
-        <v>1.037611781702332</v>
+        <v>1.042712715896837</v>
       </c>
       <c r="L11">
-        <v>0.9777963828428275</v>
+        <v>1.012821636913046</v>
       </c>
       <c r="M11">
-        <v>0.9830564669596886</v>
+        <v>1.032230756559741</v>
       </c>
       <c r="N11">
-        <v>0.9726295730667498</v>
+        <v>1.004678773989913</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9358692102455923</v>
+        <v>0.9712923957586861</v>
       </c>
       <c r="D12">
-        <v>1.021930728416738</v>
+        <v>1.027411890055286</v>
       </c>
       <c r="E12">
-        <v>0.9593660144573735</v>
+        <v>0.9967377774234091</v>
       </c>
       <c r="F12">
-        <v>0.9645932788247975</v>
+        <v>1.016503831757793</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041070223387326</v>
+        <v>1.052909859523549</v>
       </c>
       <c r="J12">
-        <v>0.9686595356382632</v>
+        <v>1.002363441908337</v>
       </c>
       <c r="K12">
-        <v>1.036649495373366</v>
+        <v>1.042032113225978</v>
       </c>
       <c r="L12">
-        <v>0.9753154201636115</v>
+        <v>1.011927744482808</v>
       </c>
       <c r="M12">
-        <v>0.9804317756807832</v>
+        <v>1.031321530676387</v>
       </c>
       <c r="N12">
-        <v>0.970035143285671</v>
+        <v>1.003786912968541</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9365677294878676</v>
+        <v>0.9715950953798563</v>
       </c>
       <c r="D13">
-        <v>1.022185611477513</v>
+        <v>1.027604106300369</v>
       </c>
       <c r="E13">
-        <v>0.9599610304429479</v>
+        <v>0.9969789281458684</v>
       </c>
       <c r="F13">
-        <v>0.9652193961599592</v>
+        <v>1.016746867400835</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041242830389489</v>
+        <v>1.052991544897785</v>
       </c>
       <c r="J13">
-        <v>0.9692188160937192</v>
+        <v>1.002555002014422</v>
       </c>
       <c r="K13">
-        <v>1.036857115433299</v>
+        <v>1.042178573236404</v>
       </c>
       <c r="L13">
-        <v>0.9758509590435943</v>
+        <v>1.012120007589512</v>
       </c>
       <c r="M13">
-        <v>0.9809983219904468</v>
+        <v>1.031517125153283</v>
       </c>
       <c r="N13">
-        <v>0.9705952179835242</v>
+        <v>1.003978745111948</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9388393751775781</v>
+        <v>0.9725837593911206</v>
       </c>
       <c r="D14">
-        <v>1.023015816760584</v>
+        <v>1.028231925103172</v>
       </c>
       <c r="E14">
-        <v>0.96189670819142</v>
+        <v>0.9977668023266103</v>
       </c>
       <c r="F14">
-        <v>0.9672562588921794</v>
+        <v>1.017540772232862</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04180404742601</v>
+        <v>1.053257882115129</v>
       </c>
       <c r="J14">
-        <v>0.9710377206574106</v>
+        <v>1.003180656560516</v>
       </c>
       <c r="K14">
-        <v>1.037532778039185</v>
+        <v>1.042656667601281</v>
       </c>
       <c r="L14">
-        <v>0.977592806866323</v>
+        <v>1.012747981057384</v>
       </c>
       <c r="M14">
-        <v>0.9828410895000806</v>
+        <v>1.032155852328857</v>
       </c>
       <c r="N14">
-        <v>0.9724167056003276</v>
+        <v>1.004605288159262</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9402261799031947</v>
+        <v>0.973190514687762</v>
       </c>
       <c r="D15">
-        <v>1.023523615198032</v>
+        <v>1.028617229713809</v>
       </c>
       <c r="E15">
-        <v>0.9630788833018176</v>
+        <v>0.9982505106013939</v>
       </c>
       <c r="F15">
-        <v>0.9685002351435564</v>
+        <v>1.018028084448807</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042146561962403</v>
+        <v>1.053420982654467</v>
       </c>
       <c r="J15">
-        <v>0.9721481849529326</v>
+        <v>1.003564619211198</v>
       </c>
       <c r="K15">
-        <v>1.037945597179486</v>
+        <v>1.042949873049984</v>
       </c>
       <c r="L15">
-        <v>0.9786563444407973</v>
+        <v>1.013133383758025</v>
       </c>
       <c r="M15">
-        <v>0.9839662963554912</v>
+        <v>1.032547756581535</v>
       </c>
       <c r="N15">
-        <v>0.9735287468825211</v>
+        <v>1.004989796080948</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.948112186621618</v>
+        <v>0.9766863830626388</v>
       </c>
       <c r="D16">
-        <v>1.026424827540362</v>
+        <v>1.030837111811016</v>
       </c>
       <c r="E16">
-        <v>0.9698079907330104</v>
+        <v>1.001040078939815</v>
       </c>
       <c r="F16">
-        <v>0.9755811428874132</v>
+        <v>1.020836906011071</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044092322748687</v>
+        <v>1.05435524460886</v>
       </c>
       <c r="J16">
-        <v>0.9784633042957713</v>
+        <v>1.005776661387326</v>
       </c>
       <c r="K16">
-        <v>1.040297493231888</v>
+        <v>1.044635942851013</v>
       </c>
       <c r="L16">
-        <v>0.9847062877184081</v>
+        <v>1.015353957189284</v>
       </c>
       <c r="M16">
-        <v>0.9903677207602024</v>
+        <v>1.034804262492799</v>
       </c>
       <c r="N16">
-        <v>0.979852834419181</v>
+        <v>1.007204979610692</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9529053773977442</v>
+        <v>0.9788486734584654</v>
       </c>
       <c r="D17">
-        <v>1.028199175181352</v>
+        <v>1.032209942084602</v>
       </c>
       <c r="E17">
-        <v>0.9739034830696094</v>
+        <v>1.002767734158765</v>
       </c>
       <c r="F17">
-        <v>0.9798907181204219</v>
+        <v>1.022575102810032</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045272845329897</v>
+        <v>1.054928228492377</v>
       </c>
       <c r="J17">
-        <v>0.982301885075885</v>
+        <v>1.007144653205878</v>
       </c>
       <c r="K17">
-        <v>1.041730198870428</v>
+        <v>1.045675839064949</v>
       </c>
       <c r="L17">
-        <v>0.9883850920867125</v>
+        <v>1.016727408379581</v>
       </c>
       <c r="M17">
-        <v>0.9942607686414343</v>
+        <v>1.036198557508148</v>
       </c>
       <c r="N17">
-        <v>0.983696866424294</v>
+        <v>1.008574914134537</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9556495507639933</v>
+        <v>0.9800992174735599</v>
       </c>
       <c r="D18">
-        <v>1.029218603576793</v>
+        <v>1.033003765522114</v>
       </c>
       <c r="E18">
-        <v>0.976250038029325</v>
+        <v>1.003767678579644</v>
       </c>
       <c r="F18">
-        <v>0.9823599054377886</v>
+        <v>1.023580635938374</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045947783662801</v>
+        <v>1.055257814380327</v>
       </c>
       <c r="J18">
-        <v>0.9844995048175634</v>
+        <v>1.007935722958955</v>
       </c>
       <c r="K18">
-        <v>1.042551350653421</v>
+        <v>1.046276131918372</v>
       </c>
       <c r="L18">
-        <v>0.9904917189418097</v>
+        <v>1.017521692364839</v>
       </c>
       <c r="M18">
-        <v>0.996490239267752</v>
+        <v>1.037004382983317</v>
       </c>
       <c r="N18">
-        <v>0.9858976070380759</v>
+        <v>1.0093671072974</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9565768125198972</v>
+        <v>0.9805238393449781</v>
       </c>
       <c r="D19">
-        <v>1.029563647657296</v>
+        <v>1.033273278306048</v>
       </c>
       <c r="E19">
-        <v>0.9770432405054091</v>
+        <v>1.00410733656688</v>
       </c>
       <c r="F19">
-        <v>0.9831945547460249</v>
+        <v>1.02392210394016</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046175674655099</v>
+        <v>1.055369417227653</v>
       </c>
       <c r="J19">
-        <v>0.9852420724838031</v>
+        <v>1.008204312062363</v>
       </c>
       <c r="K19">
-        <v>1.042828951492668</v>
+        <v>1.046479766136182</v>
       </c>
       <c r="L19">
-        <v>0.991203619684781</v>
+        <v>1.017791381684299</v>
       </c>
       <c r="M19">
-        <v>0.9972436778292856</v>
+        <v>1.037277902631921</v>
       </c>
       <c r="N19">
-        <v>0.9866412292355755</v>
+        <v>1.009636077828143</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9523965306448637</v>
+        <v>0.978617792573829</v>
       </c>
       <c r="D20">
-        <v>1.02801042841402</v>
+        <v>1.032063370088697</v>
       </c>
       <c r="E20">
-        <v>0.9734685110666529</v>
+        <v>1.002583181415496</v>
       </c>
       <c r="F20">
-        <v>0.9794330115178655</v>
+        <v>1.022389476835696</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045147613840215</v>
+        <v>1.054867232954136</v>
       </c>
       <c r="J20">
-        <v>0.9818943806476538</v>
+        <v>1.006998594117343</v>
       </c>
       <c r="K20">
-        <v>1.041578002633753</v>
+        <v>1.045564918488298</v>
       </c>
       <c r="L20">
-        <v>0.987994498947662</v>
+        <v>1.016580760265042</v>
       </c>
       <c r="M20">
-        <v>0.9938474112331768</v>
+        <v>1.036049736687344</v>
       </c>
       <c r="N20">
-        <v>0.9832887832930332</v>
+        <v>1.008428647625343</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9381731306167242</v>
+        <v>0.9722931230801137</v>
       </c>
       <c r="D21">
-        <v>1.022772122604987</v>
+        <v>1.028047364705693</v>
       </c>
       <c r="E21">
-        <v>0.9613288985847036</v>
+        <v>0.9975351541282725</v>
       </c>
       <c r="F21">
-        <v>0.9666587667257103</v>
+        <v>1.017307371394461</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041639469452378</v>
+        <v>1.053179660950271</v>
       </c>
       <c r="J21">
-        <v>0.9705042479248635</v>
+        <v>1.0029967354977</v>
       </c>
       <c r="K21">
-        <v>1.037334542565929</v>
+        <v>1.042516165712415</v>
       </c>
       <c r="L21">
-        <v>0.9770819096184093</v>
+        <v>1.012563374722946</v>
       </c>
       <c r="M21">
-        <v>0.9823005811468254</v>
+        <v>1.031968105128084</v>
       </c>
       <c r="N21">
-        <v>0.9718824752753098</v>
+        <v>1.00442110590744</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9286796422829596</v>
+        <v>0.9682129149081199</v>
       </c>
       <c r="D22">
-        <v>1.019318509958006</v>
+        <v>1.025456574605743</v>
       </c>
       <c r="E22">
-        <v>0.9532471648792382</v>
+        <v>0.9942864177981533</v>
       </c>
       <c r="F22">
-        <v>0.9581546918246898</v>
+        <v>1.014032312745073</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039292994699567</v>
+        <v>1.052075216132444</v>
       </c>
       <c r="J22">
-        <v>0.9629038781438658</v>
+        <v>1.00041457153172</v>
       </c>
       <c r="K22">
-        <v>1.034516737979532</v>
+        <v>1.040540055485736</v>
       </c>
       <c r="L22">
-        <v>0.9698054050258949</v>
+        <v>1.009971918002901</v>
       </c>
       <c r="M22">
-        <v>0.9746033293203448</v>
+        <v>1.029330819644949</v>
       </c>
       <c r="N22">
-        <v>0.9642713120974485</v>
+        <v>1.00183527497245</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9337692433578004</v>
+        <v>0.9703861100243359</v>
       </c>
       <c r="D23">
-        <v>1.021165617637366</v>
+        <v>1.026836406520804</v>
       </c>
       <c r="E23">
-        <v>0.9575777665222501</v>
+        <v>0.9960159751485883</v>
       </c>
       <c r="F23">
-        <v>0.9627115677156969</v>
+        <v>1.01577628034352</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040551228471633</v>
+        <v>1.052664904695842</v>
       </c>
       <c r="J23">
-        <v>0.966978237564842</v>
+        <v>1.001789901618171</v>
       </c>
       <c r="K23">
-        <v>1.036025743939639</v>
+        <v>1.041593387557002</v>
       </c>
       <c r="L23">
-        <v>0.9737056295962163</v>
+        <v>1.011352119495585</v>
       </c>
       <c r="M23">
-        <v>0.9787288393637634</v>
+        <v>1.030735824800464</v>
       </c>
       <c r="N23">
-        <v>0.9683514575761383</v>
+        <v>1.003212558185376</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9526266152105143</v>
+        <v>0.978722150644624</v>
       </c>
       <c r="D24">
-        <v>1.028095762701832</v>
+        <v>1.032129621030458</v>
       </c>
       <c r="E24">
-        <v>0.9736651861367022</v>
+        <v>1.002666596809749</v>
       </c>
       <c r="F24">
-        <v>0.9796399662601482</v>
+        <v>1.022473378909096</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045204242528823</v>
+        <v>1.054894808489677</v>
       </c>
       <c r="J24">
-        <v>0.9820786414887044</v>
+        <v>1.007064613077052</v>
       </c>
       <c r="K24">
-        <v>1.04164681824136</v>
+        <v>1.045615058041179</v>
       </c>
       <c r="L24">
-        <v>0.9881711115390172</v>
+        <v>1.016647045290107</v>
       </c>
       <c r="M24">
-        <v>0.9940343165423154</v>
+        <v>1.036117005370866</v>
       </c>
       <c r="N24">
-        <v>0.9834733058056128</v>
+        <v>1.008494760339547</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9725085054720684</v>
+        <v>0.9879796542369988</v>
       </c>
       <c r="D25">
-        <v>1.035534960787132</v>
+        <v>1.03800187815288</v>
       </c>
       <c r="E25">
-        <v>0.9906943966223838</v>
+        <v>1.010081616246476</v>
       </c>
       <c r="F25">
-        <v>0.9975581894875417</v>
+        <v>1.029920308949495</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050073833684748</v>
+        <v>1.057301750916052</v>
       </c>
       <c r="J25">
-        <v>0.9979978601494529</v>
+        <v>1.012918434895126</v>
       </c>
       <c r="K25">
-        <v>1.04760559566591</v>
+        <v>1.050037575799958</v>
       </c>
       <c r="L25">
-        <v>1.003438908427047</v>
+        <v>1.022525418348501</v>
       </c>
       <c r="M25">
-        <v>1.010194530054403</v>
+        <v>1.042071250534695</v>
       </c>
       <c r="N25">
-        <v>0.9994151315828197</v>
+        <v>1.014356895256045</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9950626677235109</v>
+        <v>1.032835588569617</v>
       </c>
       <c r="D2">
-        <v>1.042483709448863</v>
+        <v>1.049746824815685</v>
       </c>
       <c r="E2">
-        <v>1.015774741604713</v>
+        <v>1.04317353377734</v>
       </c>
       <c r="F2">
-        <v>1.03562046351604</v>
+        <v>1.056414621338521</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059083927851263</v>
+        <v>1.041650676869526</v>
       </c>
       <c r="J2">
-        <v>1.017392063121349</v>
+        <v>1.037963623736653</v>
       </c>
       <c r="K2">
-        <v>1.053381283748707</v>
+        <v>1.052503024023049</v>
       </c>
       <c r="L2">
-        <v>1.02701859810697</v>
+        <v>1.045948145618356</v>
       </c>
       <c r="M2">
-        <v>1.046604889235959</v>
+        <v>1.059152396843716</v>
       </c>
       <c r="N2">
-        <v>1.018836876547482</v>
+        <v>1.039437651138451</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.000046564633888</v>
+        <v>1.033894147830388</v>
       </c>
       <c r="D3">
-        <v>1.045628034125022</v>
+        <v>1.050374660296304</v>
       </c>
       <c r="E3">
-        <v>1.019790512473631</v>
+        <v>1.044063665628472</v>
       </c>
       <c r="F3">
-        <v>1.03963037161857</v>
+        <v>1.057270597540094</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060301777016849</v>
+        <v>1.041801286884613</v>
       </c>
       <c r="J3">
-        <v>1.020535960330937</v>
+        <v>1.03866409079077</v>
       </c>
       <c r="K3">
-        <v>1.055708575096822</v>
+        <v>1.05294364372757</v>
       </c>
       <c r="L3">
-        <v>1.030176280490998</v>
+        <v>1.046649051591924</v>
       </c>
       <c r="M3">
-        <v>1.04978009317902</v>
+        <v>1.059821899589058</v>
       </c>
       <c r="N3">
-        <v>1.021985238451718</v>
+        <v>1.04013911293613</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003202543585506</v>
+        <v>1.034579471716971</v>
       </c>
       <c r="D4">
-        <v>1.04761395252826</v>
+        <v>1.050779786906604</v>
       </c>
       <c r="E4">
-        <v>1.022337511926216</v>
+        <v>1.044639957484732</v>
       </c>
       <c r="F4">
-        <v>1.04216841975362</v>
+        <v>1.057823972856086</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061055651996074</v>
+        <v>1.041896541790686</v>
       </c>
       <c r="J4">
-        <v>1.022524681235447</v>
+        <v>1.039117144318417</v>
       </c>
       <c r="K4">
-        <v>1.057169773458097</v>
+        <v>1.053226940795282</v>
       </c>
       <c r="L4">
-        <v>1.032173615427551</v>
+        <v>1.047102267197189</v>
       </c>
       <c r="M4">
-        <v>1.051783213941451</v>
+        <v>1.06025397154791</v>
       </c>
       <c r="N4">
-        <v>1.023976783568022</v>
+        <v>1.040592809851752</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004513457853608</v>
+        <v>1.034867669129139</v>
       </c>
       <c r="D5">
-        <v>1.048437483485209</v>
+        <v>1.050949831068762</v>
       </c>
       <c r="E5">
-        <v>1.023396379594558</v>
+        <v>1.044882305482785</v>
       </c>
       <c r="F5">
-        <v>1.043222277861139</v>
+        <v>1.058056491055373</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061364555087485</v>
+        <v>1.041936059390752</v>
       </c>
       <c r="J5">
-        <v>1.023350199660081</v>
+        <v>1.039307560662602</v>
       </c>
       <c r="K5">
-        <v>1.057773607069182</v>
+        <v>1.053345603356552</v>
       </c>
       <c r="L5">
-        <v>1.033002666011018</v>
+        <v>1.047292722230212</v>
       </c>
       <c r="M5">
-        <v>1.052613358438459</v>
+        <v>1.060435340145043</v>
       </c>
       <c r="N5">
-        <v>1.024803474323506</v>
+        <v>1.040783496608986</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004732654202064</v>
+        <v>1.03491606385354</v>
       </c>
       <c r="D6">
-        <v>1.048575100938566</v>
+        <v>1.050978366285047</v>
       </c>
       <c r="E6">
-        <v>1.023573482981719</v>
+        <v>1.044923001141246</v>
       </c>
       <c r="F6">
-        <v>1.043398466701981</v>
+        <v>1.058095524759334</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061415954852701</v>
+        <v>1.041942663606329</v>
       </c>
       <c r="J6">
-        <v>1.02348820029325</v>
+        <v>1.039339529611255</v>
       </c>
       <c r="K6">
-        <v>1.057874387383275</v>
+        <v>1.053365501742005</v>
       </c>
       <c r="L6">
-        <v>1.033141254035123</v>
+        <v>1.047324695940464</v>
       </c>
       <c r="M6">
-        <v>1.052752051384749</v>
+        <v>1.060465776599052</v>
       </c>
       <c r="N6">
-        <v>1.024941670933404</v>
+        <v>1.040815510957214</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003220121575337</v>
+        <v>1.034583322282312</v>
       </c>
       <c r="D7">
-        <v>1.047625000793537</v>
+        <v>1.050782060112376</v>
       </c>
       <c r="E7">
-        <v>1.022351706735262</v>
+        <v>1.044643195457503</v>
       </c>
       <c r="F7">
-        <v>1.042182552536931</v>
+        <v>1.057827080252087</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061059810916622</v>
+        <v>1.041897071900932</v>
       </c>
       <c r="J7">
-        <v>1.022535752785754</v>
+        <v>1.039119688857729</v>
       </c>
       <c r="K7">
-        <v>1.057177882667333</v>
+        <v>1.053228528083368</v>
       </c>
       <c r="L7">
-        <v>1.032184734545363</v>
+        <v>1.047104812369507</v>
       </c>
       <c r="M7">
-        <v>1.051794352947068</v>
+        <v>1.060256396084045</v>
       </c>
       <c r="N7">
-        <v>1.0239878708412</v>
+        <v>1.040595358004601</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9967616718050486</v>
+        <v>1.033193257882113</v>
       </c>
       <c r="D8">
-        <v>1.043556613417106</v>
+        <v>1.049959236630396</v>
       </c>
       <c r="E8">
-        <v>1.017142815271818</v>
+        <v>1.043474291765348</v>
       </c>
       <c r="F8">
-        <v>1.036987616550803</v>
+        <v>1.056704004867245</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059502671270837</v>
+        <v>1.041702031175077</v>
       </c>
       <c r="J8">
-        <v>1.018464229932315</v>
+        <v>1.038200390002375</v>
       </c>
       <c r="K8">
-        <v>1.054177216576097</v>
+        <v>1.052652308139101</v>
       </c>
       <c r="L8">
-        <v>1.02809547708122</v>
+        <v>1.046185085311781</v>
       </c>
       <c r="M8">
-        <v>1.047688833470034</v>
+        <v>1.059378893937496</v>
       </c>
       <c r="N8">
-        <v>1.019910565958299</v>
+        <v>1.039674753639428</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9848222365600263</v>
+        <v>1.030746592271951</v>
       </c>
       <c r="D9">
-        <v>1.036000398924676</v>
+        <v>1.048500777435971</v>
       </c>
       <c r="E9">
-        <v>1.007549242322611</v>
+        <v>1.041417005528034</v>
       </c>
       <c r="F9">
-        <v>1.027379693787829</v>
+        <v>1.054721246979802</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056489963340038</v>
+        <v>1.041341536082882</v>
       </c>
       <c r="J9">
-        <v>1.010922585280346</v>
+        <v>1.036578994807443</v>
       </c>
       <c r="K9">
-        <v>1.048535200835814</v>
+        <v>1.051623108156873</v>
       </c>
       <c r="L9">
-        <v>1.020521014331244</v>
+        <v>1.044562013009258</v>
       </c>
       <c r="M9">
-        <v>1.040043641514973</v>
+        <v>1.057823939183687</v>
       </c>
       <c r="N9">
-        <v>1.012358211305885</v>
+        <v>1.038051055877342</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9764405539965241</v>
+        <v>1.029117375850761</v>
       </c>
       <c r="D10">
-        <v>1.030681020772704</v>
+        <v>1.047522831413348</v>
       </c>
       <c r="E10">
-        <v>1.000843770494353</v>
+        <v>1.040047199412959</v>
       </c>
       <c r="F10">
-        <v>1.020639330962911</v>
+        <v>1.053396965355843</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054289860398798</v>
+        <v>1.041089957395523</v>
       </c>
       <c r="J10">
-        <v>1.005621123574474</v>
+        <v>1.035497104737656</v>
       </c>
       <c r="K10">
-        <v>1.044517568220934</v>
+        <v>1.050927759212578</v>
       </c>
       <c r="L10">
-        <v>1.015197807097809</v>
+        <v>1.043478399869874</v>
       </c>
       <c r="M10">
-        <v>1.034645673823392</v>
+        <v>1.05678153682409</v>
       </c>
       <c r="N10">
-        <v>1.007049220916305</v>
+        <v>1.036967629399562</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9726997194456211</v>
+        <v>1.028412357032458</v>
       </c>
       <c r="D11">
-        <v>1.028305562465897</v>
+        <v>1.047098053087122</v>
       </c>
       <c r="E11">
-        <v>0.9978592356745365</v>
+        <v>1.039454476986269</v>
       </c>
       <c r="F11">
-        <v>1.017633900120231</v>
+        <v>1.052822973915772</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053289074063909</v>
+        <v>1.04097836368793</v>
       </c>
       <c r="J11">
-        <v>1.00325403818085</v>
+        <v>1.035028412515204</v>
       </c>
       <c r="K11">
-        <v>1.042712715896837</v>
+        <v>1.050624496090768</v>
       </c>
       <c r="L11">
-        <v>1.012821636913046</v>
+        <v>1.043008821285832</v>
       </c>
       <c r="M11">
-        <v>1.032230756559741</v>
+        <v>1.056328812165794</v>
       </c>
       <c r="N11">
-        <v>1.004678773989913</v>
+        <v>1.036498271580394</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9712923957586861</v>
+        <v>1.02815054809265</v>
       </c>
       <c r="D12">
-        <v>1.027411890055286</v>
+        <v>1.046940074616499</v>
       </c>
       <c r="E12">
-        <v>0.9967377774234091</v>
+        <v>1.039234376321035</v>
       </c>
       <c r="F12">
-        <v>1.016503831757793</v>
+        <v>1.052609683745789</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052909859523549</v>
+        <v>1.040936514211476</v>
       </c>
       <c r="J12">
-        <v>1.002363441908337</v>
+        <v>1.034854285692063</v>
       </c>
       <c r="K12">
-        <v>1.042032113225978</v>
+        <v>1.050511525537201</v>
       </c>
       <c r="L12">
-        <v>1.011927744482808</v>
+        <v>1.042834344421118</v>
       </c>
       <c r="M12">
-        <v>1.031321530676387</v>
+        <v>1.056160447213367</v>
       </c>
       <c r="N12">
-        <v>1.003786912968541</v>
+        <v>1.036323897477191</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9715950953798563</v>
+        <v>1.028206703993406</v>
       </c>
       <c r="D13">
-        <v>1.027604106300369</v>
+        <v>1.046973970418531</v>
       </c>
       <c r="E13">
-        <v>0.9969789281458684</v>
+        <v>1.039281585804088</v>
       </c>
       <c r="F13">
-        <v>1.016746867400835</v>
+        <v>1.052655439001108</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052991544897785</v>
+        <v>1.040945509091192</v>
       </c>
       <c r="J13">
-        <v>1.002555002014422</v>
+        <v>1.03489163800377</v>
       </c>
       <c r="K13">
-        <v>1.042178573236404</v>
+        <v>1.050535772797109</v>
       </c>
       <c r="L13">
-        <v>1.012120007589512</v>
+        <v>1.042871772755279</v>
       </c>
       <c r="M13">
-        <v>1.031517125153283</v>
+        <v>1.056196571229346</v>
       </c>
       <c r="N13">
-        <v>1.003978745111948</v>
+        <v>1.036361302833466</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9725837593911206</v>
+        <v>1.028390714468819</v>
       </c>
       <c r="D14">
-        <v>1.028231925103172</v>
+        <v>1.047084998544621</v>
       </c>
       <c r="E14">
-        <v>0.9977668023266103</v>
+        <v>1.039436282109987</v>
       </c>
       <c r="F14">
-        <v>1.017540772232862</v>
+        <v>1.052805344994058</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053257882115129</v>
+        <v>1.040974912523974</v>
       </c>
       <c r="J14">
-        <v>1.003180656560516</v>
+        <v>1.035014019822142</v>
       </c>
       <c r="K14">
-        <v>1.042656667601281</v>
+        <v>1.050615164534857</v>
       </c>
       <c r="L14">
-        <v>1.012747981057384</v>
+        <v>1.042994400081165</v>
       </c>
       <c r="M14">
-        <v>1.032155852328857</v>
+        <v>1.056314899198202</v>
       </c>
       <c r="N14">
-        <v>1.004605288159262</v>
+        <v>1.036483858448057</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.973190514687762</v>
+        <v>1.028504098197965</v>
       </c>
       <c r="D15">
-        <v>1.028617229713809</v>
+        <v>1.047153380596046</v>
       </c>
       <c r="E15">
-        <v>0.9982505106013939</v>
+        <v>1.039531603960855</v>
       </c>
       <c r="F15">
-        <v>1.018028084448807</v>
+        <v>1.052897695904932</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053420982654467</v>
+        <v>1.040992976154123</v>
       </c>
       <c r="J15">
-        <v>1.003564619211198</v>
+        <v>1.035089418850553</v>
       </c>
       <c r="K15">
-        <v>1.042949873049984</v>
+        <v>1.050664037359536</v>
       </c>
       <c r="L15">
-        <v>1.013133383758025</v>
+        <v>1.043069947625561</v>
       </c>
       <c r="M15">
-        <v>1.032547756581535</v>
+        <v>1.056387778117346</v>
       </c>
       <c r="N15">
-        <v>1.004989796080948</v>
+        <v>1.036559364551737</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9766863830626388</v>
+        <v>1.029164174948516</v>
       </c>
       <c r="D16">
-        <v>1.030837111811016</v>
+        <v>1.047550994853063</v>
       </c>
       <c r="E16">
-        <v>1.001040078939815</v>
+        <v>1.040086545214257</v>
       </c>
       <c r="F16">
-        <v>1.020836906011071</v>
+        <v>1.053435047401878</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05435524460886</v>
+        <v>1.041097307559982</v>
       </c>
       <c r="J16">
-        <v>1.005776661387326</v>
+        <v>1.035528205554573</v>
       </c>
       <c r="K16">
-        <v>1.044635942851013</v>
+        <v>1.050947840124074</v>
       </c>
       <c r="L16">
-        <v>1.015353957189284</v>
+        <v>1.043509556579252</v>
       </c>
       <c r="M16">
-        <v>1.034804262492799</v>
+        <v>1.05681155416074</v>
       </c>
       <c r="N16">
-        <v>1.007204979610692</v>
+        <v>1.036998774383206</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9788486734584654</v>
+        <v>1.029578342119964</v>
       </c>
       <c r="D17">
-        <v>1.032209942084602</v>
+        <v>1.047800055183062</v>
       </c>
       <c r="E17">
-        <v>1.002767734158765</v>
+        <v>1.040434756275619</v>
       </c>
       <c r="F17">
-        <v>1.022575102810032</v>
+        <v>1.053771962418651</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054928228492377</v>
+        <v>1.04116204071421</v>
       </c>
       <c r="J17">
-        <v>1.007144653205878</v>
+        <v>1.035803384451013</v>
       </c>
       <c r="K17">
-        <v>1.045675839064949</v>
+        <v>1.051125281369244</v>
       </c>
       <c r="L17">
-        <v>1.016727408379581</v>
+        <v>1.043785213887395</v>
       </c>
       <c r="M17">
-        <v>1.036198557508148</v>
+        <v>1.057077015001495</v>
       </c>
       <c r="N17">
-        <v>1.008574914134537</v>
+        <v>1.037274344065243</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9800992174735599</v>
+        <v>1.029819961536754</v>
       </c>
       <c r="D18">
-        <v>1.033003765522114</v>
+        <v>1.04794520027152</v>
       </c>
       <c r="E18">
-        <v>1.003767678579644</v>
+        <v>1.040637901656428</v>
       </c>
       <c r="F18">
-        <v>1.023580635938374</v>
+        <v>1.053968424287321</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055257814380327</v>
+        <v>1.041199541910394</v>
       </c>
       <c r="J18">
-        <v>1.007935722958955</v>
+        <v>1.035963869747878</v>
       </c>
       <c r="K18">
-        <v>1.046276131918372</v>
+        <v>1.051228570153091</v>
       </c>
       <c r="L18">
-        <v>1.017521692364839</v>
+        <v>1.043945964682909</v>
       </c>
       <c r="M18">
-        <v>1.037004382983317</v>
+        <v>1.057231722760912</v>
       </c>
       <c r="N18">
-        <v>1.0093671072974</v>
+        <v>1.037435057269636</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9805238393449781</v>
+        <v>1.02990235476059</v>
       </c>
       <c r="D19">
-        <v>1.033273278306048</v>
+        <v>1.047994669305206</v>
       </c>
       <c r="E19">
-        <v>1.00410733656688</v>
+        <v>1.04070717569994</v>
       </c>
       <c r="F19">
-        <v>1.02392210394016</v>
+        <v>1.054035403346812</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055369417227653</v>
+        <v>1.041212285308037</v>
       </c>
       <c r="J19">
-        <v>1.008204312062363</v>
+        <v>1.036018587360534</v>
       </c>
       <c r="K19">
-        <v>1.046479766136182</v>
+        <v>1.051263753353203</v>
       </c>
       <c r="L19">
-        <v>1.017791381684299</v>
+        <v>1.044000770517184</v>
       </c>
       <c r="M19">
-        <v>1.037277902631921</v>
+        <v>1.057284451845515</v>
       </c>
       <c r="N19">
-        <v>1.009636077828143</v>
+        <v>1.037489852587579</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.978617792573829</v>
+        <v>1.029533901484431</v>
       </c>
       <c r="D20">
-        <v>1.032063370088697</v>
+        <v>1.047773346552022</v>
       </c>
       <c r="E20">
-        <v>1.002583181415496</v>
+        <v>1.040397392405465</v>
       </c>
       <c r="F20">
-        <v>1.022389476835696</v>
+        <v>1.053735820301505</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054867232954136</v>
+        <v>1.041155121990481</v>
       </c>
       <c r="J20">
-        <v>1.006998594117343</v>
+        <v>1.03577386262175</v>
       </c>
       <c r="K20">
-        <v>1.045564918488298</v>
+        <v>1.051106265283213</v>
       </c>
       <c r="L20">
-        <v>1.016580760265042</v>
+        <v>1.043755642128789</v>
       </c>
       <c r="M20">
-        <v>1.036049736687344</v>
+        <v>1.057048547113434</v>
       </c>
       <c r="N20">
-        <v>1.008428647625343</v>
+        <v>1.037244780311595</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9722931230801137</v>
+        <v>1.02833652613657</v>
       </c>
       <c r="D21">
-        <v>1.028047364705693</v>
+        <v>1.047052308950956</v>
       </c>
       <c r="E21">
-        <v>0.9975351541282725</v>
+        <v>1.039390726162358</v>
       </c>
       <c r="F21">
-        <v>1.017307371394461</v>
+        <v>1.052761203729528</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053179660950271</v>
+        <v>1.040966264942943</v>
       </c>
       <c r="J21">
-        <v>1.0029967354977</v>
+        <v>1.034977982353046</v>
       </c>
       <c r="K21">
-        <v>1.042516165712415</v>
+        <v>1.050591794611966</v>
       </c>
       <c r="L21">
-        <v>1.012563374722946</v>
+        <v>1.042958290888496</v>
       </c>
       <c r="M21">
-        <v>1.031968105128084</v>
+        <v>1.056280060151683</v>
       </c>
       <c r="N21">
-        <v>1.00442110590744</v>
+        <v>1.036447769801621</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9682129149081199</v>
+        <v>1.027584073103969</v>
       </c>
       <c r="D22">
-        <v>1.025456574605743</v>
+        <v>1.046597825651915</v>
       </c>
       <c r="E22">
-        <v>0.9942864177981533</v>
+        <v>1.038758159094456</v>
       </c>
       <c r="F22">
-        <v>1.014032312745073</v>
+        <v>1.052147937111072</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052075216132444</v>
+        <v>1.040845217205988</v>
       </c>
       <c r="J22">
-        <v>1.00041457153172</v>
+        <v>1.034477386266888</v>
       </c>
       <c r="K22">
-        <v>1.040540055485736</v>
+        <v>1.050266446005723</v>
       </c>
       <c r="L22">
-        <v>1.009971918002901</v>
+        <v>1.042456649688177</v>
       </c>
       <c r="M22">
-        <v>1.029330819644949</v>
+        <v>1.055795708766594</v>
       </c>
       <c r="N22">
-        <v>1.00183527497245</v>
+        <v>1.035946462811601</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9703861100243359</v>
+        <v>1.027982926280147</v>
       </c>
       <c r="D23">
-        <v>1.026836406520804</v>
+        <v>1.04683886321505</v>
       </c>
       <c r="E23">
-        <v>0.9960159751485883</v>
+        <v>1.039093460089332</v>
       </c>
       <c r="F23">
-        <v>1.01577628034352</v>
+        <v>1.052473087046983</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052664904695842</v>
+        <v>1.040909605201702</v>
       </c>
       <c r="J23">
-        <v>1.001789901618171</v>
+        <v>1.034742780036692</v>
       </c>
       <c r="K23">
-        <v>1.041593387557002</v>
+        <v>1.050439097289616</v>
       </c>
       <c r="L23">
-        <v>1.011352119495585</v>
+        <v>1.04272260880379</v>
       </c>
       <c r="M23">
-        <v>1.030735824800464</v>
+        <v>1.056052583435183</v>
       </c>
       <c r="N23">
-        <v>1.003212558185376</v>
+        <v>1.036212233471</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.978722150644624</v>
+        <v>1.029553982162563</v>
       </c>
       <c r="D24">
-        <v>1.032129621030458</v>
+        <v>1.047785415427068</v>
       </c>
       <c r="E24">
-        <v>1.002666596809749</v>
+        <v>1.040414275407227</v>
       </c>
       <c r="F24">
-        <v>1.022473378909096</v>
+        <v>1.053752151538381</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054894808489677</v>
+        <v>1.041158249056679</v>
       </c>
       <c r="J24">
-        <v>1.007064613077052</v>
+        <v>1.035787202333248</v>
       </c>
       <c r="K24">
-        <v>1.045615058041179</v>
+        <v>1.051114858481933</v>
       </c>
       <c r="L24">
-        <v>1.016647045290107</v>
+        <v>1.043769004443112</v>
       </c>
       <c r="M24">
-        <v>1.036117005370866</v>
+        <v>1.057061410931632</v>
       </c>
       <c r="N24">
-        <v>1.008494760339547</v>
+        <v>1.037258138967013</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9879796542369988</v>
+        <v>1.031378780712415</v>
       </c>
       <c r="D25">
-        <v>1.03800187815288</v>
+        <v>1.048878825510496</v>
       </c>
       <c r="E25">
-        <v>1.010081616246476</v>
+        <v>1.04194856461715</v>
       </c>
       <c r="F25">
-        <v>1.029920308949495</v>
+        <v>1.055234273970026</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057301750916052</v>
+        <v>1.041436719144424</v>
       </c>
       <c r="J25">
-        <v>1.012918434895126</v>
+        <v>1.036998335743581</v>
       </c>
       <c r="K25">
-        <v>1.050037575799958</v>
+        <v>1.051890811184859</v>
       </c>
       <c r="L25">
-        <v>1.022525418348501</v>
+        <v>1.044981895261512</v>
       </c>
       <c r="M25">
-        <v>1.042071250534695</v>
+        <v>1.058226953799151</v>
       </c>
       <c r="N25">
-        <v>1.014356895256045</v>
+        <v>1.038470992325708</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032835588569617</v>
+        <v>0.9950626677235116</v>
       </c>
       <c r="D2">
-        <v>1.049746824815685</v>
+        <v>1.042483709448864</v>
       </c>
       <c r="E2">
-        <v>1.04317353377734</v>
+        <v>1.015774741604714</v>
       </c>
       <c r="F2">
-        <v>1.056414621338521</v>
+        <v>1.03562046351604</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041650676869526</v>
+        <v>1.059083927851264</v>
       </c>
       <c r="J2">
-        <v>1.037963623736653</v>
+        <v>1.017392063121349</v>
       </c>
       <c r="K2">
-        <v>1.052503024023049</v>
+        <v>1.053381283748708</v>
       </c>
       <c r="L2">
-        <v>1.045948145618356</v>
+        <v>1.027018598106971</v>
       </c>
       <c r="M2">
-        <v>1.059152396843716</v>
+        <v>1.04660488923596</v>
       </c>
       <c r="N2">
-        <v>1.039437651138451</v>
+        <v>1.018836876547482</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033894147830388</v>
+        <v>1.000046564633888</v>
       </c>
       <c r="D3">
-        <v>1.050374660296304</v>
+        <v>1.045628034125022</v>
       </c>
       <c r="E3">
-        <v>1.044063665628472</v>
+        <v>1.019790512473631</v>
       </c>
       <c r="F3">
-        <v>1.057270597540094</v>
+        <v>1.03963037161857</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041801286884613</v>
+        <v>1.06030177701685</v>
       </c>
       <c r="J3">
-        <v>1.03866409079077</v>
+        <v>1.020535960330937</v>
       </c>
       <c r="K3">
-        <v>1.05294364372757</v>
+        <v>1.055708575096822</v>
       </c>
       <c r="L3">
-        <v>1.046649051591924</v>
+        <v>1.030176280490998</v>
       </c>
       <c r="M3">
-        <v>1.059821899589058</v>
+        <v>1.04978009317902</v>
       </c>
       <c r="N3">
-        <v>1.04013911293613</v>
+        <v>1.021985238451718</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034579471716971</v>
+        <v>1.003202543585505</v>
       </c>
       <c r="D4">
-        <v>1.050779786906604</v>
+        <v>1.04761395252826</v>
       </c>
       <c r="E4">
-        <v>1.044639957484732</v>
+        <v>1.022337511926215</v>
       </c>
       <c r="F4">
-        <v>1.057823972856086</v>
+        <v>1.04216841975362</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041896541790686</v>
+        <v>1.061055651996073</v>
       </c>
       <c r="J4">
-        <v>1.039117144318417</v>
+        <v>1.022524681235447</v>
       </c>
       <c r="K4">
-        <v>1.053226940795282</v>
+        <v>1.057169773458096</v>
       </c>
       <c r="L4">
-        <v>1.047102267197189</v>
+        <v>1.03217361542755</v>
       </c>
       <c r="M4">
-        <v>1.06025397154791</v>
+        <v>1.051783213941451</v>
       </c>
       <c r="N4">
-        <v>1.040592809851752</v>
+        <v>1.023976783568022</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034867669129139</v>
+        <v>1.004513457853607</v>
       </c>
       <c r="D5">
-        <v>1.050949831068762</v>
+        <v>1.048437483485209</v>
       </c>
       <c r="E5">
-        <v>1.044882305482785</v>
+        <v>1.023396379594558</v>
       </c>
       <c r="F5">
-        <v>1.058056491055373</v>
+        <v>1.043222277861139</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041936059390752</v>
+        <v>1.061364555087485</v>
       </c>
       <c r="J5">
-        <v>1.039307560662602</v>
+        <v>1.02335019966008</v>
       </c>
       <c r="K5">
-        <v>1.053345603356552</v>
+        <v>1.057773607069182</v>
       </c>
       <c r="L5">
-        <v>1.047292722230212</v>
+        <v>1.033002666011017</v>
       </c>
       <c r="M5">
-        <v>1.060435340145043</v>
+        <v>1.052613358438459</v>
       </c>
       <c r="N5">
-        <v>1.040783496608986</v>
+        <v>1.024803474323506</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03491606385354</v>
+        <v>1.004732654202062</v>
       </c>
       <c r="D6">
-        <v>1.050978366285047</v>
+        <v>1.048575100938565</v>
       </c>
       <c r="E6">
-        <v>1.044923001141246</v>
+        <v>1.023573482981718</v>
       </c>
       <c r="F6">
-        <v>1.058095524759334</v>
+        <v>1.043398466701979</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041942663606329</v>
+        <v>1.0614159548527</v>
       </c>
       <c r="J6">
-        <v>1.039339529611255</v>
+        <v>1.023488200293248</v>
       </c>
       <c r="K6">
-        <v>1.053365501742005</v>
+        <v>1.057874387383274</v>
       </c>
       <c r="L6">
-        <v>1.047324695940464</v>
+        <v>1.033141254035122</v>
       </c>
       <c r="M6">
-        <v>1.060465776599052</v>
+        <v>1.052752051384747</v>
       </c>
       <c r="N6">
-        <v>1.040815510957214</v>
+        <v>1.024941670933402</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034583322282312</v>
+        <v>1.003220121575337</v>
       </c>
       <c r="D7">
-        <v>1.050782060112376</v>
+        <v>1.047625000793537</v>
       </c>
       <c r="E7">
-        <v>1.044643195457503</v>
+        <v>1.022351706735261</v>
       </c>
       <c r="F7">
-        <v>1.057827080252087</v>
+        <v>1.042182552536931</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041897071900932</v>
+        <v>1.061059810916622</v>
       </c>
       <c r="J7">
-        <v>1.039119688857729</v>
+        <v>1.022535752785753</v>
       </c>
       <c r="K7">
-        <v>1.053228528083368</v>
+        <v>1.057177882667333</v>
       </c>
       <c r="L7">
-        <v>1.047104812369507</v>
+        <v>1.032184734545363</v>
       </c>
       <c r="M7">
-        <v>1.060256396084045</v>
+        <v>1.051794352947067</v>
       </c>
       <c r="N7">
-        <v>1.040595358004601</v>
+        <v>1.0239878708412</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033193257882113</v>
+        <v>0.9967616718050487</v>
       </c>
       <c r="D8">
-        <v>1.049959236630396</v>
+        <v>1.043556613417106</v>
       </c>
       <c r="E8">
-        <v>1.043474291765348</v>
+        <v>1.017142815271818</v>
       </c>
       <c r="F8">
-        <v>1.056704004867245</v>
+        <v>1.036987616550803</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041702031175077</v>
+        <v>1.059502671270837</v>
       </c>
       <c r="J8">
-        <v>1.038200390002375</v>
+        <v>1.018464229932315</v>
       </c>
       <c r="K8">
-        <v>1.052652308139101</v>
+        <v>1.054177216576097</v>
       </c>
       <c r="L8">
-        <v>1.046185085311781</v>
+        <v>1.02809547708122</v>
       </c>
       <c r="M8">
-        <v>1.059378893937496</v>
+        <v>1.047688833470033</v>
       </c>
       <c r="N8">
-        <v>1.039674753639428</v>
+        <v>1.019910565958299</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030746592271951</v>
+        <v>0.9848222365600272</v>
       </c>
       <c r="D9">
-        <v>1.048500777435971</v>
+        <v>1.036000398924677</v>
       </c>
       <c r="E9">
-        <v>1.041417005528034</v>
+        <v>1.007549242322612</v>
       </c>
       <c r="F9">
-        <v>1.054721246979802</v>
+        <v>1.02737969378783</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041341536082882</v>
+        <v>1.056489963340038</v>
       </c>
       <c r="J9">
-        <v>1.036578994807443</v>
+        <v>1.010922585280346</v>
       </c>
       <c r="K9">
-        <v>1.051623108156873</v>
+        <v>1.048535200835815</v>
       </c>
       <c r="L9">
-        <v>1.044562013009258</v>
+        <v>1.020521014331245</v>
       </c>
       <c r="M9">
-        <v>1.057823939183687</v>
+        <v>1.040043641514974</v>
       </c>
       <c r="N9">
-        <v>1.038051055877342</v>
+        <v>1.012358211305886</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029117375850761</v>
+        <v>0.976440553996524</v>
       </c>
       <c r="D10">
-        <v>1.047522831413348</v>
+        <v>1.030681020772704</v>
       </c>
       <c r="E10">
-        <v>1.040047199412959</v>
+        <v>1.000843770494353</v>
       </c>
       <c r="F10">
-        <v>1.053396965355843</v>
+        <v>1.02063933096291</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041089957395523</v>
+        <v>1.054289860398798</v>
       </c>
       <c r="J10">
-        <v>1.035497104737656</v>
+        <v>1.005621123574474</v>
       </c>
       <c r="K10">
-        <v>1.050927759212578</v>
+        <v>1.044517568220934</v>
       </c>
       <c r="L10">
-        <v>1.043478399869874</v>
+        <v>1.01519780709781</v>
       </c>
       <c r="M10">
-        <v>1.05678153682409</v>
+        <v>1.034645673823392</v>
       </c>
       <c r="N10">
-        <v>1.036967629399562</v>
+        <v>1.007049220916305</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028412357032458</v>
+        <v>0.9726997194456206</v>
       </c>
       <c r="D11">
-        <v>1.047098053087122</v>
+        <v>1.028305562465897</v>
       </c>
       <c r="E11">
-        <v>1.039454476986269</v>
+        <v>0.9978592356745362</v>
       </c>
       <c r="F11">
-        <v>1.052822973915772</v>
+        <v>1.017633900120232</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04097836368793</v>
+        <v>1.053289074063909</v>
       </c>
       <c r="J11">
-        <v>1.035028412515204</v>
+        <v>1.00325403818085</v>
       </c>
       <c r="K11">
-        <v>1.050624496090768</v>
+        <v>1.042712715896838</v>
       </c>
       <c r="L11">
-        <v>1.043008821285832</v>
+        <v>1.012821636913046</v>
       </c>
       <c r="M11">
-        <v>1.056328812165794</v>
+        <v>1.032230756559742</v>
       </c>
       <c r="N11">
-        <v>1.036498271580394</v>
+        <v>1.004678773989913</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02815054809265</v>
+        <v>0.9712923957586863</v>
       </c>
       <c r="D12">
-        <v>1.046940074616499</v>
+        <v>1.027411890055286</v>
       </c>
       <c r="E12">
-        <v>1.039234376321035</v>
+        <v>0.996737777423409</v>
       </c>
       <c r="F12">
-        <v>1.052609683745789</v>
+        <v>1.016503831757793</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040936514211476</v>
+        <v>1.052909859523549</v>
       </c>
       <c r="J12">
-        <v>1.034854285692063</v>
+        <v>1.002363441908338</v>
       </c>
       <c r="K12">
-        <v>1.050511525537201</v>
+        <v>1.042032113225978</v>
       </c>
       <c r="L12">
-        <v>1.042834344421118</v>
+        <v>1.011927744482808</v>
       </c>
       <c r="M12">
-        <v>1.056160447213367</v>
+        <v>1.031321530676387</v>
       </c>
       <c r="N12">
-        <v>1.036323897477191</v>
+        <v>1.003786912968541</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028206703993406</v>
+        <v>0.971595095379857</v>
       </c>
       <c r="D13">
-        <v>1.046973970418531</v>
+        <v>1.027604106300369</v>
       </c>
       <c r="E13">
-        <v>1.039281585804088</v>
+        <v>0.9969789281458689</v>
       </c>
       <c r="F13">
-        <v>1.052655439001108</v>
+        <v>1.016746867400836</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040945509091192</v>
+        <v>1.052991544897785</v>
       </c>
       <c r="J13">
-        <v>1.03489163800377</v>
+        <v>1.002555002014423</v>
       </c>
       <c r="K13">
-        <v>1.050535772797109</v>
+        <v>1.042178573236404</v>
       </c>
       <c r="L13">
-        <v>1.042871772755279</v>
+        <v>1.012120007589512</v>
       </c>
       <c r="M13">
-        <v>1.056196571229346</v>
+        <v>1.031517125153283</v>
       </c>
       <c r="N13">
-        <v>1.036361302833466</v>
+        <v>1.003978745111948</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028390714468819</v>
+        <v>0.9725837593911203</v>
       </c>
       <c r="D14">
-        <v>1.047084998544621</v>
+        <v>1.028231925103171</v>
       </c>
       <c r="E14">
-        <v>1.039436282109987</v>
+        <v>0.9977668023266096</v>
       </c>
       <c r="F14">
-        <v>1.052805344994058</v>
+        <v>1.017540772232862</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040974912523974</v>
+        <v>1.053257882115129</v>
       </c>
       <c r="J14">
-        <v>1.035014019822142</v>
+        <v>1.003180656560516</v>
       </c>
       <c r="K14">
-        <v>1.050615164534857</v>
+        <v>1.042656667601281</v>
       </c>
       <c r="L14">
-        <v>1.042994400081165</v>
+        <v>1.012747981057384</v>
       </c>
       <c r="M14">
-        <v>1.056314899198202</v>
+        <v>1.032155852328857</v>
       </c>
       <c r="N14">
-        <v>1.036483858448057</v>
+        <v>1.004605288159262</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028504098197965</v>
+        <v>0.9731905146877621</v>
       </c>
       <c r="D15">
-        <v>1.047153380596046</v>
+        <v>1.028617229713809</v>
       </c>
       <c r="E15">
-        <v>1.039531603960855</v>
+        <v>0.9982505106013939</v>
       </c>
       <c r="F15">
-        <v>1.052897695904932</v>
+        <v>1.018028084448807</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040992976154123</v>
+        <v>1.053420982654467</v>
       </c>
       <c r="J15">
-        <v>1.035089418850553</v>
+        <v>1.003564619211198</v>
       </c>
       <c r="K15">
-        <v>1.050664037359536</v>
+        <v>1.042949873049984</v>
       </c>
       <c r="L15">
-        <v>1.043069947625561</v>
+        <v>1.013133383758025</v>
       </c>
       <c r="M15">
-        <v>1.056387778117346</v>
+        <v>1.032547756581535</v>
       </c>
       <c r="N15">
-        <v>1.036559364551737</v>
+        <v>1.004989796080948</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029164174948516</v>
+        <v>0.9766863830626391</v>
       </c>
       <c r="D16">
-        <v>1.047550994853063</v>
+        <v>1.030837111811016</v>
       </c>
       <c r="E16">
-        <v>1.040086545214257</v>
+        <v>1.001040078939815</v>
       </c>
       <c r="F16">
-        <v>1.053435047401878</v>
+        <v>1.020836906011071</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041097307559982</v>
+        <v>1.054355244608859</v>
       </c>
       <c r="J16">
-        <v>1.035528205554573</v>
+        <v>1.005776661387326</v>
       </c>
       <c r="K16">
-        <v>1.050947840124074</v>
+        <v>1.044635942851013</v>
       </c>
       <c r="L16">
-        <v>1.043509556579252</v>
+        <v>1.015353957189284</v>
       </c>
       <c r="M16">
-        <v>1.05681155416074</v>
+        <v>1.034804262492799</v>
       </c>
       <c r="N16">
-        <v>1.036998774383206</v>
+        <v>1.007204979610692</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029578342119964</v>
+        <v>0.9788486734584662</v>
       </c>
       <c r="D17">
-        <v>1.047800055183062</v>
+        <v>1.032209942084602</v>
       </c>
       <c r="E17">
-        <v>1.040434756275619</v>
+        <v>1.002767734158765</v>
       </c>
       <c r="F17">
-        <v>1.053771962418651</v>
+        <v>1.022575102810032</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04116204071421</v>
+        <v>1.054928228492377</v>
       </c>
       <c r="J17">
-        <v>1.035803384451013</v>
+        <v>1.007144653205879</v>
       </c>
       <c r="K17">
-        <v>1.051125281369244</v>
+        <v>1.045675839064949</v>
       </c>
       <c r="L17">
-        <v>1.043785213887395</v>
+        <v>1.016727408379581</v>
       </c>
       <c r="M17">
-        <v>1.057077015001495</v>
+        <v>1.036198557508149</v>
       </c>
       <c r="N17">
-        <v>1.037274344065243</v>
+        <v>1.008574914134537</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029819961536754</v>
+        <v>0.9800992174735598</v>
       </c>
       <c r="D18">
-        <v>1.04794520027152</v>
+        <v>1.033003765522114</v>
       </c>
       <c r="E18">
-        <v>1.040637901656428</v>
+        <v>1.003767678579644</v>
       </c>
       <c r="F18">
-        <v>1.053968424287321</v>
+        <v>1.023580635938374</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041199541910394</v>
+        <v>1.055257814380327</v>
       </c>
       <c r="J18">
-        <v>1.035963869747878</v>
+        <v>1.007935722958955</v>
       </c>
       <c r="K18">
-        <v>1.051228570153091</v>
+        <v>1.046276131918372</v>
       </c>
       <c r="L18">
-        <v>1.043945964682909</v>
+        <v>1.017521692364839</v>
       </c>
       <c r="M18">
-        <v>1.057231722760912</v>
+        <v>1.037004382983317</v>
       </c>
       <c r="N18">
-        <v>1.037435057269636</v>
+        <v>1.009367107297399</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02990235476059</v>
+        <v>0.980523839344978</v>
       </c>
       <c r="D19">
-        <v>1.047994669305206</v>
+        <v>1.033273278306048</v>
       </c>
       <c r="E19">
-        <v>1.04070717569994</v>
+        <v>1.00410733656688</v>
       </c>
       <c r="F19">
-        <v>1.054035403346812</v>
+        <v>1.02392210394016</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041212285308037</v>
+        <v>1.055369417227653</v>
       </c>
       <c r="J19">
-        <v>1.036018587360534</v>
+        <v>1.008204312062363</v>
       </c>
       <c r="K19">
-        <v>1.051263753353203</v>
+        <v>1.046479766136181</v>
       </c>
       <c r="L19">
-        <v>1.044000770517184</v>
+        <v>1.017791381684298</v>
       </c>
       <c r="M19">
-        <v>1.057284451845515</v>
+        <v>1.03727790263192</v>
       </c>
       <c r="N19">
-        <v>1.037489852587579</v>
+        <v>1.009636077828142</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029533901484431</v>
+        <v>0.9786177925738287</v>
       </c>
       <c r="D20">
-        <v>1.047773346552022</v>
+        <v>1.032063370088697</v>
       </c>
       <c r="E20">
-        <v>1.040397392405465</v>
+        <v>1.002583181415495</v>
       </c>
       <c r="F20">
-        <v>1.053735820301505</v>
+        <v>1.022389476835696</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041155121990481</v>
+        <v>1.054867232954136</v>
       </c>
       <c r="J20">
-        <v>1.03577386262175</v>
+        <v>1.006998594117343</v>
       </c>
       <c r="K20">
-        <v>1.051106265283213</v>
+        <v>1.045564918488298</v>
       </c>
       <c r="L20">
-        <v>1.043755642128789</v>
+        <v>1.016580760265042</v>
       </c>
       <c r="M20">
-        <v>1.057048547113434</v>
+        <v>1.036049736687343</v>
       </c>
       <c r="N20">
-        <v>1.037244780311595</v>
+        <v>1.008428647625343</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>1.02833652613657</v>
+        <v>0.9722931230801131</v>
       </c>
       <c r="D21">
-        <v>1.047052308950956</v>
+        <v>1.028047364705692</v>
       </c>
       <c r="E21">
-        <v>1.039390726162358</v>
+        <v>0.997535154128272</v>
       </c>
       <c r="F21">
-        <v>1.052761203729528</v>
+        <v>1.017307371394461</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040966264942943</v>
+        <v>1.05317966095027</v>
       </c>
       <c r="J21">
-        <v>1.034977982353046</v>
+        <v>1.0029967354977</v>
       </c>
       <c r="K21">
-        <v>1.050591794611966</v>
+        <v>1.042516165712414</v>
       </c>
       <c r="L21">
-        <v>1.042958290888496</v>
+        <v>1.012563374722946</v>
       </c>
       <c r="M21">
-        <v>1.056280060151683</v>
+        <v>1.031968105128084</v>
       </c>
       <c r="N21">
-        <v>1.036447769801621</v>
+        <v>1.00442110590744</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027584073103969</v>
+        <v>0.9682129149081191</v>
       </c>
       <c r="D22">
-        <v>1.046597825651915</v>
+        <v>1.025456574605743</v>
       </c>
       <c r="E22">
-        <v>1.038758159094456</v>
+        <v>0.9942864177981523</v>
       </c>
       <c r="F22">
-        <v>1.052147937111072</v>
+        <v>1.014032312745073</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040845217205988</v>
+        <v>1.052075216132444</v>
       </c>
       <c r="J22">
-        <v>1.034477386266888</v>
+        <v>1.000414571531719</v>
       </c>
       <c r="K22">
-        <v>1.050266446005723</v>
+        <v>1.040540055485736</v>
       </c>
       <c r="L22">
-        <v>1.042456649688177</v>
+        <v>1.0099719180029</v>
       </c>
       <c r="M22">
-        <v>1.055795708766594</v>
+        <v>1.029330819644948</v>
       </c>
       <c r="N22">
-        <v>1.035946462811601</v>
+        <v>1.00183527497245</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027982926280147</v>
+        <v>0.9703861100243355</v>
       </c>
       <c r="D23">
-        <v>1.04683886321505</v>
+        <v>1.026836406520803</v>
       </c>
       <c r="E23">
-        <v>1.039093460089332</v>
+        <v>0.9960159751485875</v>
       </c>
       <c r="F23">
-        <v>1.052473087046983</v>
+        <v>1.01577628034352</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040909605201702</v>
+        <v>1.052664904695842</v>
       </c>
       <c r="J23">
-        <v>1.034742780036692</v>
+        <v>1.00178990161817</v>
       </c>
       <c r="K23">
-        <v>1.050439097289616</v>
+        <v>1.041593387557002</v>
       </c>
       <c r="L23">
-        <v>1.04272260880379</v>
+        <v>1.011352119495584</v>
       </c>
       <c r="M23">
-        <v>1.056052583435183</v>
+        <v>1.030735824800463</v>
       </c>
       <c r="N23">
-        <v>1.036212233471</v>
+        <v>1.003212558185376</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029553982162563</v>
+        <v>0.9787221506446249</v>
       </c>
       <c r="D24">
-        <v>1.047785415427068</v>
+        <v>1.032129621030459</v>
       </c>
       <c r="E24">
-        <v>1.040414275407227</v>
+        <v>1.002666596809751</v>
       </c>
       <c r="F24">
-        <v>1.053752151538381</v>
+        <v>1.022473378909097</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041158249056679</v>
+        <v>1.054894808489677</v>
       </c>
       <c r="J24">
-        <v>1.035787202333248</v>
+        <v>1.007064613077053</v>
       </c>
       <c r="K24">
-        <v>1.051114858481933</v>
+        <v>1.04561505804118</v>
       </c>
       <c r="L24">
-        <v>1.043769004443112</v>
+        <v>1.016647045290108</v>
       </c>
       <c r="M24">
-        <v>1.057061410931632</v>
+        <v>1.036117005370867</v>
       </c>
       <c r="N24">
-        <v>1.037258138967013</v>
+        <v>1.008494760339548</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031378780712415</v>
+        <v>0.9879796542369992</v>
       </c>
       <c r="D25">
-        <v>1.048878825510496</v>
+        <v>1.038001878152881</v>
       </c>
       <c r="E25">
-        <v>1.04194856461715</v>
+        <v>1.010081616246477</v>
       </c>
       <c r="F25">
-        <v>1.055234273970026</v>
+        <v>1.029920308949496</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041436719144424</v>
+        <v>1.057301750916053</v>
       </c>
       <c r="J25">
-        <v>1.036998335743581</v>
+        <v>1.012918434895126</v>
       </c>
       <c r="K25">
-        <v>1.051890811184859</v>
+        <v>1.050037575799959</v>
       </c>
       <c r="L25">
-        <v>1.044981895261512</v>
+        <v>1.022525418348502</v>
       </c>
       <c r="M25">
-        <v>1.058226953799151</v>
+        <v>1.042071250534695</v>
       </c>
       <c r="N25">
-        <v>1.038470992325708</v>
+        <v>1.014356895256046</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9950626677235116</v>
+        <v>1.006591502407914</v>
       </c>
       <c r="D2">
-        <v>1.042483709448864</v>
+        <v>1.039249835981759</v>
       </c>
       <c r="E2">
-        <v>1.015774741604714</v>
+        <v>1.022025812641717</v>
       </c>
       <c r="F2">
-        <v>1.03562046351604</v>
+        <v>1.032745516954824</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059083927851264</v>
+        <v>1.053783328952446</v>
       </c>
       <c r="J2">
-        <v>1.017392063121349</v>
+        <v>1.028576834420935</v>
       </c>
       <c r="K2">
-        <v>1.053381283748708</v>
+        <v>1.050188155180038</v>
       </c>
       <c r="L2">
-        <v>1.027018598106971</v>
+        <v>1.033186589755333</v>
       </c>
       <c r="M2">
-        <v>1.04660488923596</v>
+        <v>1.043766752759186</v>
       </c>
       <c r="N2">
-        <v>1.018836876547482</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013429816557559</v>
+      </c>
+      <c r="O2">
+        <v>1.029999999999999</v>
+      </c>
+      <c r="P2">
+        <v>1.04321083457457</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.046557615578024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000046564633888</v>
+        <v>1.01004789295253</v>
       </c>
       <c r="D3">
-        <v>1.045628034125022</v>
+        <v>1.040998536150944</v>
       </c>
       <c r="E3">
-        <v>1.019790512473631</v>
+        <v>1.0247013369354</v>
       </c>
       <c r="F3">
-        <v>1.03963037161857</v>
+        <v>1.035365980764423</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.06030177701685</v>
+        <v>1.054535770148853</v>
       </c>
       <c r="J3">
-        <v>1.020535960330937</v>
+        <v>1.030268340318293</v>
       </c>
       <c r="K3">
-        <v>1.055708575096822</v>
+        <v>1.051132389771366</v>
       </c>
       <c r="L3">
-        <v>1.030176280490998</v>
+        <v>1.035027621602189</v>
       </c>
       <c r="M3">
-        <v>1.04978009317902</v>
+        <v>1.045565493570193</v>
       </c>
       <c r="N3">
-        <v>1.021985238451718</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013998811812707</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.044634410607262</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.047222617308509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,81 +539,105 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003202543585505</v>
+        <v>1.012246404864553</v>
       </c>
       <c r="D4">
-        <v>1.04761395252826</v>
+        <v>1.042115761405369</v>
       </c>
       <c r="E4">
-        <v>1.022337511926215</v>
+        <v>1.026409060078064</v>
       </c>
       <c r="F4">
-        <v>1.04216841975362</v>
+        <v>1.037039581674802</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061055651996073</v>
+        <v>1.05500528574626</v>
       </c>
       <c r="J4">
-        <v>1.022524681235447</v>
+        <v>1.031341950655466</v>
       </c>
       <c r="K4">
-        <v>1.057169773458096</v>
+        <v>1.051731129557675</v>
       </c>
       <c r="L4">
-        <v>1.03217361542755</v>
+        <v>1.036198866127482</v>
       </c>
       <c r="M4">
-        <v>1.051783213941451</v>
+        <v>1.046710615334009</v>
       </c>
       <c r="N4">
-        <v>1.023976783568022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014359962932245</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.045540691985088</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.047646853381819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>1.004513457853607</v>
+        <v>1.013162236788304</v>
       </c>
       <c r="D5">
-        <v>1.048437483485209</v>
+        <v>1.042587540669935</v>
       </c>
       <c r="E5">
-        <v>1.023396379594558</v>
+        <v>1.027121941629969</v>
       </c>
       <c r="F5">
-        <v>1.043222277861139</v>
+        <v>1.037738308832287</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061364555087485</v>
+        <v>1.055200263471676</v>
       </c>
       <c r="J5">
-        <v>1.02335019966008</v>
+        <v>1.031788815960335</v>
       </c>
       <c r="K5">
-        <v>1.057773607069182</v>
+        <v>1.05198535593029</v>
       </c>
       <c r="L5">
-        <v>1.033002666011017</v>
+        <v>1.036687009069848</v>
       </c>
       <c r="M5">
-        <v>1.052613358438459</v>
+        <v>1.047187908486358</v>
       </c>
       <c r="N5">
-        <v>1.024803474323506</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014510528913958</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.045918434798889</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.047833703849484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004732654202062</v>
+        <v>1.013316013116951</v>
       </c>
       <c r="D6">
-        <v>1.048575100938565</v>
+        <v>1.042673193702726</v>
       </c>
       <c r="E6">
-        <v>1.023573482981718</v>
+        <v>1.027241857538423</v>
       </c>
       <c r="F6">
-        <v>1.043398466701979</v>
+        <v>1.037855673103538</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0614159548527</v>
+        <v>1.055234820981402</v>
       </c>
       <c r="J6">
-        <v>1.023488200293248</v>
+        <v>1.031864066228574</v>
       </c>
       <c r="K6">
-        <v>1.057874387383274</v>
+        <v>1.052034438513412</v>
       </c>
       <c r="L6">
-        <v>1.033141254035122</v>
+        <v>1.036769230543917</v>
       </c>
       <c r="M6">
-        <v>1.052752051384747</v>
+        <v>1.047268131954463</v>
       </c>
       <c r="N6">
-        <v>1.024941670933402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014536183233754</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.045981925819717</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.047877061915406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003220121575337</v>
+        <v>1.012260008584808</v>
       </c>
       <c r="D7">
-        <v>1.047625000793537</v>
+        <v>1.04213978792496</v>
       </c>
       <c r="E7">
-        <v>1.022351706735261</v>
+        <v>1.026420009374258</v>
       </c>
       <c r="F7">
-        <v>1.042182552536931</v>
+        <v>1.037049805869778</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061059810916622</v>
+        <v>1.055013352661085</v>
       </c>
       <c r="J7">
-        <v>1.022535752785753</v>
+        <v>1.031349239714626</v>
       </c>
       <c r="K7">
-        <v>1.057177882667333</v>
+        <v>1.051752054284148</v>
       </c>
       <c r="L7">
-        <v>1.032184734545363</v>
+        <v>1.036206793485458</v>
       </c>
       <c r="M7">
-        <v>1.051794352947067</v>
+        <v>1.046717868273578</v>
       </c>
       <c r="N7">
-        <v>1.0239878708412</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014363233140773</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.045546432160662</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.047681548762508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9967616718050487</v>
+        <v>1.007769025886791</v>
       </c>
       <c r="D8">
-        <v>1.043556613417106</v>
+        <v>1.039865344533161</v>
       </c>
       <c r="E8">
-        <v>1.017142815271818</v>
+        <v>1.022936515662255</v>
       </c>
       <c r="F8">
-        <v>1.036987616550803</v>
+        <v>1.033636586859835</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059502671270837</v>
+        <v>1.054047628626452</v>
       </c>
       <c r="J8">
-        <v>1.018464229932315</v>
+        <v>1.02915424067078</v>
       </c>
       <c r="K8">
-        <v>1.054177216576097</v>
+        <v>1.050531090455718</v>
       </c>
       <c r="L8">
-        <v>1.02809547708122</v>
+        <v>1.033814507903633</v>
       </c>
       <c r="M8">
-        <v>1.047688833470033</v>
+        <v>1.044379418836712</v>
       </c>
       <c r="N8">
-        <v>1.019910565958299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013625100158485</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.043695716720856</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.04682275356467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9848222365600272</v>
+        <v>0.9995510403451467</v>
       </c>
       <c r="D9">
-        <v>1.036000398924677</v>
+        <v>1.035717549184895</v>
       </c>
       <c r="E9">
-        <v>1.007549242322612</v>
+        <v>1.016609632414524</v>
       </c>
       <c r="F9">
-        <v>1.02737969378783</v>
+        <v>1.027446453841556</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056489963340038</v>
+        <v>1.052202442672713</v>
       </c>
       <c r="J9">
-        <v>1.010922585280346</v>
+        <v>1.025119662502296</v>
       </c>
       <c r="K9">
-        <v>1.048535200835815</v>
+        <v>1.048256545076142</v>
       </c>
       <c r="L9">
-        <v>1.020521014331245</v>
+        <v>1.029438857563746</v>
       </c>
       <c r="M9">
-        <v>1.040043641514974</v>
+        <v>1.040109390836245</v>
       </c>
       <c r="N9">
-        <v>1.012358211305886</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012267098128925</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.04031628288897</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.045211403043659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.976440553996524</v>
+        <v>0.9939083573483922</v>
       </c>
       <c r="D10">
-        <v>1.030681020772704</v>
+        <v>1.032895722292767</v>
       </c>
       <c r="E10">
-        <v>1.000843770494353</v>
+        <v>1.012333342852175</v>
       </c>
       <c r="F10">
-        <v>1.02063933096291</v>
+        <v>1.023315732917471</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054289860398798</v>
+        <v>1.050905478128997</v>
       </c>
       <c r="J10">
-        <v>1.005621123574474</v>
+        <v>1.022365766510372</v>
       </c>
       <c r="K10">
-        <v>1.044517568220934</v>
+        <v>1.046695393446811</v>
       </c>
       <c r="L10">
-        <v>1.01519780709781</v>
+        <v>1.026483429199626</v>
       </c>
       <c r="M10">
-        <v>1.034645673823392</v>
+        <v>1.03727639980023</v>
       </c>
       <c r="N10">
-        <v>1.007049220916305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011344652749259</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.038125616765886</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.044124221806203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9726997194456206</v>
+        <v>0.9918605193795902</v>
       </c>
       <c r="D11">
-        <v>1.028305562465897</v>
+        <v>1.031817133358487</v>
       </c>
       <c r="E11">
-        <v>0.9978592356745362</v>
+        <v>1.011057305227839</v>
       </c>
       <c r="F11">
-        <v>1.017633900120232</v>
+        <v>1.022465634878097</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053289074063909</v>
+        <v>1.050537116998877</v>
       </c>
       <c r="J11">
-        <v>1.00325403818085</v>
+        <v>1.021575874834032</v>
       </c>
       <c r="K11">
-        <v>1.042712715896838</v>
+        <v>1.04616297464378</v>
       </c>
       <c r="L11">
-        <v>1.012821636913046</v>
+        <v>1.025773666731326</v>
       </c>
       <c r="M11">
-        <v>1.032230756559742</v>
+        <v>1.036975964064586</v>
       </c>
       <c r="N11">
-        <v>1.004678773989913</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011115406923558</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.038324141363993</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.043780249303776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9712923957586863</v>
+        <v>0.9912600292668912</v>
       </c>
       <c r="D12">
-        <v>1.027411890055286</v>
+        <v>1.031452954554841</v>
       </c>
       <c r="E12">
-        <v>0.996737777423409</v>
+        <v>1.010801597536483</v>
       </c>
       <c r="F12">
-        <v>1.016503831757793</v>
+        <v>1.022500007611363</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052909859523549</v>
+        <v>1.050472312081707</v>
       </c>
       <c r="J12">
-        <v>1.002363441908338</v>
+        <v>1.021438942227637</v>
       </c>
       <c r="K12">
-        <v>1.042032113225978</v>
+        <v>1.046001394764686</v>
       </c>
       <c r="L12">
-        <v>1.011927744482808</v>
+        <v>1.025724741145017</v>
       </c>
       <c r="M12">
-        <v>1.031321530676387</v>
+        <v>1.037208475778018</v>
       </c>
       <c r="N12">
-        <v>1.003786912968541</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011097268758837</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.038834425748763</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.043666009587707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.971595095379857</v>
+        <v>0.9917354009346421</v>
       </c>
       <c r="D13">
-        <v>1.027604106300369</v>
+        <v>1.031633345482175</v>
       </c>
       <c r="E13">
-        <v>0.9969789281458689</v>
+        <v>1.011317640083853</v>
       </c>
       <c r="F13">
-        <v>1.016746867400836</v>
+        <v>1.023230217273342</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052991544897785</v>
+        <v>1.050647133609155</v>
       </c>
       <c r="J13">
-        <v>1.002555002014423</v>
+        <v>1.02179978199043</v>
       </c>
       <c r="K13">
-        <v>1.042178573236404</v>
+        <v>1.046136511499305</v>
       </c>
       <c r="L13">
-        <v>1.012120007589512</v>
+        <v>1.026187860340399</v>
       </c>
       <c r="M13">
-        <v>1.031517125153283</v>
+        <v>1.037882910009653</v>
       </c>
       <c r="N13">
-        <v>1.003978745111948</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011242952614406</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.039644292781591</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.043759075653863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9725837593911203</v>
+        <v>0.992553380463468</v>
       </c>
       <c r="D14">
-        <v>1.028231925103171</v>
+        <v>1.032009611111689</v>
       </c>
       <c r="E14">
-        <v>0.9977668023266096</v>
+        <v>1.012025340432704</v>
       </c>
       <c r="F14">
-        <v>1.017540772232862</v>
+        <v>1.024053358598471</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053257882115129</v>
+        <v>1.050877680131551</v>
       </c>
       <c r="J14">
-        <v>1.003180656560516</v>
+        <v>1.022275364690847</v>
       </c>
       <c r="K14">
-        <v>1.042656667601281</v>
+        <v>1.046368319074394</v>
       </c>
       <c r="L14">
-        <v>1.012747981057384</v>
+        <v>1.026740660861625</v>
       </c>
       <c r="M14">
-        <v>1.032155852328857</v>
+        <v>1.038551879419829</v>
       </c>
       <c r="N14">
-        <v>1.004605288159262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011418357821684</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.040346355695408</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.043924375741016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9731905146877621</v>
+        <v>0.9929896615047421</v>
       </c>
       <c r="D15">
-        <v>1.028617229713809</v>
+        <v>1.03222589103674</v>
       </c>
       <c r="E15">
-        <v>0.9982505106013939</v>
+        <v>1.012372964037602</v>
       </c>
       <c r="F15">
-        <v>1.018028084448807</v>
+        <v>1.02441951758958</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053420982654467</v>
+        <v>1.0509894766592</v>
       </c>
       <c r="J15">
-        <v>1.003564619211198</v>
+        <v>1.022504141384996</v>
       </c>
       <c r="K15">
-        <v>1.042949873049984</v>
+        <v>1.046495931026912</v>
       </c>
       <c r="L15">
-        <v>1.013133383758025</v>
+        <v>1.026994603718355</v>
       </c>
       <c r="M15">
-        <v>1.032547756581535</v>
+        <v>1.038825702560857</v>
       </c>
       <c r="N15">
-        <v>1.004989796080948</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011498637718805</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040600305214921</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.044020403376856</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9766863830626391</v>
+        <v>0.9952835229229103</v>
       </c>
       <c r="D16">
-        <v>1.030837111811016</v>
+        <v>1.033387448074454</v>
       </c>
       <c r="E16">
-        <v>1.001040078939815</v>
+        <v>1.014085985655179</v>
       </c>
       <c r="F16">
-        <v>1.020836906011071</v>
+        <v>1.026057428723983</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054355244608859</v>
+        <v>1.051520508875466</v>
       </c>
       <c r="J16">
-        <v>1.005776661387326</v>
+        <v>1.023608138440703</v>
       </c>
       <c r="K16">
-        <v>1.044635942851013</v>
+        <v>1.047143972167895</v>
       </c>
       <c r="L16">
-        <v>1.015353957189284</v>
+        <v>1.028169542112664</v>
       </c>
       <c r="M16">
-        <v>1.034804262492799</v>
+        <v>1.039936279361197</v>
       </c>
       <c r="N16">
-        <v>1.007204979610692</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011863993736248</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.041439405382214</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.044481716527192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9788486734584662</v>
+        <v>0.9966165236291746</v>
       </c>
       <c r="D17">
-        <v>1.032209942084602</v>
+        <v>1.034084327518877</v>
       </c>
       <c r="E17">
-        <v>1.002767734158765</v>
+        <v>1.015030726465277</v>
       </c>
       <c r="F17">
-        <v>1.022575102810032</v>
+        <v>1.026878529574934</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054928228492377</v>
+        <v>1.051804938166574</v>
       </c>
       <c r="J17">
-        <v>1.007144653205879</v>
+        <v>1.02420534765403</v>
       </c>
       <c r="K17">
-        <v>1.045675839064949</v>
+        <v>1.047520010515263</v>
       </c>
       <c r="L17">
-        <v>1.016727408379581</v>
+        <v>1.028780247100519</v>
       </c>
       <c r="M17">
-        <v>1.036198557508149</v>
+        <v>1.040431140993981</v>
       </c>
       <c r="N17">
-        <v>1.008574914134537</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012052118828975</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041701591973116</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.044750145889808</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9800992174735598</v>
+        <v>0.9972391041574752</v>
       </c>
       <c r="D18">
-        <v>1.033003765522114</v>
+        <v>1.034432105568018</v>
       </c>
       <c r="E18">
-        <v>1.003767678579644</v>
+        <v>1.015377194583291</v>
       </c>
       <c r="F18">
-        <v>1.023580635938374</v>
+        <v>1.027025749232114</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055257814380327</v>
+        <v>1.051895337629094</v>
       </c>
       <c r="J18">
-        <v>1.007935722958955</v>
+        <v>1.024406822110408</v>
       </c>
       <c r="K18">
-        <v>1.046276131918372</v>
+        <v>1.047681834217578</v>
       </c>
       <c r="L18">
-        <v>1.017521692364839</v>
+        <v>1.028935673587619</v>
       </c>
       <c r="M18">
-        <v>1.037004382983317</v>
+        <v>1.040393737858179</v>
       </c>
       <c r="N18">
-        <v>1.009367107297399</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012098770011316</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041434472670476</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.044853053032697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.980523839344978</v>
+        <v>0.9972103491962996</v>
       </c>
       <c r="D19">
-        <v>1.033273278306048</v>
+        <v>1.034484086696233</v>
       </c>
       <c r="E19">
-        <v>1.00410733656688</v>
+        <v>1.015169877525663</v>
       </c>
       <c r="F19">
-        <v>1.02392210394016</v>
+        <v>1.026547728776975</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055369417227653</v>
+        <v>1.051814898503341</v>
       </c>
       <c r="J19">
-        <v>1.008204312062363</v>
+        <v>1.024243915768063</v>
       </c>
       <c r="K19">
-        <v>1.046479766136181</v>
+        <v>1.047671494073611</v>
       </c>
       <c r="L19">
-        <v>1.017791381684298</v>
+        <v>1.028668630242233</v>
       </c>
       <c r="M19">
-        <v>1.03727790263192</v>
+        <v>1.039861251649727</v>
       </c>
       <c r="N19">
-        <v>1.009636077828142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012018072985718</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.040688099733745</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.044852064615181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,81 +1387,105 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9786177925738287</v>
+        <v>0.9953722068474533</v>
       </c>
       <c r="D20">
-        <v>1.032063370088697</v>
+        <v>1.03366568761006</v>
       </c>
       <c r="E20">
-        <v>1.002583181415495</v>
+        <v>1.013442587291762</v>
       </c>
       <c r="F20">
-        <v>1.022389476835696</v>
+        <v>1.024387662333553</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054867232954136</v>
+        <v>1.051256358527467</v>
       </c>
       <c r="J20">
-        <v>1.006998594117343</v>
+        <v>1.023082695171167</v>
       </c>
       <c r="K20">
-        <v>1.045564918488298</v>
+        <v>1.047141316213611</v>
       </c>
       <c r="L20">
-        <v>1.016580760265042</v>
+        <v>1.0272531128357</v>
       </c>
       <c r="M20">
-        <v>1.036049736687343</v>
+        <v>1.038014823524674</v>
       </c>
       <c r="N20">
-        <v>1.008428647625343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011587308657838</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.038699447982753</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.044481085068203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9722931230801131</v>
+        <v>0.9910552727751546</v>
       </c>
       <c r="D21">
-        <v>1.028047364705692</v>
+        <v>1.031522123165015</v>
       </c>
       <c r="E21">
-        <v>0.997535154128272</v>
+        <v>1.010131481439943</v>
       </c>
       <c r="F21">
-        <v>1.017307371394461</v>
+        <v>1.021117080383519</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05317966095027</v>
+        <v>1.050225011445014</v>
       </c>
       <c r="J21">
-        <v>1.0029967354977</v>
+        <v>1.020931788854473</v>
       </c>
       <c r="K21">
-        <v>1.042516165712414</v>
+        <v>1.045929935654514</v>
       </c>
       <c r="L21">
-        <v>1.012563374722946</v>
+        <v>1.024923418832746</v>
       </c>
       <c r="M21">
-        <v>1.031968105128084</v>
+        <v>1.035709131113631</v>
       </c>
       <c r="N21">
-        <v>1.00442110590744</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010860220735747</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.036833763005228</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.043627790547161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9682129149081191</v>
+        <v>0.9883172801168346</v>
       </c>
       <c r="D22">
-        <v>1.025456574605743</v>
+        <v>1.030149567513169</v>
       </c>
       <c r="E22">
-        <v>0.9942864177981523</v>
+        <v>1.008055788268815</v>
       </c>
       <c r="F22">
-        <v>1.014032312745073</v>
+        <v>1.019092496934638</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052075216132444</v>
+        <v>1.04956500203195</v>
       </c>
       <c r="J22">
-        <v>1.000414571531719</v>
+        <v>1.019578943614636</v>
       </c>
       <c r="K22">
-        <v>1.040540055485736</v>
+        <v>1.045146517193766</v>
       </c>
       <c r="L22">
-        <v>1.0099719180029</v>
+        <v>1.023469329990125</v>
       </c>
       <c r="M22">
-        <v>1.029330819644948</v>
+        <v>1.034294984597059</v>
       </c>
       <c r="N22">
-        <v>1.00183527497245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010403945902229</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.035714554240377</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.043060539388643</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9703861100243355</v>
+        <v>0.9897734097030207</v>
       </c>
       <c r="D23">
-        <v>1.026836406520803</v>
+        <v>1.030864462937514</v>
       </c>
       <c r="E23">
-        <v>0.9960159751485875</v>
+        <v>1.009158598176743</v>
       </c>
       <c r="F23">
-        <v>1.01577628034352</v>
+        <v>1.02016863788545</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052664904695842</v>
+        <v>1.049913247758582</v>
       </c>
       <c r="J23">
-        <v>1.00178990161817</v>
+        <v>1.020298414213054</v>
       </c>
       <c r="K23">
-        <v>1.041593387557002</v>
+        <v>1.045549073293447</v>
       </c>
       <c r="L23">
-        <v>1.011352119495584</v>
+        <v>1.024242118577895</v>
       </c>
       <c r="M23">
-        <v>1.030735824800463</v>
+        <v>1.035047052519312</v>
       </c>
       <c r="N23">
-        <v>1.003212558185376</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.01064571205434</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.036309769312635</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.043335637495194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9787221506446249</v>
+        <v>0.9953982111585835</v>
       </c>
       <c r="D24">
-        <v>1.032129621030459</v>
+        <v>1.033662865397578</v>
       </c>
       <c r="E24">
-        <v>1.002666596809751</v>
+        <v>1.013435490195269</v>
       </c>
       <c r="F24">
-        <v>1.022473378909097</v>
+        <v>1.024343875433111</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054894808489677</v>
+        <v>1.051245886476186</v>
       </c>
       <c r="J24">
-        <v>1.007064613077053</v>
+        <v>1.023074561206741</v>
       </c>
       <c r="K24">
-        <v>1.04561505804118</v>
+        <v>1.047123533601792</v>
       </c>
       <c r="L24">
-        <v>1.016647045290108</v>
+        <v>1.027230701355664</v>
       </c>
       <c r="M24">
-        <v>1.036117005370867</v>
+        <v>1.03795655956686</v>
       </c>
       <c r="N24">
-        <v>1.008494760339548</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011580117512978</v>
+      </c>
+      <c r="O24">
+        <v>1.029999999999999</v>
+      </c>
+      <c r="P24">
+        <v>1.038612458828715</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.044441419953115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9879796542369992</v>
+        <v>1.00171442730118</v>
       </c>
       <c r="D25">
-        <v>1.038001878152881</v>
+        <v>1.036830098466524</v>
       </c>
       <c r="E25">
-        <v>1.010081616246477</v>
+        <v>1.018269921337748</v>
       </c>
       <c r="F25">
-        <v>1.029920308949496</v>
+        <v>1.029068927821308</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057301750916053</v>
+        <v>1.052703269838303</v>
       </c>
       <c r="J25">
-        <v>1.012918434895126</v>
+        <v>1.026184231561342</v>
       </c>
       <c r="K25">
-        <v>1.050037575799959</v>
+        <v>1.048882365004501</v>
       </c>
       <c r="L25">
-        <v>1.022525418348502</v>
+        <v>1.030591089286202</v>
       </c>
       <c r="M25">
-        <v>1.042071250534695</v>
+        <v>1.041232143706042</v>
       </c>
       <c r="N25">
-        <v>1.014356895256046</v>
+        <v>1.012626806481818</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.041204866186087</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.045682150899007</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006591502407914</v>
+        <v>1.006469829876017</v>
       </c>
       <c r="D2">
-        <v>1.039249835981759</v>
+        <v>1.036017392200629</v>
       </c>
       <c r="E2">
-        <v>1.022025812641717</v>
+        <v>1.021892636189968</v>
       </c>
       <c r="F2">
-        <v>1.032745516954824</v>
+        <v>1.03255219776679</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053783328952446</v>
+        <v>1.052573114731052</v>
       </c>
       <c r="J2">
-        <v>1.028576834420935</v>
+        <v>1.028458736569222</v>
       </c>
       <c r="K2">
-        <v>1.050188155180038</v>
+        <v>1.046996755797622</v>
       </c>
       <c r="L2">
-        <v>1.033186589755333</v>
+        <v>1.0330551699851</v>
       </c>
       <c r="M2">
-        <v>1.043766752759186</v>
+        <v>1.043575917977507</v>
       </c>
       <c r="N2">
-        <v>1.013429816557559</v>
+        <v>1.014732893710012</v>
       </c>
       <c r="O2">
-        <v>1.029999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04321083457457</v>
+        <v>1.043059802189521</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.046557615578024</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044309750825468</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024563563817993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01004789295253</v>
+        <v>1.009872440159455</v>
       </c>
       <c r="D3">
-        <v>1.040998536150944</v>
+        <v>1.037613123458101</v>
       </c>
       <c r="E3">
-        <v>1.0247013369354</v>
+        <v>1.024523707942655</v>
       </c>
       <c r="F3">
-        <v>1.035365980764423</v>
+        <v>1.035134483456235</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.054535770148853</v>
+        <v>1.053254749983423</v>
       </c>
       <c r="J3">
-        <v>1.030268340318293</v>
+        <v>1.030097543354016</v>
       </c>
       <c r="K3">
-        <v>1.051132389771366</v>
+        <v>1.047786335420703</v>
       </c>
       <c r="L3">
-        <v>1.035027621602189</v>
+        <v>1.034852131837825</v>
       </c>
       <c r="M3">
-        <v>1.045565493570193</v>
+        <v>1.045336713765333</v>
       </c>
       <c r="N3">
-        <v>1.013998811812707</v>
+        <v>1.015171931187997</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.044634410607262</v>
+        <v>1.044453347739331</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.047222617308509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044865127066504</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02467523817482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,105 +563,123 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012246404864553</v>
+        <v>1.012036979287627</v>
       </c>
       <c r="D4">
-        <v>1.042115761405369</v>
+        <v>1.03863325585105</v>
       </c>
       <c r="E4">
-        <v>1.026409060078064</v>
+        <v>1.026203307389254</v>
       </c>
       <c r="F4">
-        <v>1.037039581674802</v>
+        <v>1.036783903751657</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.05500528574626</v>
+        <v>1.053679185700944</v>
       </c>
       <c r="J4">
-        <v>1.031341950655466</v>
+        <v>1.031137710479195</v>
       </c>
       <c r="K4">
-        <v>1.051731129557675</v>
+        <v>1.048286741256355</v>
       </c>
       <c r="L4">
-        <v>1.036198866127482</v>
+        <v>1.035995442182357</v>
       </c>
       <c r="M4">
-        <v>1.046710615334009</v>
+        <v>1.046457758901948</v>
       </c>
       <c r="N4">
-        <v>1.014359962932245</v>
+        <v>1.015450609605003</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045540691985088</v>
+        <v>1.045340574432074</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.047646853381819</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045219921663845</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024743468103688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013162236788304</v>
+        <v>1.012938731177116</v>
       </c>
       <c r="D5">
-        <v>1.042587540669935</v>
+        <v>1.039064390630704</v>
       </c>
       <c r="E5">
-        <v>1.027121941629969</v>
+        <v>1.026904518757161</v>
       </c>
       <c r="F5">
-        <v>1.037738308832287</v>
+        <v>1.037472608793864</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055200263471676</v>
+        <v>1.053855348719619</v>
       </c>
       <c r="J5">
-        <v>1.031788815960335</v>
+        <v>1.031570680806891</v>
       </c>
       <c r="K5">
-        <v>1.05198535593029</v>
+        <v>1.048499770394556</v>
       </c>
       <c r="L5">
-        <v>1.036687009069848</v>
+        <v>1.036471981627048</v>
       </c>
       <c r="M5">
-        <v>1.047187908486358</v>
+        <v>1.046925062969358</v>
       </c>
       <c r="N5">
-        <v>1.014510528913958</v>
+        <v>1.015566789106181</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.045918434798889</v>
+        <v>1.045710411714483</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047833703849484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04537836586465</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024772586999863</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013316013116951</v>
+        <v>1.013090171786349</v>
       </c>
       <c r="D6">
-        <v>1.042673193702726</v>
+        <v>1.039142919259504</v>
       </c>
       <c r="E6">
-        <v>1.027241857538423</v>
+        <v>1.027022491970647</v>
       </c>
       <c r="F6">
-        <v>1.037855673103538</v>
+        <v>1.037588327102338</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055234820981402</v>
+        <v>1.053886716459004</v>
       </c>
       <c r="J6">
-        <v>1.031864066228574</v>
+        <v>1.031643623914332</v>
       </c>
       <c r="K6">
-        <v>1.052034438513412</v>
+        <v>1.048541636752724</v>
       </c>
       <c r="L6">
-        <v>1.036769230543917</v>
+        <v>1.036552270778831</v>
       </c>
       <c r="M6">
-        <v>1.047268131954463</v>
+        <v>1.047003645109982</v>
       </c>
       <c r="N6">
-        <v>1.014536183233754</v>
+        <v>1.015586577601036</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.045981925819717</v>
+        <v>1.045772603762042</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047877061915406</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045417503269987</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024779107527656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012260008584808</v>
+        <v>1.012058446834575</v>
       </c>
       <c r="D7">
-        <v>1.04213978792496</v>
+        <v>1.03865759731205</v>
       </c>
       <c r="E7">
-        <v>1.026420009374258</v>
+        <v>1.02622071139102</v>
       </c>
       <c r="F7">
-        <v>1.037049805869778</v>
+        <v>1.036799195952028</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.055013352661085</v>
+        <v>1.053689788873267</v>
       </c>
       <c r="J7">
-        <v>1.031349239714626</v>
+        <v>1.031152666602037</v>
       </c>
       <c r="K7">
-        <v>1.051752054284148</v>
+        <v>1.048307962628655</v>
       </c>
       <c r="L7">
-        <v>1.036206793485458</v>
+        <v>1.036009750360807</v>
       </c>
       <c r="M7">
-        <v>1.046717868273578</v>
+        <v>1.046470022915734</v>
       </c>
       <c r="N7">
-        <v>1.014363233140773</v>
+        <v>1.015481070342511</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045546432160662</v>
+        <v>1.045350280512031</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047681548762508</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045256854420068</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024748819981149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007769025886791</v>
+        <v>1.007653694127663</v>
       </c>
       <c r="D8">
-        <v>1.039865344533161</v>
+        <v>1.036585029945486</v>
       </c>
       <c r="E8">
-        <v>1.022936515662255</v>
+        <v>1.022808509048267</v>
       </c>
       <c r="F8">
-        <v>1.033636586859835</v>
+        <v>1.033446148264826</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.054047628626452</v>
+        <v>1.052822122610701</v>
       </c>
       <c r="J8">
-        <v>1.02915424067078</v>
+        <v>1.029042184791316</v>
       </c>
       <c r="K8">
-        <v>1.050531090455718</v>
+        <v>1.047291228715467</v>
       </c>
       <c r="L8">
-        <v>1.033814507903633</v>
+        <v>1.033688139624527</v>
       </c>
       <c r="M8">
-        <v>1.044379418836712</v>
+        <v>1.044191355319123</v>
       </c>
       <c r="N8">
-        <v>1.013625100158485</v>
+        <v>1.014968591221827</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.043695716720856</v>
+        <v>1.043546877696851</v>
       </c>
       <c r="Q8">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R8">
-        <v>1.04682275356467</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04454292336613</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024608949580006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9995510403451467</v>
+        <v>0.9995687032024572</v>
       </c>
       <c r="D9">
-        <v>1.035717549184895</v>
+        <v>1.032803808359056</v>
       </c>
       <c r="E9">
-        <v>1.016609632414524</v>
+        <v>1.016591301690073</v>
       </c>
       <c r="F9">
-        <v>1.027446453841556</v>
+        <v>1.027349777947497</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052202442672713</v>
+        <v>1.051146507430563</v>
       </c>
       <c r="J9">
-        <v>1.025119662502296</v>
+        <v>1.025136700869531</v>
       </c>
       <c r="K9">
-        <v>1.048256545076142</v>
+        <v>1.045386178100979</v>
       </c>
       <c r="L9">
-        <v>1.029438857563746</v>
+        <v>1.029420811957664</v>
       </c>
       <c r="M9">
-        <v>1.040109390836245</v>
+        <v>1.040014178648179</v>
       </c>
       <c r="N9">
-        <v>1.012267098128925</v>
+        <v>1.013931314172233</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.04031628288897</v>
+        <v>1.040240928802753</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.045211403043659</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043192523342843</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024322770189507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9939083573483922</v>
+        <v>0.9940549143348274</v>
       </c>
       <c r="D10">
-        <v>1.032895722292767</v>
+        <v>1.030241729656048</v>
       </c>
       <c r="E10">
-        <v>1.012333342852175</v>
+        <v>1.012420974436616</v>
       </c>
       <c r="F10">
-        <v>1.023315732917471</v>
+        <v>1.023307548022067</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050905478128997</v>
+        <v>1.049979096992361</v>
       </c>
       <c r="J10">
-        <v>1.022365766510372</v>
+        <v>1.022506408435373</v>
       </c>
       <c r="K10">
-        <v>1.046695393446811</v>
+        <v>1.044085615882532</v>
       </c>
       <c r="L10">
-        <v>1.026483429199626</v>
+        <v>1.026569528285329</v>
       </c>
       <c r="M10">
-        <v>1.03727639980023</v>
+        <v>1.037268354119504</v>
       </c>
       <c r="N10">
-        <v>1.011344652749259</v>
+        <v>1.01334693349066</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.038125616765886</v>
+        <v>1.038119249525245</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.044124221806203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042291278306892</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024117202445905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9918605193795902</v>
+        <v>0.9921138186384636</v>
       </c>
       <c r="D11">
-        <v>1.031817133358487</v>
+        <v>1.029265935930821</v>
       </c>
       <c r="E11">
-        <v>1.011057305227839</v>
+        <v>1.011232333422339</v>
       </c>
       <c r="F11">
-        <v>1.022465634878097</v>
+        <v>1.022529674231806</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.050537116998877</v>
+        <v>1.049681797288138</v>
       </c>
       <c r="J11">
-        <v>1.021575874834032</v>
+        <v>1.021818392326603</v>
       </c>
       <c r="K11">
-        <v>1.04616297464378</v>
+        <v>1.043656267369639</v>
       </c>
       <c r="L11">
-        <v>1.025773666731326</v>
+        <v>1.025945488222707</v>
       </c>
       <c r="M11">
-        <v>1.036975964064586</v>
+        <v>1.037038863720992</v>
       </c>
       <c r="N11">
-        <v>1.011115406923558</v>
+        <v>1.013418648414964</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.038324141363993</v>
+        <v>1.038373894237828</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.043780249303776</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042023431105277</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024059495244371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9912600292668912</v>
+        <v>0.991556351895356</v>
       </c>
       <c r="D12">
-        <v>1.031452954554841</v>
+        <v>1.02893304849666</v>
       </c>
       <c r="E12">
-        <v>1.010801597536483</v>
+        <v>1.011011573702347</v>
       </c>
       <c r="F12">
-        <v>1.022500007611363</v>
+        <v>1.022593464000779</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.050472312081707</v>
+        <v>1.049643411997569</v>
       </c>
       <c r="J12">
-        <v>1.021438942227637</v>
+        <v>1.021722411403536</v>
       </c>
       <c r="K12">
-        <v>1.046001394764686</v>
+        <v>1.043526164868466</v>
       </c>
       <c r="L12">
-        <v>1.025724741145017</v>
+        <v>1.025930806949659</v>
       </c>
       <c r="M12">
-        <v>1.037208475778018</v>
+        <v>1.037300242879158</v>
       </c>
       <c r="N12">
-        <v>1.011097268758837</v>
+        <v>1.013515451499118</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.038834425748763</v>
+        <v>1.038906987858246</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.043666009587707</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041931447925097</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02404364270514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9917354009346421</v>
+        <v>0.9920174585786523</v>
       </c>
       <c r="D13">
-        <v>1.031633345482175</v>
+        <v>1.029088672012052</v>
       </c>
       <c r="E13">
-        <v>1.011317640083853</v>
+        <v>1.011515666038539</v>
       </c>
       <c r="F13">
-        <v>1.023230217273342</v>
+        <v>1.023315219318857</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.050647133609155</v>
+        <v>1.049807948173446</v>
       </c>
       <c r="J13">
-        <v>1.02179978199043</v>
+        <v>1.022069666229621</v>
       </c>
       <c r="K13">
-        <v>1.046136511499305</v>
+        <v>1.043636783984563</v>
       </c>
       <c r="L13">
-        <v>1.026187860340399</v>
+        <v>1.026382215669196</v>
       </c>
       <c r="M13">
-        <v>1.037882910009653</v>
+        <v>1.037966383537421</v>
       </c>
       <c r="N13">
-        <v>1.011242952614406</v>
+        <v>1.013603755676846</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039644292781591</v>
+        <v>1.039710280416088</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.043759075653863</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042006947025422</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024065401276188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.992553380463468</v>
+        <v>0.9928002395163338</v>
       </c>
       <c r="D14">
-        <v>1.032009611111689</v>
+        <v>1.029422375546215</v>
       </c>
       <c r="E14">
-        <v>1.012025340432704</v>
+        <v>1.012194551952037</v>
       </c>
       <c r="F14">
-        <v>1.024053358598471</v>
+        <v>1.02411589436357</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050877680131551</v>
+        <v>1.050014981505631</v>
       </c>
       <c r="J14">
-        <v>1.022275364690847</v>
+        <v>1.022511721885551</v>
       </c>
       <c r="K14">
-        <v>1.046368319074394</v>
+        <v>1.043826241031595</v>
       </c>
       <c r="L14">
-        <v>1.026740660861625</v>
+        <v>1.026906775892867</v>
       </c>
       <c r="M14">
-        <v>1.038551879419829</v>
+        <v>1.038613305272244</v>
       </c>
       <c r="N14">
-        <v>1.011418357821684</v>
+        <v>1.013662431882231</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040346355695408</v>
+        <v>1.040394907614803</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.043924375741016</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.042142442681083</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02409836445932</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9929896615047421</v>
+        <v>0.9932163273958302</v>
       </c>
       <c r="D15">
-        <v>1.03222589103674</v>
+        <v>1.029615893986003</v>
       </c>
       <c r="E15">
-        <v>1.012372964037602</v>
+        <v>1.01252571238944</v>
       </c>
       <c r="F15">
-        <v>1.02441951758958</v>
+        <v>1.024468949266286</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.0509894766592</v>
+        <v>1.050113331936339</v>
       </c>
       <c r="J15">
-        <v>1.022504141384996</v>
+        <v>1.022721248360619</v>
       </c>
       <c r="K15">
-        <v>1.046495931026912</v>
+        <v>1.043931155566687</v>
       </c>
       <c r="L15">
-        <v>1.026994603718355</v>
+        <v>1.027144578391887</v>
       </c>
       <c r="M15">
-        <v>1.038825702560857</v>
+        <v>1.03887426367556</v>
       </c>
       <c r="N15">
-        <v>1.011498637718805</v>
+        <v>1.013679326296877</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040600305214921</v>
+        <v>1.040638687642482</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.044020403376856</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.042222999870522</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024116292570247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9952835229229103</v>
+        <v>0.9954056303079928</v>
       </c>
       <c r="D16">
-        <v>1.033387448074454</v>
+        <v>1.030661195103116</v>
       </c>
       <c r="E16">
-        <v>1.014085985655179</v>
+        <v>1.014153497294947</v>
       </c>
       <c r="F16">
-        <v>1.026057428723983</v>
+        <v>1.026037623861247</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.051520508875466</v>
+        <v>1.050572555056824</v>
       </c>
       <c r="J16">
-        <v>1.023608138440703</v>
+        <v>1.023725352407098</v>
       </c>
       <c r="K16">
-        <v>1.047143972167895</v>
+        <v>1.044462954327693</v>
       </c>
       <c r="L16">
-        <v>1.028169542112664</v>
+        <v>1.028235881799739</v>
       </c>
       <c r="M16">
-        <v>1.039936279361197</v>
+        <v>1.039916808064095</v>
       </c>
       <c r="N16">
-        <v>1.011863993736248</v>
+        <v>1.01373723680788</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041439405382214</v>
+        <v>1.04142401494153</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.044481716527192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.042602434994349</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024203969168565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9966165236291746</v>
+        <v>0.9966855782559407</v>
       </c>
       <c r="D17">
-        <v>1.034084327518877</v>
+        <v>1.031292675348831</v>
       </c>
       <c r="E17">
-        <v>1.015030726465277</v>
+        <v>1.015054826550825</v>
       </c>
       <c r="F17">
-        <v>1.026878529574934</v>
+        <v>1.026822805529067</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.051804938166574</v>
+        <v>1.050817217145579</v>
       </c>
       <c r="J17">
-        <v>1.02420534765403</v>
+        <v>1.024271723353265</v>
       </c>
       <c r="K17">
-        <v>1.047520010515263</v>
+        <v>1.044773409513888</v>
       </c>
       <c r="L17">
-        <v>1.028780247100519</v>
+        <v>1.028803940626862</v>
       </c>
       <c r="M17">
-        <v>1.040431140993981</v>
+        <v>1.040376329402284</v>
       </c>
       <c r="N17">
-        <v>1.012052118828975</v>
+        <v>1.013779804595446</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041701591973116</v>
+        <v>1.04165826365805</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.044750145889808</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.042824748650595</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02425350821352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9972391041574752</v>
+        <v>0.9972833169916641</v>
       </c>
       <c r="D18">
-        <v>1.034432105568018</v>
+        <v>1.031611612600787</v>
       </c>
       <c r="E18">
-        <v>1.015377194583291</v>
+        <v>1.01538076392796</v>
       </c>
       <c r="F18">
-        <v>1.027025749232114</v>
+        <v>1.026952248122924</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051895337629094</v>
+        <v>1.050887914064254</v>
       </c>
       <c r="J18">
-        <v>1.024406822110408</v>
+        <v>1.024449351672612</v>
       </c>
       <c r="K18">
-        <v>1.047681834217578</v>
+        <v>1.044906120521085</v>
       </c>
       <c r="L18">
-        <v>1.028935673587619</v>
+        <v>1.028939183700438</v>
       </c>
       <c r="M18">
-        <v>1.040393737858179</v>
+        <v>1.040321421336777</v>
       </c>
       <c r="N18">
-        <v>1.012098770011316</v>
+        <v>1.013770336981959</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041434472670476</v>
+        <v>1.041377294884966</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.044853053032697</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.042905923565108</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024270977074824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9972103491962996</v>
+        <v>0.9972506317578126</v>
       </c>
       <c r="D19">
-        <v>1.034484086696233</v>
+        <v>1.031665770730304</v>
       </c>
       <c r="E19">
-        <v>1.015169877525663</v>
+        <v>1.015170027509218</v>
       </c>
       <c r="F19">
-        <v>1.026547728776975</v>
+        <v>1.026470268259999</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051814898503341</v>
+        <v>1.050804437864854</v>
       </c>
       <c r="J19">
-        <v>1.024243915768063</v>
+        <v>1.024282673534598</v>
       </c>
       <c r="K19">
-        <v>1.047671494073611</v>
+        <v>1.04489767900043</v>
       </c>
       <c r="L19">
-        <v>1.028668630242233</v>
+        <v>1.028668777748862</v>
       </c>
       <c r="M19">
-        <v>1.039861251649727</v>
+        <v>1.03978503437199</v>
       </c>
       <c r="N19">
-        <v>1.012018072985718</v>
+        <v>1.013694387589278</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.040688099733745</v>
+        <v>1.040627818101975</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.044852064615181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.042906908788426</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024263860706322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9953722068474533</v>
+        <v>0.9954631899795988</v>
       </c>
       <c r="D20">
-        <v>1.03366568761006</v>
+        <v>1.030937316120289</v>
       </c>
       <c r="E20">
-        <v>1.013442587291762</v>
+        <v>1.013484391659987</v>
       </c>
       <c r="F20">
-        <v>1.024387662333553</v>
+        <v>1.024342449850755</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051256358527467</v>
+        <v>1.050288120667202</v>
       </c>
       <c r="J20">
-        <v>1.023082695171167</v>
+        <v>1.023170125245255</v>
       </c>
       <c r="K20">
-        <v>1.047141316213611</v>
+        <v>1.044457141986825</v>
       </c>
       <c r="L20">
-        <v>1.0272531128357</v>
+        <v>1.027294207122791</v>
       </c>
       <c r="M20">
-        <v>1.038014823524674</v>
+        <v>1.037970358120099</v>
       </c>
       <c r="N20">
-        <v>1.011587308657838</v>
+        <v>1.0134272711664</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038699447982753</v>
+        <v>1.038664258251954</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.044481085068203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.042599696149751</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024180329886265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9910552727751546</v>
+        <v>0.9913534548001568</v>
       </c>
       <c r="D21">
-        <v>1.031522123165015</v>
+        <v>1.029016597907289</v>
       </c>
       <c r="E21">
-        <v>1.010131481439943</v>
+        <v>1.010344242946573</v>
       </c>
       <c r="F21">
-        <v>1.021117080383519</v>
+        <v>1.021209306199873</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050225011445014</v>
+        <v>1.04939478011638</v>
       </c>
       <c r="J21">
-        <v>1.020931788854473</v>
+        <v>1.021217186177316</v>
       </c>
       <c r="K21">
-        <v>1.045929935654514</v>
+        <v>1.043468333367739</v>
       </c>
       <c r="L21">
-        <v>1.024923418832746</v>
+        <v>1.025132255276803</v>
       </c>
       <c r="M21">
-        <v>1.035709131113631</v>
+        <v>1.035799702498025</v>
       </c>
       <c r="N21">
-        <v>1.010860220735747</v>
+        <v>1.013319505976383</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.036833763005228</v>
+        <v>1.036905444546774</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.043627790547161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041904087813385</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02401813407901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9883172801168346</v>
+        <v>0.9887460636800188</v>
       </c>
       <c r="D22">
-        <v>1.030149567513169</v>
+        <v>1.027785736467607</v>
       </c>
       <c r="E22">
-        <v>1.008055788268815</v>
+        <v>1.008376545444763</v>
       </c>
       <c r="F22">
-        <v>1.019092496934638</v>
+        <v>1.019271628226646</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04956500203195</v>
+        <v>1.048822213256469</v>
       </c>
       <c r="J22">
-        <v>1.019578943614636</v>
+        <v>1.01998827539801</v>
       </c>
       <c r="K22">
-        <v>1.045146517193766</v>
+        <v>1.042826142648066</v>
       </c>
       <c r="L22">
-        <v>1.023469329990125</v>
+        <v>1.02378386791652</v>
       </c>
       <c r="M22">
-        <v>1.034294984597059</v>
+        <v>1.034470739619784</v>
       </c>
       <c r="N22">
-        <v>1.010403945902229</v>
+        <v>1.013247902848734</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.035714554240377</v>
+        <v>1.035853653474779</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.043060539388643</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041435366245545</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023909366893916</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9897734097030207</v>
+        <v>0.9901197736922499</v>
       </c>
       <c r="D23">
-        <v>1.030864462937514</v>
+        <v>1.028423435530257</v>
       </c>
       <c r="E23">
-        <v>1.009158598176743</v>
+        <v>1.009411159044431</v>
       </c>
       <c r="F23">
-        <v>1.02016863788545</v>
+        <v>1.02029306695941</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049913247758582</v>
+        <v>1.049119305483535</v>
       </c>
       <c r="J23">
-        <v>1.020298414213054</v>
+        <v>1.020629525190233</v>
       </c>
       <c r="K23">
-        <v>1.045549073293447</v>
+        <v>1.043151815022803</v>
       </c>
       <c r="L23">
-        <v>1.024242118577895</v>
+        <v>1.024489908970643</v>
       </c>
       <c r="M23">
-        <v>1.035047052519312</v>
+        <v>1.035169196556794</v>
       </c>
       <c r="N23">
-        <v>1.01064571205434</v>
+        <v>1.013242878997866</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036309769312635</v>
+        <v>1.036406438688488</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.043335637495194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041655154252222</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023963471943953</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9953982111585835</v>
+        <v>0.9954875865587299</v>
       </c>
       <c r="D24">
-        <v>1.033662865397578</v>
+        <v>1.030934626437293</v>
       </c>
       <c r="E24">
-        <v>1.013435490195269</v>
+        <v>1.013476030448642</v>
       </c>
       <c r="F24">
-        <v>1.024343875433111</v>
+        <v>1.024297367387537</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.051245886476186</v>
+        <v>1.050276611531014</v>
       </c>
       <c r="J24">
-        <v>1.023074561206741</v>
+        <v>1.02316045149161</v>
       </c>
       <c r="K24">
-        <v>1.047123533601792</v>
+        <v>1.044439433605997</v>
       </c>
       <c r="L24">
-        <v>1.027230701355664</v>
+        <v>1.027270553870801</v>
       </c>
       <c r="M24">
-        <v>1.03795655956686</v>
+        <v>1.037910819108814</v>
       </c>
       <c r="N24">
-        <v>1.011580117512978</v>
+        <v>1.013417403408392</v>
       </c>
       <c r="O24">
-        <v>1.029999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.038612458828715</v>
+        <v>1.03857625822694</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.044441419953115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.042557377474323</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024174203227915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00171442730118</v>
+        <v>1.00168718475387</v>
       </c>
       <c r="D25">
-        <v>1.036830098466524</v>
+        <v>1.033816250722486</v>
       </c>
       <c r="E25">
-        <v>1.018269921337748</v>
+        <v>1.018214566303478</v>
       </c>
       <c r="F25">
-        <v>1.029068927821308</v>
+        <v>1.028941351163515</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052703269838303</v>
+        <v>1.051599064502582</v>
       </c>
       <c r="J25">
-        <v>1.026184231561342</v>
+        <v>1.026157901506382</v>
       </c>
       <c r="K25">
-        <v>1.048882365004501</v>
+        <v>1.045911351189528</v>
       </c>
       <c r="L25">
-        <v>1.030591089286202</v>
+        <v>1.030536554873394</v>
       </c>
       <c r="M25">
-        <v>1.041232143706042</v>
+        <v>1.041106408528914</v>
       </c>
       <c r="N25">
-        <v>1.012626806481818</v>
+        <v>1.014173062811302</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041204866186087</v>
+        <v>1.041105355314023</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.045682150899007</v>
+        <v>1.043594954268783</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024406486711391</v>
       </c>
     </row>
   </sheetData>
